--- a/me/4.create-a-restful-api/4.api-key-authentication.xlsx
+++ b/me/4.create-a-restful-api/4.api-key-authentication.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90602B62-877A-4FBE-9D75-FA06CB185F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47778ED0-F578-4530-9985-7AC95246E22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create user table" sheetId="1" r:id="rId1"/>
+    <sheet name="Register user" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
   <si>
     <t>Create a table to store user account data</t>
   </si>
@@ -52,9 +53,6 @@
   </si>
   <si>
     <t>https://www.php.net/manual/en/function.password-hash.php</t>
-  </si>
-  <si>
-    <t>Giá trị hash password thông thường được lưu field 255 ký tự</t>
   </si>
   <si>
     <t>構成</t>
@@ -173,6 +171,225 @@
   </si>
   <si>
     <t>DB</t>
+  </si>
+  <si>
+    <t>Add a register page to insert a new user record and generate a new API key</t>
+  </si>
+  <si>
+    <t>register.php</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\register.php</t>
+  </si>
+  <si>
+    <t>&lt;?php</t>
+  </si>
+  <si>
+    <t>require __DIR__ . "/vendor/autoload.php";</t>
+  </si>
+  <si>
+    <t>if ($_SERVER["REQUEST_METHOD"] === "POST") {</t>
+  </si>
+  <si>
+    <t>    $dotenv = Dotenv\Dotenv::createImmutable(__DIR__);</t>
+  </si>
+  <si>
+    <t>    $dotenv-&gt;load();</t>
+  </si>
+  <si>
+    <t>    $database = new Database(</t>
+  </si>
+  <si>
+    <t>        $_ENV["DB_HOST"],</t>
+  </si>
+  <si>
+    <t>        $_ENV["DB_NAME"],</t>
+  </si>
+  <si>
+    <t>        $_ENV["DB_USER"],</t>
+  </si>
+  <si>
+    <t>        $_ENV["DB_PASS"]</t>
+  </si>
+  <si>
+    <t>    );</t>
+  </si>
+  <si>
+    <t>    $conn = $database-&gt;getConnection();</t>
+  </si>
+  <si>
+    <t>    $sql = "INSERT INTO user (name, username, password_hash, api_key)</t>
+  </si>
+  <si>
+    <t>            VALUES (:name, :username, :password_hash, :api_key)";</t>
+  </si>
+  <si>
+    <t>    $stmt = $conn-&gt;prepare($sql);</t>
+  </si>
+  <si>
+    <t>    $password_hash = password_hash($_POST["password"], PASSWORD_DEFAULT);</t>
+  </si>
+  <si>
+    <t>    $api_key = bin2hex(random_bytes(16));</t>
+  </si>
+  <si>
+    <t>    $stmt-&gt;bindValue(":name", $_POST["name"], PDO::PARAM_STR);</t>
+  </si>
+  <si>
+    <t>    $stmt-&gt;bindValue(":username", $_POST["username"], PDO::PARAM_STR);</t>
+  </si>
+  <si>
+    <t>    $stmt-&gt;bindValue(":password_hash", $password_hash, PDO::PARAM_STR);</t>
+  </si>
+  <si>
+    <t>    $stmt-&gt;bindValue(":api_key", $api_key, PDO::PARAM_STR);</t>
+  </si>
+  <si>
+    <t>    $stmt-&gt;execute();</t>
+  </si>
+  <si>
+    <t>    echo "Thank you for registering. Your API key is ", $api_key;</t>
+  </si>
+  <si>
+    <t>    exit;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>?&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;head&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;meta charset="UTF-8"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;title&gt;Register&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;link rel="stylesheet" href="https://unpkg.com/@picocss/pico@latest/css/pico.min.css"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>&lt;body&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;main class="container"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;h1&gt;Register&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;form method="post"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;label for="name"&gt;</t>
+  </si>
+  <si>
+    <t>                Name</t>
+  </si>
+  <si>
+    <t>                &lt;input name="name" id="name"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/label&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;label for="username"&gt;</t>
+  </si>
+  <si>
+    <t>                Username</t>
+  </si>
+  <si>
+    <t>                &lt;input name="username" id="username"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;label for="password"&gt;</t>
+  </si>
+  <si>
+    <t>                Password</t>
+  </si>
+  <si>
+    <t>                &lt;input type="password" name="password" id="password"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;button&gt;Register&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/main&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/body&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Minimal CSS Framework for semantic HTML</t>
+  </si>
+  <si>
+    <t>https://picocss.com/</t>
+  </si>
+  <si>
+    <t>Cho phép style nhanh CSS, ko cần add class cho các thẻ html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cho phép style nhanh CSS, ko cần add class cho các thẻ html. Để có được các style cơ bản thì html </t>
+  </si>
+  <si>
+    <t>được bọc trong thẻ main.container</t>
+  </si>
+  <si>
+    <t>Tự động load các class trong thư mục src</t>
+  </si>
+  <si>
+    <t>random_bytes</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/function.random-bytes.php</t>
+  </si>
+  <si>
+    <t>bin2hex</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/function.bin2hex.php</t>
+  </si>
+  <si>
+    <t>Tạo ra 1 chuỗi random nhưng chuỗi random này là random bytes chứ ko phải là random của các character để dễ dùng</t>
+  </si>
+  <si>
+    <t>Convert chuỗi random bytes tạo bởi random_bytes() sang 1 chuỗi chứa các letters và numbers</t>
+  </si>
+  <si>
+    <t>random_bytes(16) trả về độ dài là 16, sau đó bin2hex() trả về có độ dài là 32</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Password: 123456</t>
+  </si>
+  <si>
+    <t>option PASSWORD_DEFAULT trả về chuỗi có độ dài 60 ký tự</t>
+  </si>
+  <si>
+    <t>Check DB inserted</t>
+  </si>
+  <si>
+    <t>Giá trị hash password mặc định thì sẽ lưu 60 ký tự</t>
   </si>
 </sst>
 </file>
@@ -209,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -297,11 +514,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -317,6 +614,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,6 +782,646 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7747B87E-CAFF-9633-79F5-8FCADEF5A250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2257425" y="19583400"/>
+          <a:ext cx="5657850" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>135299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB73E80-F332-359A-0908-B2F12B4B9D44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="1209675"/>
+          <a:ext cx="11210925" cy="5593124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DC1A85-29DA-A7D1-F6E3-ED0C444CAEA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2667000" y="15963900"/>
+          <a:ext cx="6276975" cy="3333750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87DC22F-3AC4-566E-3733-7A610B5ADF96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2028825" y="16154400"/>
+          <a:ext cx="1533525" cy="4486275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8399</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>65938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96269013-E2E9-B652-1AF8-61978E3B0C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="8077200"/>
+          <a:ext cx="9009524" cy="5895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679CF84E-A546-6BAA-DA68-F07010F3049A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1181100" y="7943850"/>
+          <a:ext cx="3086100" cy="6591300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27448</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>66032</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58155DA6-5271-C894-A91E-D85FC205E419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="15116175"/>
+          <a:ext cx="9019048" cy="5142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>90427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241B19CB-3B6E-1C00-D92F-B5E4FA55B87F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676276" y="42195750"/>
+          <a:ext cx="11277600" cy="5710177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4F3A99-665D-3803-3CC5-454B89514CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="42071925"/>
+          <a:ext cx="333375" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161084</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>18863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85A4AE6-1D56-1452-BBCF-1147CF61EF02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="48625125"/>
+          <a:ext cx="6723809" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>182994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1147A8F3-3123-7946-E935-D61A65D974B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="50330100"/>
+          <a:ext cx="6743700" cy="3764394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39641DD7-D03B-8C3F-F8FD-DF29652231D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6029325" y="31251525"/>
+          <a:ext cx="5019675" cy="22374225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADEC904-7F60-02CE-C02D-662F90435895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3695700" y="31013400"/>
+          <a:ext cx="6029325" cy="22621875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -745,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="T97" sqref="T97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +1775,7 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1496,12 +2443,12 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1515,168 +2462,168 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J65" s="7"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="F66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="F67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="F68" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="F69" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="E70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="E75" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J75" s="7"/>
       <c r="K75" t="s">
+        <v>34</v>
+      </c>
+      <c r="L75" t="s">
         <v>35</v>
-      </c>
-      <c r="L75" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -1684,7 +2631,7 @@
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -1694,12 +2641,12 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -1708,7 +2655,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -1717,7 +2664,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -1726,7 +2673,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -1735,7 +2682,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -1744,7 +2691,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -1753,7 +2700,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -1762,7 +2709,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -1771,7 +2718,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -1780,7 +2727,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
@@ -1789,7 +2736,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1797,4 +2744,5107 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C09160-2AED-4544-9921-84BA27CEB8C5}">
+  <dimension ref="A2:U286"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="Q280" sqref="Q280"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="7"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="7"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="7"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="7"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="11"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="8"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="8"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="8"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="8"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="8"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="8"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="8"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="8"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="8"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="8"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="8"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B73" s="8"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B80" s="8"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B81" s="8"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B82" s="8"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B83" s="8"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B84" s="8"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B85" s="8"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B86" s="8"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B87" s="8"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B88" s="8"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B89" s="8"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B91" s="8"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B93" s="8"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B94" s="8"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B95" s="8"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B96" s="8"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B97" s="8"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B98" s="8"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B99" s="8"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B100" s="8"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B101" s="8"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B102" s="8"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B103" s="8"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="7"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B104" s="8"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="7"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B105" s="8"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="7"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B106" s="8"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="7"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B107" s="9"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="11"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B111" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B112" s="8"/>
+      <c r="C112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="7"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="8"/>
+      <c r="C113" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="7"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="8"/>
+      <c r="C114" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="7"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="8"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="7"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="8"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="7"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="8"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="7"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="8"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="7"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="8"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="7"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="8"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="7"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="8"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="7"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="8"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="7"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="8"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="7"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="8"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="7"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="8"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="7"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="8"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="7"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="8"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="7"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="8"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="7"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="8"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="7"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="8"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="7"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="8"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="7"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="8"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="7"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="8"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="7"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="8"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="7"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="8"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="7"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="9"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="11"/>
+      <c r="K136" t="s">
+        <v>34</v>
+      </c>
+      <c r="L136" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="4"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="8"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="7"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="7"/>
+      <c r="K142" t="s">
+        <v>34</v>
+      </c>
+      <c r="L142" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="8"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="7"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="7"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="8"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="7"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="7"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="7"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="8"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="7"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="7"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="7"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="7"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="7"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="7"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="7"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="8"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="7"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="7"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="8"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="7"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="7"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="7"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="8"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="7"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B161" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="7"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="8"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="7"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="7"/>
+      <c r="K163" t="s">
+        <v>34</v>
+      </c>
+      <c r="L163" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="7"/>
+      <c r="K164" t="s">
+        <v>34</v>
+      </c>
+      <c r="L164" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="8"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="7"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="7"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="7"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="7"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="7"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B170" s="8"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="7"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="7"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B172" s="8"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="7"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="7"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="7"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="7"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B176" s="8"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="7"/>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B177" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="7"/>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B178" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="7"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B179" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="7"/>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B180" s="8"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="7"/>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B181" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="7"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B182" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="7"/>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B183" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="7"/>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B184" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="7"/>
+      <c r="K184" t="s">
+        <v>34</v>
+      </c>
+      <c r="L184" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B185" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="7"/>
+      <c r="L185" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B186" s="8"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="7"/>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B187" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="7"/>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B188" s="8"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="7"/>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B189" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="7"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B190" s="8"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="7"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B191" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="7"/>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B192" s="8"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="7"/>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B193" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="7"/>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B194" s="8"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="7"/>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B195" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="7"/>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B196" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="7"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B197" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="7"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B198" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="7"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B199" s="8"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="7"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B200" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="7"/>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B201" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="7"/>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B202" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="7"/>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B203" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="7"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="8"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="7"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="7"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="7"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="7"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B208" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="6"/>
+      <c r="J208" s="7"/>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B209" s="8"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="6"/>
+      <c r="J209" s="7"/>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B210" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="7"/>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B211" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="6"/>
+      <c r="J211" s="7"/>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B212" s="8"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="6"/>
+      <c r="J212" s="7"/>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B213" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+      <c r="I213" s="6"/>
+      <c r="J213" s="7"/>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B214" s="8"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
+      <c r="I214" s="6"/>
+      <c r="J214" s="7"/>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B215" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="6"/>
+      <c r="J215" s="7"/>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B216" s="8"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="7"/>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B217" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="11"/>
+    </row>
+    <row r="219" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A220" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B220" s="18"/>
+      <c r="C220" s="18"/>
+      <c r="D220" s="18"/>
+      <c r="E220" s="18"/>
+      <c r="F220" s="18"/>
+      <c r="G220" s="18"/>
+      <c r="H220" s="18"/>
+      <c r="I220" s="18"/>
+      <c r="J220" s="18"/>
+      <c r="K220" s="18"/>
+      <c r="L220" s="18"/>
+      <c r="M220" s="18"/>
+      <c r="N220" s="18"/>
+      <c r="O220" s="18"/>
+      <c r="P220" s="18"/>
+      <c r="Q220" s="18"/>
+      <c r="R220" s="18"/>
+      <c r="S220" s="18"/>
+      <c r="T220" s="18"/>
+      <c r="U220" s="19"/>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A221" s="20"/>
+      <c r="B221" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="3"/>
+      <c r="L221" s="3"/>
+      <c r="M221" s="3"/>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="3"/>
+      <c r="R221" s="3"/>
+      <c r="S221" s="3"/>
+      <c r="T221" s="4"/>
+      <c r="U221" s="21"/>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A222" s="20"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+      <c r="I222" s="6"/>
+      <c r="J222" s="6"/>
+      <c r="K222" s="6"/>
+      <c r="L222" s="6"/>
+      <c r="M222" s="6"/>
+      <c r="N222" s="6"/>
+      <c r="O222" s="6"/>
+      <c r="P222" s="6"/>
+      <c r="Q222" s="6"/>
+      <c r="R222" s="6"/>
+      <c r="S222" s="6"/>
+      <c r="T222" s="7"/>
+      <c r="U222" s="21"/>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A223" s="20"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+      <c r="I223" s="6"/>
+      <c r="J223" s="6"/>
+      <c r="K223" s="6"/>
+      <c r="L223" s="6"/>
+      <c r="M223" s="6"/>
+      <c r="N223" s="6"/>
+      <c r="O223" s="6"/>
+      <c r="P223" s="6"/>
+      <c r="Q223" s="6"/>
+      <c r="R223" s="6"/>
+      <c r="S223" s="6"/>
+      <c r="T223" s="7"/>
+      <c r="U223" s="21"/>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A224" s="20"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+      <c r="I224" s="6"/>
+      <c r="J224" s="6"/>
+      <c r="K224" s="6"/>
+      <c r="L224" s="6"/>
+      <c r="M224" s="6"/>
+      <c r="N224" s="6"/>
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
+      <c r="Q224" s="6"/>
+      <c r="R224" s="6"/>
+      <c r="S224" s="6"/>
+      <c r="T224" s="7"/>
+      <c r="U224" s="21"/>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A225" s="20"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
+      <c r="I225" s="6"/>
+      <c r="J225" s="6"/>
+      <c r="K225" s="6"/>
+      <c r="L225" s="6"/>
+      <c r="M225" s="6"/>
+      <c r="N225" s="6"/>
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
+      <c r="Q225" s="6"/>
+      <c r="R225" s="6"/>
+      <c r="S225" s="6"/>
+      <c r="T225" s="7"/>
+      <c r="U225" s="21"/>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A226" s="20"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+      <c r="I226" s="6"/>
+      <c r="J226" s="6"/>
+      <c r="K226" s="6"/>
+      <c r="L226" s="6"/>
+      <c r="M226" s="6"/>
+      <c r="N226" s="6"/>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
+      <c r="Q226" s="6"/>
+      <c r="R226" s="6"/>
+      <c r="S226" s="6"/>
+      <c r="T226" s="7"/>
+      <c r="U226" s="21"/>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A227" s="20"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
+      <c r="I227" s="6"/>
+      <c r="J227" s="6"/>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+      <c r="M227" s="6"/>
+      <c r="N227" s="6"/>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6"/>
+      <c r="Q227" s="6"/>
+      <c r="R227" s="6"/>
+      <c r="S227" s="6"/>
+      <c r="T227" s="7"/>
+      <c r="U227" s="21"/>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A228" s="20"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+      <c r="I228" s="6"/>
+      <c r="J228" s="6"/>
+      <c r="K228" s="6"/>
+      <c r="L228" s="6"/>
+      <c r="M228" s="6"/>
+      <c r="N228" s="6"/>
+      <c r="O228" s="6"/>
+      <c r="P228" s="6"/>
+      <c r="Q228" s="6"/>
+      <c r="R228" s="6"/>
+      <c r="S228" s="6"/>
+      <c r="T228" s="7"/>
+      <c r="U228" s="21"/>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A229" s="20"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+      <c r="I229" s="6"/>
+      <c r="J229" s="6"/>
+      <c r="K229" s="6"/>
+      <c r="L229" s="6"/>
+      <c r="M229" s="6"/>
+      <c r="N229" s="6"/>
+      <c r="O229" s="6"/>
+      <c r="P229" s="6"/>
+      <c r="Q229" s="6"/>
+      <c r="R229" s="6"/>
+      <c r="S229" s="6"/>
+      <c r="T229" s="7"/>
+      <c r="U229" s="21"/>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A230" s="20"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
+      <c r="I230" s="6"/>
+      <c r="J230" s="6"/>
+      <c r="K230" s="6"/>
+      <c r="L230" s="6"/>
+      <c r="M230" s="6"/>
+      <c r="N230" s="6"/>
+      <c r="O230" s="6"/>
+      <c r="P230" s="6"/>
+      <c r="Q230" s="6"/>
+      <c r="R230" s="6"/>
+      <c r="S230" s="6"/>
+      <c r="T230" s="7"/>
+      <c r="U230" s="21"/>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A231" s="20"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="6"/>
+      <c r="I231" s="6"/>
+      <c r="J231" s="6"/>
+      <c r="K231" s="6"/>
+      <c r="L231" s="6"/>
+      <c r="M231" s="6"/>
+      <c r="N231" s="6"/>
+      <c r="O231" s="6"/>
+      <c r="P231" s="6"/>
+      <c r="Q231" s="6"/>
+      <c r="R231" s="6"/>
+      <c r="S231" s="6"/>
+      <c r="T231" s="7"/>
+      <c r="U231" s="21"/>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A232" s="20"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+      <c r="I232" s="6"/>
+      <c r="J232" s="6"/>
+      <c r="K232" s="6"/>
+      <c r="L232" s="6"/>
+      <c r="M232" s="6"/>
+      <c r="N232" s="6"/>
+      <c r="O232" s="6"/>
+      <c r="P232" s="6"/>
+      <c r="Q232" s="6"/>
+      <c r="R232" s="6"/>
+      <c r="S232" s="6"/>
+      <c r="T232" s="7"/>
+      <c r="U232" s="21"/>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A233" s="20"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+      <c r="I233" s="6"/>
+      <c r="J233" s="6"/>
+      <c r="K233" s="6"/>
+      <c r="L233" s="6"/>
+      <c r="M233" s="6"/>
+      <c r="N233" s="6"/>
+      <c r="O233" s="6"/>
+      <c r="P233" s="6"/>
+      <c r="Q233" s="6"/>
+      <c r="R233" s="6"/>
+      <c r="S233" s="6"/>
+      <c r="T233" s="7"/>
+      <c r="U233" s="21"/>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A234" s="20"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+      <c r="I234" s="6"/>
+      <c r="J234" s="6"/>
+      <c r="K234" s="6"/>
+      <c r="L234" s="6"/>
+      <c r="M234" s="6"/>
+      <c r="N234" s="6"/>
+      <c r="O234" s="6"/>
+      <c r="P234" s="6"/>
+      <c r="Q234" s="6"/>
+      <c r="R234" s="6"/>
+      <c r="S234" s="6"/>
+      <c r="T234" s="7"/>
+      <c r="U234" s="21"/>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A235" s="20"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="6"/>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+      <c r="M235" s="6"/>
+      <c r="N235" s="6"/>
+      <c r="O235" s="6"/>
+      <c r="P235" s="6"/>
+      <c r="Q235" s="6"/>
+      <c r="R235" s="6"/>
+      <c r="S235" s="6"/>
+      <c r="T235" s="7"/>
+      <c r="U235" s="21"/>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A236" s="20"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+      <c r="M236" s="6"/>
+      <c r="N236" s="6"/>
+      <c r="O236" s="6"/>
+      <c r="P236" s="6"/>
+      <c r="Q236" s="6"/>
+      <c r="R236" s="6"/>
+      <c r="S236" s="6"/>
+      <c r="T236" s="7"/>
+      <c r="U236" s="21"/>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A237" s="20"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+      <c r="M237" s="6"/>
+      <c r="N237" s="6"/>
+      <c r="O237" s="6"/>
+      <c r="P237" s="6"/>
+      <c r="Q237" s="6"/>
+      <c r="R237" s="6"/>
+      <c r="S237" s="6"/>
+      <c r="T237" s="7"/>
+      <c r="U237" s="21"/>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A238" s="20"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+      <c r="M238" s="6"/>
+      <c r="N238" s="6"/>
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
+      <c r="Q238" s="6"/>
+      <c r="R238" s="6"/>
+      <c r="S238" s="6"/>
+      <c r="T238" s="7"/>
+      <c r="U238" s="21"/>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A239" s="20"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+      <c r="M239" s="6"/>
+      <c r="N239" s="6"/>
+      <c r="O239" s="6"/>
+      <c r="P239" s="6"/>
+      <c r="Q239" s="6"/>
+      <c r="R239" s="6"/>
+      <c r="S239" s="6"/>
+      <c r="T239" s="7"/>
+      <c r="U239" s="21"/>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A240" s="20"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+      <c r="M240" s="6"/>
+      <c r="N240" s="6"/>
+      <c r="O240" s="6"/>
+      <c r="P240" s="6"/>
+      <c r="Q240" s="6"/>
+      <c r="R240" s="6"/>
+      <c r="S240" s="6"/>
+      <c r="T240" s="7"/>
+      <c r="U240" s="21"/>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A241" s="20"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+      <c r="M241" s="6"/>
+      <c r="N241" s="6"/>
+      <c r="O241" s="6"/>
+      <c r="P241" s="6"/>
+      <c r="Q241" s="6"/>
+      <c r="R241" s="6"/>
+      <c r="S241" s="6"/>
+      <c r="T241" s="7"/>
+      <c r="U241" s="21"/>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A242" s="20"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+      <c r="I242" s="6"/>
+      <c r="J242" s="6"/>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+      <c r="M242" s="6"/>
+      <c r="N242" s="6"/>
+      <c r="O242" s="6"/>
+      <c r="P242" s="6"/>
+      <c r="Q242" s="6"/>
+      <c r="R242" s="6"/>
+      <c r="S242" s="6"/>
+      <c r="T242" s="7"/>
+      <c r="U242" s="21"/>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A243" s="20"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6"/>
+      <c r="K243" s="6"/>
+      <c r="L243" s="6"/>
+      <c r="M243" s="6"/>
+      <c r="N243" s="6"/>
+      <c r="O243" s="6"/>
+      <c r="P243" s="6"/>
+      <c r="Q243" s="6"/>
+      <c r="R243" s="6"/>
+      <c r="S243" s="6"/>
+      <c r="T243" s="7"/>
+      <c r="U243" s="21"/>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A244" s="20"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+      <c r="I244" s="6"/>
+      <c r="J244" s="6"/>
+      <c r="K244" s="6"/>
+      <c r="L244" s="6"/>
+      <c r="M244" s="6"/>
+      <c r="N244" s="6"/>
+      <c r="O244" s="6"/>
+      <c r="P244" s="6"/>
+      <c r="Q244" s="6"/>
+      <c r="R244" s="6"/>
+      <c r="S244" s="6"/>
+      <c r="T244" s="7"/>
+      <c r="U244" s="21"/>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A245" s="20"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6"/>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+      <c r="M245" s="6"/>
+      <c r="N245" s="6"/>
+      <c r="O245" s="6"/>
+      <c r="P245" s="6"/>
+      <c r="Q245" s="6"/>
+      <c r="R245" s="6"/>
+      <c r="S245" s="6"/>
+      <c r="T245" s="7"/>
+      <c r="U245" s="21"/>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A246" s="20"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6"/>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+      <c r="M246" s="6"/>
+      <c r="N246" s="6"/>
+      <c r="O246" s="6"/>
+      <c r="P246" s="6"/>
+      <c r="Q246" s="6"/>
+      <c r="R246" s="6"/>
+      <c r="S246" s="6"/>
+      <c r="T246" s="7"/>
+      <c r="U246" s="21"/>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A247" s="20"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="6"/>
+      <c r="J247" s="6"/>
+      <c r="K247" s="6"/>
+      <c r="L247" s="6"/>
+      <c r="M247" s="6"/>
+      <c r="N247" s="6"/>
+      <c r="O247" s="6"/>
+      <c r="P247" s="6"/>
+      <c r="Q247" s="6"/>
+      <c r="R247" s="6"/>
+      <c r="S247" s="6"/>
+      <c r="T247" s="7"/>
+      <c r="U247" s="21"/>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A248" s="20"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+      <c r="I248" s="6"/>
+      <c r="J248" s="6"/>
+      <c r="K248" s="6"/>
+      <c r="L248" s="6"/>
+      <c r="M248" s="6"/>
+      <c r="N248" s="6"/>
+      <c r="O248" s="6"/>
+      <c r="P248" s="6"/>
+      <c r="Q248" s="6"/>
+      <c r="R248" s="6"/>
+      <c r="S248" s="6"/>
+      <c r="T248" s="7"/>
+      <c r="U248" s="21"/>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A249" s="20"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6"/>
+      <c r="K249" s="6"/>
+      <c r="L249" s="6"/>
+      <c r="M249" s="6"/>
+      <c r="N249" s="6"/>
+      <c r="O249" s="6"/>
+      <c r="P249" s="6"/>
+      <c r="Q249" s="6"/>
+      <c r="R249" s="6"/>
+      <c r="S249" s="6"/>
+      <c r="T249" s="7"/>
+      <c r="U249" s="21"/>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A250" s="20"/>
+      <c r="B250" s="8"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6"/>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6"/>
+      <c r="K250" s="6"/>
+      <c r="L250" s="6"/>
+      <c r="M250" s="6"/>
+      <c r="N250" s="6"/>
+      <c r="O250" s="6"/>
+      <c r="P250" s="6"/>
+      <c r="Q250" s="6"/>
+      <c r="R250" s="6"/>
+      <c r="S250" s="6"/>
+      <c r="T250" s="7"/>
+      <c r="U250" s="21"/>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A251" s="20"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
+      <c r="I251" s="6"/>
+      <c r="J251" s="6"/>
+      <c r="K251" s="6"/>
+      <c r="L251" s="6"/>
+      <c r="M251" s="6"/>
+      <c r="N251" s="6"/>
+      <c r="O251" s="6"/>
+      <c r="P251" s="6"/>
+      <c r="Q251" s="6"/>
+      <c r="R251" s="6"/>
+      <c r="S251" s="6"/>
+      <c r="T251" s="7"/>
+      <c r="U251" s="21"/>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A252" s="20"/>
+      <c r="B252" s="9"/>
+      <c r="C252" s="10"/>
+      <c r="D252" s="10"/>
+      <c r="E252" s="10"/>
+      <c r="F252" s="10"/>
+      <c r="G252" s="10"/>
+      <c r="H252" s="10"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="10"/>
+      <c r="K252" s="10"/>
+      <c r="L252" s="10"/>
+      <c r="M252" s="10"/>
+      <c r="N252" s="10"/>
+      <c r="O252" s="10"/>
+      <c r="P252" s="10"/>
+      <c r="Q252" s="10"/>
+      <c r="R252" s="10"/>
+      <c r="S252" s="10"/>
+      <c r="T252" s="11"/>
+      <c r="U252" s="21"/>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A253" s="20"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
+      <c r="K253" s="6"/>
+      <c r="L253" s="6"/>
+      <c r="M253" s="6"/>
+      <c r="N253" s="6"/>
+      <c r="O253" s="6"/>
+      <c r="P253" s="6"/>
+      <c r="Q253" s="6"/>
+      <c r="R253" s="6"/>
+      <c r="S253" s="6"/>
+      <c r="T253" s="6"/>
+      <c r="U253" s="21"/>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A254" s="20"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
+      <c r="K254" s="6"/>
+      <c r="L254" s="6"/>
+      <c r="M254" s="6"/>
+      <c r="N254" s="6"/>
+      <c r="O254" s="6"/>
+      <c r="P254" s="6"/>
+      <c r="Q254" s="6"/>
+      <c r="R254" s="6"/>
+      <c r="S254" s="6"/>
+      <c r="T254" s="6"/>
+      <c r="U254" s="21"/>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A255" s="20"/>
+      <c r="B255" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+      <c r="I255" s="3"/>
+      <c r="J255" s="3"/>
+      <c r="K255" s="3"/>
+      <c r="L255" s="3"/>
+      <c r="M255" s="4"/>
+      <c r="N255" s="6"/>
+      <c r="O255" s="6"/>
+      <c r="P255" s="6"/>
+      <c r="Q255" s="6"/>
+      <c r="R255" s="6"/>
+      <c r="S255" s="6"/>
+      <c r="T255" s="6"/>
+      <c r="U255" s="21"/>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A256" s="20"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
+      <c r="K256" s="6"/>
+      <c r="L256" s="6"/>
+      <c r="M256" s="7"/>
+      <c r="N256" s="6"/>
+      <c r="O256" s="6"/>
+      <c r="P256" s="6"/>
+      <c r="Q256" s="6"/>
+      <c r="R256" s="6"/>
+      <c r="S256" s="6"/>
+      <c r="T256" s="6"/>
+      <c r="U256" s="21"/>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A257" s="20"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+      <c r="K257" s="6"/>
+      <c r="L257" s="6"/>
+      <c r="M257" s="7"/>
+      <c r="N257" s="6"/>
+      <c r="O257" s="6"/>
+      <c r="P257" s="6"/>
+      <c r="Q257" s="6"/>
+      <c r="R257" s="6"/>
+      <c r="S257" s="6"/>
+      <c r="T257" s="6"/>
+      <c r="U257" s="21"/>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A258" s="20"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+      <c r="K258" s="6"/>
+      <c r="L258" s="6"/>
+      <c r="M258" s="7"/>
+      <c r="N258" s="6"/>
+      <c r="O258" s="6"/>
+      <c r="P258" s="6"/>
+      <c r="Q258" s="6"/>
+      <c r="R258" s="6"/>
+      <c r="S258" s="6"/>
+      <c r="T258" s="6"/>
+      <c r="U258" s="21"/>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A259" s="20"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+      <c r="K259" s="6"/>
+      <c r="L259" s="6"/>
+      <c r="M259" s="7"/>
+      <c r="N259" s="6"/>
+      <c r="O259" s="6"/>
+      <c r="P259" s="6"/>
+      <c r="Q259" s="6"/>
+      <c r="R259" s="6"/>
+      <c r="S259" s="6"/>
+      <c r="T259" s="6"/>
+      <c r="U259" s="21"/>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A260" s="20"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
+      <c r="K260" s="6"/>
+      <c r="L260" s="6"/>
+      <c r="M260" s="7"/>
+      <c r="N260" s="6"/>
+      <c r="O260" s="6"/>
+      <c r="P260" s="6"/>
+      <c r="Q260" s="6"/>
+      <c r="R260" s="6"/>
+      <c r="S260" s="6"/>
+      <c r="T260" s="6"/>
+      <c r="U260" s="21"/>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A261" s="20"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+      <c r="I261" s="6"/>
+      <c r="J261" s="6"/>
+      <c r="K261" s="6"/>
+      <c r="L261" s="6"/>
+      <c r="M261" s="7"/>
+      <c r="N261" s="6"/>
+      <c r="O261" s="6"/>
+      <c r="P261" s="6"/>
+      <c r="Q261" s="6"/>
+      <c r="R261" s="6"/>
+      <c r="S261" s="6"/>
+      <c r="T261" s="6"/>
+      <c r="U261" s="21"/>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A262" s="20"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+      <c r="I262" s="6"/>
+      <c r="J262" s="6"/>
+      <c r="K262" s="6"/>
+      <c r="L262" s="6"/>
+      <c r="M262" s="7"/>
+      <c r="N262" s="6"/>
+      <c r="O262" s="6"/>
+      <c r="P262" s="6"/>
+      <c r="Q262" s="6"/>
+      <c r="R262" s="6"/>
+      <c r="S262" s="6"/>
+      <c r="T262" s="6"/>
+      <c r="U262" s="21"/>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A263" s="20"/>
+      <c r="B263" s="8"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
+      <c r="I263" s="6"/>
+      <c r="J263" s="6"/>
+      <c r="K263" s="6"/>
+      <c r="L263" s="6"/>
+      <c r="M263" s="7"/>
+      <c r="N263" s="6"/>
+      <c r="O263" s="6"/>
+      <c r="P263" s="6"/>
+      <c r="Q263" s="6"/>
+      <c r="R263" s="6"/>
+      <c r="S263" s="6"/>
+      <c r="T263" s="6"/>
+      <c r="U263" s="21"/>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A264" s="20"/>
+      <c r="B264" s="8"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+      <c r="I264" s="6"/>
+      <c r="J264" s="6"/>
+      <c r="K264" s="6"/>
+      <c r="L264" s="6"/>
+      <c r="M264" s="7"/>
+      <c r="N264" s="6"/>
+      <c r="O264" s="6"/>
+      <c r="P264" s="6"/>
+      <c r="Q264" s="6"/>
+      <c r="R264" s="6"/>
+      <c r="S264" s="6"/>
+      <c r="T264" s="6"/>
+      <c r="U264" s="21"/>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A265" s="20"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+      <c r="I265" s="6"/>
+      <c r="J265" s="6"/>
+      <c r="K265" s="6"/>
+      <c r="L265" s="6"/>
+      <c r="M265" s="7"/>
+      <c r="N265" s="6"/>
+      <c r="O265" s="6"/>
+      <c r="P265" s="6"/>
+      <c r="Q265" s="6"/>
+      <c r="R265" s="6"/>
+      <c r="S265" s="6"/>
+      <c r="T265" s="6"/>
+      <c r="U265" s="21"/>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A266" s="20"/>
+      <c r="B266" s="8"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
+      <c r="H266" s="6"/>
+      <c r="I266" s="6"/>
+      <c r="J266" s="6"/>
+      <c r="K266" s="6"/>
+      <c r="L266" s="6"/>
+      <c r="M266" s="7"/>
+      <c r="N266" s="6"/>
+      <c r="O266" s="6"/>
+      <c r="P266" s="6"/>
+      <c r="Q266" s="6"/>
+      <c r="R266" s="6"/>
+      <c r="S266" s="6"/>
+      <c r="T266" s="6"/>
+      <c r="U266" s="21"/>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A267" s="20"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="6"/>
+      <c r="I267" s="6"/>
+      <c r="J267" s="6"/>
+      <c r="K267" s="6"/>
+      <c r="L267" s="6"/>
+      <c r="M267" s="7"/>
+      <c r="N267" s="6"/>
+      <c r="O267" s="6"/>
+      <c r="P267" s="6"/>
+      <c r="Q267" s="6"/>
+      <c r="R267" s="6"/>
+      <c r="S267" s="6"/>
+      <c r="T267" s="6"/>
+      <c r="U267" s="21"/>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A268" s="20"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+      <c r="I268" s="6"/>
+      <c r="J268" s="6"/>
+      <c r="K268" s="6"/>
+      <c r="L268" s="6"/>
+      <c r="M268" s="7"/>
+      <c r="N268" s="6"/>
+      <c r="O268" s="6"/>
+      <c r="P268" s="6"/>
+      <c r="Q268" s="6"/>
+      <c r="R268" s="6"/>
+      <c r="S268" s="6"/>
+      <c r="T268" s="6"/>
+      <c r="U268" s="21"/>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A269" s="20"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
+      <c r="I269" s="6"/>
+      <c r="J269" s="6"/>
+      <c r="K269" s="6"/>
+      <c r="L269" s="6"/>
+      <c r="M269" s="7"/>
+      <c r="N269" s="6"/>
+      <c r="O269" s="6"/>
+      <c r="P269" s="6"/>
+      <c r="Q269" s="6"/>
+      <c r="R269" s="6"/>
+      <c r="S269" s="6"/>
+      <c r="T269" s="6"/>
+      <c r="U269" s="21"/>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A270" s="20"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
+      <c r="I270" s="6"/>
+      <c r="J270" s="6"/>
+      <c r="K270" s="6"/>
+      <c r="L270" s="6"/>
+      <c r="M270" s="7"/>
+      <c r="N270" s="6"/>
+      <c r="O270" s="6"/>
+      <c r="P270" s="6"/>
+      <c r="Q270" s="6"/>
+      <c r="R270" s="6"/>
+      <c r="S270" s="6"/>
+      <c r="T270" s="6"/>
+      <c r="U270" s="21"/>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A271" s="20"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="6"/>
+      <c r="I271" s="6"/>
+      <c r="J271" s="6"/>
+      <c r="K271" s="6"/>
+      <c r="L271" s="6"/>
+      <c r="M271" s="7"/>
+      <c r="N271" s="6"/>
+      <c r="O271" s="6"/>
+      <c r="P271" s="6"/>
+      <c r="Q271" s="6"/>
+      <c r="R271" s="6"/>
+      <c r="S271" s="6"/>
+      <c r="T271" s="6"/>
+      <c r="U271" s="21"/>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A272" s="20"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+      <c r="I272" s="6"/>
+      <c r="J272" s="6"/>
+      <c r="K272" s="6"/>
+      <c r="L272" s="6"/>
+      <c r="M272" s="7"/>
+      <c r="N272" s="6"/>
+      <c r="O272" s="6"/>
+      <c r="P272" s="6"/>
+      <c r="Q272" s="6"/>
+      <c r="R272" s="6"/>
+      <c r="S272" s="6"/>
+      <c r="T272" s="6"/>
+      <c r="U272" s="21"/>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A273" s="20"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+      <c r="I273" s="6"/>
+      <c r="J273" s="6"/>
+      <c r="K273" s="6"/>
+      <c r="L273" s="6"/>
+      <c r="M273" s="7"/>
+      <c r="N273" s="6"/>
+      <c r="O273" s="6"/>
+      <c r="P273" s="6"/>
+      <c r="Q273" s="6"/>
+      <c r="R273" s="6"/>
+      <c r="S273" s="6"/>
+      <c r="T273" s="6"/>
+      <c r="U273" s="21"/>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A274" s="20"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+      <c r="I274" s="6"/>
+      <c r="J274" s="6"/>
+      <c r="K274" s="6"/>
+      <c r="L274" s="6"/>
+      <c r="M274" s="7"/>
+      <c r="N274" s="6"/>
+      <c r="O274" s="6"/>
+      <c r="P274" s="6"/>
+      <c r="Q274" s="6"/>
+      <c r="R274" s="6"/>
+      <c r="S274" s="6"/>
+      <c r="T274" s="6"/>
+      <c r="U274" s="21"/>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A275" s="20"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="6"/>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="6"/>
+      <c r="J275" s="6"/>
+      <c r="K275" s="6"/>
+      <c r="L275" s="6"/>
+      <c r="M275" s="7"/>
+      <c r="N275" s="6"/>
+      <c r="O275" s="6"/>
+      <c r="P275" s="6"/>
+      <c r="Q275" s="6"/>
+      <c r="R275" s="6"/>
+      <c r="S275" s="6"/>
+      <c r="T275" s="6"/>
+      <c r="U275" s="21"/>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A276" s="20"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+      <c r="I276" s="6"/>
+      <c r="J276" s="6"/>
+      <c r="K276" s="6"/>
+      <c r="L276" s="6"/>
+      <c r="M276" s="7"/>
+      <c r="N276" s="6"/>
+      <c r="O276" s="6"/>
+      <c r="P276" s="6"/>
+      <c r="Q276" s="6"/>
+      <c r="R276" s="6"/>
+      <c r="S276" s="6"/>
+      <c r="T276" s="6"/>
+      <c r="U276" s="21"/>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A277" s="20"/>
+      <c r="B277" s="8"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+      <c r="I277" s="6"/>
+      <c r="J277" s="6"/>
+      <c r="K277" s="6"/>
+      <c r="L277" s="6"/>
+      <c r="M277" s="7"/>
+      <c r="N277" s="6"/>
+      <c r="O277" s="6"/>
+      <c r="P277" s="6"/>
+      <c r="Q277" s="6"/>
+      <c r="R277" s="6"/>
+      <c r="S277" s="6"/>
+      <c r="T277" s="6"/>
+      <c r="U277" s="21"/>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A278" s="20"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+      <c r="I278" s="6"/>
+      <c r="J278" s="6"/>
+      <c r="K278" s="6"/>
+      <c r="L278" s="6"/>
+      <c r="M278" s="7"/>
+      <c r="N278" s="6"/>
+      <c r="O278" s="6"/>
+      <c r="P278" s="6"/>
+      <c r="Q278" s="6"/>
+      <c r="R278" s="6"/>
+      <c r="S278" s="6"/>
+      <c r="T278" s="6"/>
+      <c r="U278" s="21"/>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A279" s="20"/>
+      <c r="B279" s="8"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+      <c r="I279" s="6"/>
+      <c r="J279" s="6"/>
+      <c r="K279" s="6"/>
+      <c r="L279" s="6"/>
+      <c r="M279" s="7"/>
+      <c r="N279" s="6"/>
+      <c r="O279" s="6"/>
+      <c r="P279" s="6"/>
+      <c r="Q279" s="6"/>
+      <c r="R279" s="6"/>
+      <c r="S279" s="6"/>
+      <c r="T279" s="6"/>
+      <c r="U279" s="21"/>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A280" s="20"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="I280" s="6"/>
+      <c r="J280" s="6"/>
+      <c r="K280" s="6"/>
+      <c r="L280" s="6"/>
+      <c r="M280" s="7"/>
+      <c r="N280" s="6"/>
+      <c r="O280" s="6"/>
+      <c r="P280" s="6"/>
+      <c r="Q280" s="6"/>
+      <c r="R280" s="6"/>
+      <c r="S280" s="6"/>
+      <c r="T280" s="6"/>
+      <c r="U280" s="21"/>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A281" s="20"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+      <c r="I281" s="6"/>
+      <c r="J281" s="6"/>
+      <c r="K281" s="6"/>
+      <c r="L281" s="6"/>
+      <c r="M281" s="7"/>
+      <c r="N281" s="6"/>
+      <c r="O281" s="6"/>
+      <c r="P281" s="6"/>
+      <c r="Q281" s="6"/>
+      <c r="R281" s="6"/>
+      <c r="S281" s="6"/>
+      <c r="T281" s="6"/>
+      <c r="U281" s="21"/>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A282" s="20"/>
+      <c r="B282" s="8"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+      <c r="I282" s="6"/>
+      <c r="J282" s="6"/>
+      <c r="K282" s="6"/>
+      <c r="L282" s="6"/>
+      <c r="M282" s="7"/>
+      <c r="N282" s="6"/>
+      <c r="O282" s="6"/>
+      <c r="P282" s="6"/>
+      <c r="Q282" s="6"/>
+      <c r="R282" s="6"/>
+      <c r="S282" s="6"/>
+      <c r="T282" s="6"/>
+      <c r="U282" s="21"/>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A283" s="20"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+      <c r="I283" s="6"/>
+      <c r="J283" s="6"/>
+      <c r="K283" s="6"/>
+      <c r="L283" s="6"/>
+      <c r="M283" s="7"/>
+      <c r="N283" s="6"/>
+      <c r="O283" s="6"/>
+      <c r="P283" s="6"/>
+      <c r="Q283" s="6"/>
+      <c r="R283" s="6"/>
+      <c r="S283" s="6"/>
+      <c r="T283" s="6"/>
+      <c r="U283" s="21"/>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A284" s="20"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+      <c r="I284" s="6"/>
+      <c r="J284" s="6"/>
+      <c r="K284" s="6"/>
+      <c r="L284" s="6"/>
+      <c r="M284" s="7"/>
+      <c r="N284" s="6"/>
+      <c r="O284" s="6"/>
+      <c r="P284" s="6"/>
+      <c r="Q284" s="6"/>
+      <c r="R284" s="6"/>
+      <c r="S284" s="6"/>
+      <c r="T284" s="6"/>
+      <c r="U284" s="21"/>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A285" s="20"/>
+      <c r="B285" s="9"/>
+      <c r="C285" s="10"/>
+      <c r="D285" s="10"/>
+      <c r="E285" s="10"/>
+      <c r="F285" s="10"/>
+      <c r="G285" s="10"/>
+      <c r="H285" s="10"/>
+      <c r="I285" s="10"/>
+      <c r="J285" s="10"/>
+      <c r="K285" s="10"/>
+      <c r="L285" s="10"/>
+      <c r="M285" s="11"/>
+      <c r="N285" s="6"/>
+      <c r="O285" s="6"/>
+      <c r="P285" s="6"/>
+      <c r="Q285" s="6"/>
+      <c r="R285" s="6"/>
+      <c r="S285" s="6"/>
+      <c r="T285" s="6"/>
+      <c r="U285" s="21"/>
+    </row>
+    <row r="286" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="22"/>
+      <c r="B286" s="23"/>
+      <c r="C286" s="23"/>
+      <c r="D286" s="23"/>
+      <c r="E286" s="23"/>
+      <c r="F286" s="23"/>
+      <c r="G286" s="23"/>
+      <c r="H286" s="23"/>
+      <c r="I286" s="23"/>
+      <c r="J286" s="23"/>
+      <c r="K286" s="23"/>
+      <c r="L286" s="23"/>
+      <c r="M286" s="23"/>
+      <c r="N286" s="23"/>
+      <c r="O286" s="23"/>
+      <c r="P286" s="23"/>
+      <c r="Q286" s="23"/>
+      <c r="R286" s="23"/>
+      <c r="S286" s="23"/>
+      <c r="T286" s="23"/>
+      <c r="U286" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/4.api-key-authentication.xlsx
+++ b/me/4.create-a-restful-api/4.api-key-authentication.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47778ED0-F578-4530-9985-7AC95246E22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6557C378-D34C-4609-BFFE-0213A96D2162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create user table" sheetId="1" r:id="rId1"/>
     <sheet name="Register user" sheetId="2" r:id="rId2"/>
+    <sheet name="Send API key with the request" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="152">
   <si>
     <t>Create a table to store user account data</t>
   </si>
@@ -390,6 +391,99 @@
   </si>
   <si>
     <t>Giá trị hash password mặc định thì sẽ lưu 60 ký tự</t>
+  </si>
+  <si>
+    <t>Send the API key with the request: query string or request header</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\api\index.php</t>
+  </si>
+  <si>
+    <t>declare(strict_types=1);</t>
+  </si>
+  <si>
+    <t>ini_set("display_errors", "On");</t>
+  </si>
+  <si>
+    <t>require dirname(__DIR__) . "/vendor/autoload.php";</t>
+  </si>
+  <si>
+    <t>set_error_handler("ErrorHandler::handleError");</t>
+  </si>
+  <si>
+    <t>set_exception_handler("ErrorHandler::handleException");</t>
+  </si>
+  <si>
+    <t>$dotenv = Dotenv\Dotenv::createImmutable(dirname(__DIR__));</t>
+  </si>
+  <si>
+    <t>$dotenv-&gt;load();</t>
+  </si>
+  <si>
+    <t>$path = parse_url($_SERVER["REQUEST_URI"], PHP_URL_PATH);</t>
+  </si>
+  <si>
+    <t>$parts = explode("/", $path);</t>
+  </si>
+  <si>
+    <t>$resource = $parts[2];</t>
+  </si>
+  <si>
+    <t>$id = $parts[3] ?? null;</t>
+  </si>
+  <si>
+    <t>if ($resource != "tasks") {</t>
+  </si>
+  <si>
+    <t>    http_response_code(404);</t>
+  </si>
+  <si>
+    <t>$api_key = $_GET["api_key"];</t>
+  </si>
+  <si>
+    <t>echo $api_key;</t>
+  </si>
+  <si>
+    <t>exit;</t>
+  </si>
+  <si>
+    <t>header("Content-type: application/json; charset=UTF-8");</t>
+  </si>
+  <si>
+    <t>$database = new Database($_ENV["DB_HOST"], $_ENV["DB_NAME"], $_ENV["DB_USER"], $_ENV["DB_PASS"]);</t>
+  </si>
+  <si>
+    <t>$task_gateway = new TaskGateway($database);</t>
+  </si>
+  <si>
+    <t>$controller = new TaskController($task_gateway);</t>
+  </si>
+  <si>
+    <t>$controller-&gt;processRequest($_SERVER['REQUEST_METHOD'], $id);</t>
+  </si>
+  <si>
+    <t>①Gửi api key bằng cách thêm query string trên URL: api_key=abc</t>
+  </si>
+  <si>
+    <t>Check by cal api</t>
+  </si>
+  <si>
+    <t>②Gửi api key bằng cách thêm query string trên URL hoặc request header</t>
+  </si>
+  <si>
+    <t>API key</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/API_key</t>
+  </si>
+  <si>
+    <t>Có thể gửi api key bằng cách thêm query string trên URL hoặc request header, thông thường thì hay dùng request header hơn giá trị request header này trên server sẽ get từ biến $_SERVER</t>
+  </si>
+  <si>
+    <t>$api_key = $_SERVER["HTTP_X_API_KEY"];</t>
   </si>
 </sst>
 </file>
@@ -598,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -624,6 +718,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1427,6 +1533,467 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>436890</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>132982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B48133-C415-34B7-1A15-ECA0FE850646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="20812125"/>
+          <a:ext cx="10076190" cy="2942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFF61E1-8A76-5873-4503-D66BEB3099F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="17916525"/>
+          <a:ext cx="200025" cy="5248275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CD1BA2-6A2C-DD33-4EE9-671DAC230115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="1200149"/>
+          <a:ext cx="11125200" cy="5517641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF2991C-0BFC-935B-43AD-232987F313E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3533775" y="3581400"/>
+          <a:ext cx="76200" cy="20888325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A4E264A-E00E-E724-B4DB-AEA4871A5E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1600200" y="561975"/>
+          <a:ext cx="9534525" cy="33032700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>398795</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>56771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A04535-FF8F-BE27-108C-D72AD2C0AB46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="34766250"/>
+          <a:ext cx="10038095" cy="3028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C97C29-39A8-4476-16EA-1E0B3C0912C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1390650" y="31842075"/>
+          <a:ext cx="3028950" cy="4286250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AEAA8-C003-E8CE-329C-2B9541901FB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="31823025"/>
+          <a:ext cx="209550" cy="5581650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4686A085-7522-E065-C166-154E41897CE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1590675" y="4505325"/>
+          <a:ext cx="1066800" cy="31508700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2750,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C09160-2AED-4544-9921-84BA27CEB8C5}">
   <dimension ref="A2:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="Q280" sqref="Q280"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7847,4 +8414,3949 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7378C029-B4BF-4602-B59D-C127E59E094F}">
+  <dimension ref="A2:T200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="Q140" sqref="Q140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="7"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="7"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="7"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="11"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="29"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="29"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="29"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="29"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="29"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="29"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="29"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="29"/>
+      <c r="K52" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="29"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="29"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="29"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="29"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="29"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="29"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="29"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="29"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="29"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="33"/>
+    </row>
+    <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="19"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
+      <c r="B69" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="21"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="20"/>
+      <c r="B70" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="21"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="20"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="21"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="20"/>
+      <c r="B72" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="21"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="20"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="21"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="20"/>
+      <c r="B74" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="21"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="20"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="21"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="20"/>
+      <c r="B76" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="21"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="20"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="21"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="20"/>
+      <c r="B78" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="21"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="20"/>
+      <c r="B79" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="21"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="20"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="21"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="20"/>
+      <c r="B81" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="21"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="20"/>
+      <c r="B82" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="21"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="20"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="21"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="20"/>
+      <c r="B84" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="21"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="20"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="21"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="20"/>
+      <c r="B86" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="21"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="20"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="21"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="20"/>
+      <c r="B88" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="21"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="20"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="21"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="20"/>
+      <c r="B90" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="21"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="20"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="21"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="20"/>
+      <c r="B92" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="21"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="20"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="21"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="20"/>
+      <c r="B94" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="21"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="20"/>
+      <c r="B95" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="21"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="20"/>
+      <c r="B96" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="21"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="20"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="21"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="20"/>
+      <c r="B98" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="21"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="20"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="21"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="20"/>
+      <c r="B100" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="21"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="20"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="21"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="20"/>
+      <c r="B102" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="21"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="20"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="21"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="20"/>
+      <c r="B104" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="21"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="20"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="21"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="20"/>
+      <c r="B106" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="21"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="20"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="21"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="20"/>
+      <c r="B108" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="21"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="20"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="21"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="20"/>
+      <c r="B110" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="21"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="20"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="21"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="20"/>
+      <c r="B112" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="21"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="20"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="21"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="20"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="21"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="20"/>
+      <c r="B115" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="21"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="20"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="21"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="20"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="21"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="20"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="7"/>
+      <c r="S118" s="21"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="20"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="7"/>
+      <c r="S119" s="21"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="20"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="7"/>
+      <c r="S120" s="21"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="20"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+      <c r="R121" s="7"/>
+      <c r="S121" s="21"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="20"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="7"/>
+      <c r="S122" s="21"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="20"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+      <c r="O123" s="6"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
+      <c r="R123" s="7"/>
+      <c r="S123" s="21"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="20"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="7"/>
+      <c r="S124" s="21"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="20"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="6"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+      <c r="R125" s="7"/>
+      <c r="S125" s="21"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="20"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="6"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="6"/>
+      <c r="R126" s="7"/>
+      <c r="S126" s="21"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="20"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
+      <c r="R127" s="7"/>
+      <c r="S127" s="21"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="20"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="6"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
+      <c r="R128" s="7"/>
+      <c r="S128" s="21"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="20"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="7"/>
+      <c r="S129" s="21"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="20"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="7"/>
+      <c r="S130" s="21"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="20"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="7"/>
+      <c r="S131" s="21"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="20"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+      <c r="O132" s="10"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10"/>
+      <c r="R132" s="11"/>
+      <c r="S132" s="21"/>
+    </row>
+    <row r="133" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="22"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23"/>
+      <c r="H133" s="23"/>
+      <c r="I133" s="23"/>
+      <c r="J133" s="23"/>
+      <c r="K133" s="23"/>
+      <c r="L133" s="23"/>
+      <c r="M133" s="23"/>
+      <c r="N133" s="23"/>
+      <c r="O133" s="23"/>
+      <c r="P133" s="23"/>
+      <c r="Q133" s="23"/>
+      <c r="R133" s="23"/>
+      <c r="S133" s="24"/>
+    </row>
+    <row r="135" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="18"/>
+      <c r="N136" s="18"/>
+      <c r="O136" s="18"/>
+      <c r="P136" s="18"/>
+      <c r="Q136" s="18"/>
+      <c r="R136" s="18"/>
+      <c r="S136" s="19"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="20"/>
+      <c r="B137" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="21"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="20"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="21"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="20"/>
+      <c r="B139" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="21"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="20"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="21"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="20"/>
+      <c r="B141" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="6"/>
+      <c r="S141" s="21"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="20"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="21"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="20"/>
+      <c r="B143" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="21"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="20"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="21"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="20"/>
+      <c r="B145" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="21"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="20"/>
+      <c r="B146" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="21"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" s="20"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="21"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="20"/>
+      <c r="B148" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="21"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="20"/>
+      <c r="B149" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="21"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="20"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="21"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="20"/>
+      <c r="B151" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="21"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" s="20"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="6"/>
+      <c r="R152" s="6"/>
+      <c r="S152" s="21"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="20"/>
+      <c r="B153" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="21"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="20"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="21"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="20"/>
+      <c r="B155" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="21"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="20"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="21"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="20"/>
+      <c r="B157" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="21"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="20"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="21"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="20"/>
+      <c r="B159" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="21"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="20"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="21"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="20"/>
+      <c r="B161" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="21"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="20"/>
+      <c r="B162" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="21"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="20"/>
+      <c r="B163" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="7"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="21"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" s="20"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="21"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" s="20"/>
+      <c r="B165" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="21"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" s="20"/>
+      <c r="B166" s="35"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="7"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="21"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167" s="20"/>
+      <c r="B167" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="7"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="21"/>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168" s="20"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="6"/>
+      <c r="N168" s="6"/>
+      <c r="O168" s="6"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="6"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="21"/>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" s="20"/>
+      <c r="B169" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="6"/>
+      <c r="N169" s="6"/>
+      <c r="O169" s="6"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="21"/>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" s="20"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="6"/>
+      <c r="N170" s="6"/>
+      <c r="O170" s="6"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="6"/>
+      <c r="R170" s="6"/>
+      <c r="S170" s="21"/>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" s="20"/>
+      <c r="B171" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="7"/>
+      <c r="M171" s="6"/>
+      <c r="N171" s="6"/>
+      <c r="O171" s="6"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" s="6"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="21"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" s="20"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="6"/>
+      <c r="N172" s="6"/>
+      <c r="O172" s="6"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="6"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="21"/>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173" s="20"/>
+      <c r="B173" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="6"/>
+      <c r="L173" s="7"/>
+      <c r="M173" s="6"/>
+      <c r="N173" s="6"/>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="6"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="21"/>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174" s="20"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="21"/>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175" s="20"/>
+      <c r="B175" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="6"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="6"/>
+      <c r="N175" s="6"/>
+      <c r="O175" s="6"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" s="6"/>
+      <c r="R175" s="6"/>
+      <c r="S175" s="21"/>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" s="20"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6"/>
+      <c r="L176" s="7"/>
+      <c r="M176" s="6"/>
+      <c r="N176" s="6"/>
+      <c r="O176" s="6"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="6"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="21"/>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="20"/>
+      <c r="B177" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="6"/>
+      <c r="N177" s="6"/>
+      <c r="O177" s="6"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="6"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="21"/>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" s="20"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="7"/>
+      <c r="M178" s="6"/>
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="6"/>
+      <c r="R178" s="6"/>
+      <c r="S178" s="21"/>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="20"/>
+      <c r="B179" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="10"/>
+      <c r="K179" s="10"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="6"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="21"/>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" s="20"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+      <c r="M180" s="6"/>
+      <c r="N180" s="6"/>
+      <c r="O180" s="6"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="6"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="21"/>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" s="20"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
+      <c r="M181" s="6"/>
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" s="6"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="21"/>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A182" s="20"/>
+      <c r="B182" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+      <c r="P182" s="3"/>
+      <c r="Q182" s="3"/>
+      <c r="R182" s="4"/>
+      <c r="S182" s="21"/>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A183" s="20"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6"/>
+      <c r="M183" s="6"/>
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
+      <c r="P183" s="6"/>
+      <c r="Q183" s="6"/>
+      <c r="R183" s="7"/>
+      <c r="S183" s="21"/>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184" s="20"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6"/>
+      <c r="M184" s="6"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="6"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+      <c r="R184" s="7"/>
+      <c r="S184" s="21"/>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" s="20"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6"/>
+      <c r="M185" s="6"/>
+      <c r="N185" s="6"/>
+      <c r="O185" s="6"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" s="6"/>
+      <c r="R185" s="7"/>
+      <c r="S185" s="21"/>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" s="20"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
+      <c r="R186" s="7"/>
+      <c r="S186" s="21"/>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" s="20"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+      <c r="K187" s="6"/>
+      <c r="L187" s="6"/>
+      <c r="M187" s="6"/>
+      <c r="N187" s="6"/>
+      <c r="O187" s="6"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" s="6"/>
+      <c r="R187" s="7"/>
+      <c r="S187" s="21"/>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188" s="20"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="6"/>
+      <c r="L188" s="6"/>
+      <c r="M188" s="6"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="6"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
+      <c r="R188" s="7"/>
+      <c r="S188" s="21"/>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189" s="20"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="6"/>
+      <c r="L189" s="6"/>
+      <c r="M189" s="6"/>
+      <c r="N189" s="6"/>
+      <c r="O189" s="6"/>
+      <c r="P189" s="6"/>
+      <c r="Q189" s="6"/>
+      <c r="R189" s="7"/>
+      <c r="S189" s="21"/>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190" s="20"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="6"/>
+      <c r="L190" s="6"/>
+      <c r="M190" s="6"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="6"/>
+      <c r="P190" s="6"/>
+      <c r="Q190" s="6"/>
+      <c r="R190" s="7"/>
+      <c r="S190" s="21"/>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191" s="20"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6"/>
+      <c r="L191" s="6"/>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="6"/>
+      <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
+      <c r="R191" s="7"/>
+      <c r="S191" s="21"/>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192" s="20"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="6"/>
+      <c r="L192" s="6"/>
+      <c r="M192" s="6"/>
+      <c r="N192" s="6"/>
+      <c r="O192" s="6"/>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="6"/>
+      <c r="R192" s="7"/>
+      <c r="S192" s="21"/>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" s="20"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6"/>
+      <c r="L193" s="6"/>
+      <c r="M193" s="6"/>
+      <c r="N193" s="6"/>
+      <c r="O193" s="6"/>
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
+      <c r="R193" s="7"/>
+      <c r="S193" s="21"/>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A194" s="20"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="6"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
+      <c r="R194" s="7"/>
+      <c r="S194" s="21"/>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A195" s="20"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="6"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
+      <c r="R195" s="7"/>
+      <c r="S195" s="21"/>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A196" s="20"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
+      <c r="R196" s="7"/>
+      <c r="S196" s="21"/>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" s="20"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="6"/>
+      <c r="R197" s="7"/>
+      <c r="S197" s="21"/>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A198" s="20"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+      <c r="R198" s="7"/>
+      <c r="S198" s="21"/>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A199" s="20"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="10"/>
+      <c r="K199" s="10"/>
+      <c r="L199" s="10"/>
+      <c r="M199" s="10"/>
+      <c r="N199" s="10"/>
+      <c r="O199" s="10"/>
+      <c r="P199" s="10"/>
+      <c r="Q199" s="10"/>
+      <c r="R199" s="11"/>
+      <c r="S199" s="21"/>
+    </row>
+    <row r="200" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="22"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="23"/>
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="23"/>
+      <c r="H200" s="23"/>
+      <c r="I200" s="23"/>
+      <c r="J200" s="23"/>
+      <c r="K200" s="23"/>
+      <c r="L200" s="23"/>
+      <c r="M200" s="23"/>
+      <c r="N200" s="23"/>
+      <c r="O200" s="23"/>
+      <c r="P200" s="23"/>
+      <c r="Q200" s="23"/>
+      <c r="R200" s="23"/>
+      <c r="S200" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/4.api-key-authentication.xlsx
+++ b/me/4.create-a-restful-api/4.api-key-authentication.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6557C378-D34C-4609-BFFE-0213A96D2162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58009877-2116-47B8-ABC4-7B2CCE9760CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create user table" sheetId="1" r:id="rId1"/>
     <sheet name="Register user" sheetId="2" r:id="rId2"/>
     <sheet name="Send API key with the request" sheetId="3" r:id="rId3"/>
+    <sheet name="Check API key return 400 if not" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="166">
   <si>
     <t>Create a table to store user account data</t>
   </si>
@@ -484,6 +485,48 @@
   </si>
   <si>
     <t>$api_key = $_SERVER["HTTP_X_API_KEY"];</t>
+  </si>
+  <si>
+    <t>Check the API key is present in the request and return 400 if not</t>
+  </si>
+  <si>
+    <t>Xử lý cho trường hợp request header X-API-Key là rỗng hoặc ko được gửi đi khi call api, trong trường hợp này thì response trả về status 400 Bad Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bởi vì ứng dụng của mình khi gọi api thì cần có giá trị request header X-API-Key để authentication, nếu ko authentication được thì api sẽ ko tiếp tục process </t>
+  </si>
+  <si>
+    <t>400 Bad Request</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTTP/Status/400</t>
+  </si>
+  <si>
+    <t>if (empty($_SERVER["HTTP_X_API_KEY"])) {</t>
+  </si>
+  <si>
+    <t>    http_response_code(400);</t>
+  </si>
+  <si>
+    <t>    echo json_encode(["message" =&gt; "missing API key"]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request header X-API-Key là rỗng hoặc ko được gửi đi khi call api, trong </t>
+  </si>
+  <si>
+    <t>trường hợp này thì response trả về status 400 Bad Request</t>
+  </si>
+  <si>
+    <t>Check by call api</t>
+  </si>
+  <si>
+    <t>Trường hợp có request header X-API-Key nhưng giá trị của nó là rỗng</t>
+  </si>
+  <si>
+    <t>echo json_encode($api_key);</t>
+  </si>
+  <si>
+    <t>Trường hợp ko có request header X-API-Key cũng trả về 400</t>
   </si>
 </sst>
 </file>
@@ -1994,6 +2037,302 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>164316</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3625EBF-BAEA-4C03-A152-727510670E05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="1400175"/>
+          <a:ext cx="11277600" cy="5622141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C996BAFE-5628-451A-473F-D0403E958146}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2085975" y="3429000"/>
+          <a:ext cx="1743075" cy="16068675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>436892</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>142458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A23C62-2D2F-B734-254E-515F90B21073}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="23669625"/>
+          <a:ext cx="10066667" cy="3333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54E4B52-8463-AE09-07FC-C1A302C1978D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2390775" y="19783425"/>
+          <a:ext cx="447675" cy="6677025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C1E23F-D4A4-B6F0-2836-A8E53ABF5793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="19592925"/>
+          <a:ext cx="6886575" cy="5972175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>370223</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>75818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF175D74-683E-4991-5AF2-17A41FA3C132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="27879675"/>
+          <a:ext cx="10019048" cy="3057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3317,7 +3656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C09160-2AED-4544-9921-84BA27CEB8C5}">
   <dimension ref="A2:U286"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A265" workbookViewId="0">
       <selection activeCell="A110" sqref="A110:J136"/>
     </sheetView>
   </sheetViews>
@@ -8420,8 +8759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7378C029-B4BF-4602-B59D-C127E59E094F}">
   <dimension ref="A2:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="Q140" sqref="Q140"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12359,4 +12698,2728 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3CA2A3-471F-4D2B-8CB2-F89C9720114D}">
+  <dimension ref="A2:T164"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="Q118" sqref="Q118"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="7"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="7"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="7"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="7"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="7"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="11"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="29"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="29"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="29"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="29"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="29"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="29"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="29"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="29"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="29"/>
+      <c r="K54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="29"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="29"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="29"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="29"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="29"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="29"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="29"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="29"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="29"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="29"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="33"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="27"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="28"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="29"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="29"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="28"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="29"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="29"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="28"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="29"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="29"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="28"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="29"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="29"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="29"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="28"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="29"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="29"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="29"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="28"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="29"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="29"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="28"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="29"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="29"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="28"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="29"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="29"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="28"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="29"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="29"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="28"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="29"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="29"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="28"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="29"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="29"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="29"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="29"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="28"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="29"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="29"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="35"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="29"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="29"/>
+      <c r="M101" t="s">
+        <v>34</v>
+      </c>
+      <c r="N101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="35"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="29"/>
+      <c r="N102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="29"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="29"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="29"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="29"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="35"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="29"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="29"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="35"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="29"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="29"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="35"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="29"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="29"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B113" s="28"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="29"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B114" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="29"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B115" s="28"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="29"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B116" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="29"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B117" s="28"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="29"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B118" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="29"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B119" s="28"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="29"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B120" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="31"/>
+      <c r="K120" s="31"/>
+      <c r="L120" s="33"/>
+    </row>
+    <row r="122" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+      <c r="Q123" s="18"/>
+      <c r="R123" s="18"/>
+      <c r="S123" s="19"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="20"/>
+      <c r="B124" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="21"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="20"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="6"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+      <c r="R125" s="7"/>
+      <c r="S125" s="21"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="20"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="6"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="6"/>
+      <c r="R126" s="7"/>
+      <c r="S126" s="21"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="20"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
+      <c r="R127" s="7"/>
+      <c r="S127" s="21"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="20"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="6"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
+      <c r="R128" s="7"/>
+      <c r="S128" s="21"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="20"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="7"/>
+      <c r="S129" s="21"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="20"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="7"/>
+      <c r="S130" s="21"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="20"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="7"/>
+      <c r="S131" s="21"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="20"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="7"/>
+      <c r="S132" s="21"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="20"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="7"/>
+      <c r="S133" s="21"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="20"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+      <c r="R134" s="7"/>
+      <c r="S134" s="21"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" s="20"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="7"/>
+      <c r="S135" s="21"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="20"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="7"/>
+      <c r="S136" s="21"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="20"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="21"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="20"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="7"/>
+      <c r="S138" s="21"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="20"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="7"/>
+      <c r="S139" s="21"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="20"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="7"/>
+      <c r="S140" s="21"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="20"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="7"/>
+      <c r="S141" s="21"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="20"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="7"/>
+      <c r="S142" s="21"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="20"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="10"/>
+      <c r="O143" s="10"/>
+      <c r="P143" s="10"/>
+      <c r="Q143" s="10"/>
+      <c r="R143" s="11"/>
+      <c r="S143" s="21"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="20"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="21"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="20"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="21"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="20"/>
+      <c r="B146" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="21"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" s="20"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="7"/>
+      <c r="S147" s="21"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="20"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="7"/>
+      <c r="S148" s="21"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="20"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="7"/>
+      <c r="S149" s="21"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="20"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
+      <c r="R150" s="7"/>
+      <c r="S150" s="21"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="20"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="7"/>
+      <c r="S151" s="21"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" s="20"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="6"/>
+      <c r="R152" s="7"/>
+      <c r="S152" s="21"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="20"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="7"/>
+      <c r="S153" s="21"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="20"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="7"/>
+      <c r="S154" s="21"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="20"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="7"/>
+      <c r="S155" s="21"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="20"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="7"/>
+      <c r="S156" s="21"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="20"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="7"/>
+      <c r="S157" s="21"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="20"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="7"/>
+      <c r="S158" s="21"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="20"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="21"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="20"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="7"/>
+      <c r="S160" s="21"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="20"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="7"/>
+      <c r="S161" s="21"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="20"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="7"/>
+      <c r="S162" s="21"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="20"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="10"/>
+      <c r="K163" s="10"/>
+      <c r="L163" s="10"/>
+      <c r="M163" s="10"/>
+      <c r="N163" s="10"/>
+      <c r="O163" s="10"/>
+      <c r="P163" s="10"/>
+      <c r="Q163" s="10"/>
+      <c r="R163" s="11"/>
+      <c r="S163" s="21"/>
+    </row>
+    <row r="164" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="22"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="23"/>
+      <c r="I164" s="23"/>
+      <c r="J164" s="23"/>
+      <c r="K164" s="23"/>
+      <c r="L164" s="23"/>
+      <c r="M164" s="23"/>
+      <c r="N164" s="23"/>
+      <c r="O164" s="23"/>
+      <c r="P164" s="23"/>
+      <c r="Q164" s="23"/>
+      <c r="R164" s="23"/>
+      <c r="S164" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/4.api-key-authentication.xlsx
+++ b/me/4.create-a-restful-api/4.api-key-authentication.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58009877-2116-47B8-ABC4-7B2CCE9760CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01F3099-580C-4F0B-AB1A-91E5978726AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create user table" sheetId="1" r:id="rId1"/>
     <sheet name="Register user" sheetId="2" r:id="rId2"/>
     <sheet name="Send API key with the request" sheetId="3" r:id="rId3"/>
     <sheet name="Check API key return 400 if not" sheetId="4" r:id="rId4"/>
+    <sheet name="Create gateway class for user " sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="192">
   <si>
     <t>Create a table to store user account data</t>
   </si>
@@ -527,6 +528,84 @@
   </si>
   <si>
     <t>Trường hợp ko có request header X-API-Key cũng trả về 400</t>
+  </si>
+  <si>
+    <t>Create a table data gateway class for the user table</t>
+  </si>
+  <si>
+    <t>Để authentication request được gửi đến thì mình phải so sánh api key được gửi đến với api key được lưu trong trường api_key của bảng user</t>
+  </si>
+  <si>
+    <t>UserGateway.php</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\src\UserGateway.php</t>
+  </si>
+  <si>
+    <t>class UserGateway</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>    private $conn;</t>
+  </si>
+  <si>
+    <t>    public function __construct(Database $database)</t>
+  </si>
+  <si>
+    <t>    {</t>
+  </si>
+  <si>
+    <t>        $this-&gt;conn = $database-&gt;getConnection();</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>    public function getByAPIKey(string $key): array</t>
+  </si>
+  <si>
+    <t>        $sql = "SELECT *</t>
+  </si>
+  <si>
+    <t>                FROM user</t>
+  </si>
+  <si>
+    <t>                WHERE api_key = :api_key";</t>
+  </si>
+  <si>
+    <t>        $stmt = $this-&gt;conn-&gt;prepare($sql);</t>
+  </si>
+  <si>
+    <t>        $stmt-&gt;bindValue(":api_key", $key, PDO::PARAM_STR);</t>
+  </si>
+  <si>
+    <t>        $stmt-&gt;execute();</t>
+  </si>
+  <si>
+    <t>        $data = $stmt-&gt;fetch(PDO::FETCH_ASSOC);</t>
+  </si>
+  <si>
+    <t>        if ($data == false) {</t>
+  </si>
+  <si>
+    <t>            return [];</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>        return $data;</t>
+  </si>
+  <si>
+    <t>$user_gateway = new UserGateway($database);</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>after</t>
   </si>
 </sst>
 </file>
@@ -735,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -773,6 +852,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2333,6 +2413,267 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>293650</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>189877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1304FE8-1C73-61F1-773D-7722969AFE92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="19021425"/>
+          <a:ext cx="13000000" cy="4980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEB7A1C-DAF8-A2E4-597A-A0FB6EC2F984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8848725" y="20859750"/>
+          <a:ext cx="5619750" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178409BC-F122-B4D4-A0B5-791D93CABFE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7077075" y="20840700"/>
+          <a:ext cx="7419975" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761ECE52-0FEE-834D-8D1E-4FE881331E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="21678900"/>
+          <a:ext cx="1809750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDE2989-0A63-C4AD-B51F-D3DC8B46BB96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="7791450"/>
+          <a:ext cx="952500" cy="14173200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12704,8 +13045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3CA2A3-471F-4D2B-8CB2-F89C9720114D}">
   <dimension ref="A2:T164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="Q118" sqref="Q118"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15422,4 +15763,1599 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936CEF40-BB7C-4A71-87CC-DD63345030FB}">
+  <dimension ref="A2:Y124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="T91" sqref="T91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="8"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="8"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="8"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="8"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="7"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="7"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="7"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="8"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="7"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="8"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="7"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="7"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="8"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="7"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="7"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="7"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="8"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="7"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="7"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="8"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="7"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="7"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="7"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="7"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="7"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="7"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="8"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="7"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="7"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="8"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="7"/>
+    </row>
+    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="7"/>
+      <c r="O97" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y97" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B98" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="7"/>
+    </row>
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="7"/>
+    </row>
+    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B100" s="8"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="7"/>
+    </row>
+    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B101" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="7"/>
+    </row>
+    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B102" s="8"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="7"/>
+    </row>
+    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="7"/>
+    </row>
+    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B104" s="8"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="7"/>
+    </row>
+    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B105" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="7"/>
+    </row>
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B106" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="7"/>
+    </row>
+    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B107" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="7"/>
+    </row>
+    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B108" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="7"/>
+    </row>
+    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B109" s="8"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="7"/>
+    </row>
+    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="7"/>
+    </row>
+    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B111" s="8"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="7"/>
+    </row>
+    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B112" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="7"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="35"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="7"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="7"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="8"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="7"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="7"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="8"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="7"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="7"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="8"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="7"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="7"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="8"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="7"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="7"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="8"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="7"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/4.api-key-authentication.xlsx
+++ b/me/4.create-a-restful-api/4.api-key-authentication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01F3099-580C-4F0B-AB1A-91E5978726AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3466572-FDA2-41AB-9F72-848C71BC6B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create user table" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Send API key with the request" sheetId="3" r:id="rId3"/>
     <sheet name="Check API key return 400 if not" sheetId="4" r:id="rId4"/>
     <sheet name="Create gateway class for user " sheetId="5" r:id="rId5"/>
+    <sheet name="Authenticate API key 401 status" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="204">
   <si>
     <t>Create a table to store user account data</t>
   </si>
@@ -607,6 +608,54 @@
   <si>
     <t>after</t>
   </si>
+  <si>
+    <t>Authenticate the API key and return a 401 status code if invalid</t>
+  </si>
+  <si>
+    <t>Giờ thì mình đã có thể check được giá trị api key được gửi đến có đúng hay ko</t>
+  </si>
+  <si>
+    <t>Trong trường hợp giá trị api key đó được gửi đến ko đúng thì api sẽ trả về 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>401 Unauthorized</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTTP/Status/401</t>
+  </si>
+  <si>
+    <t>if ($user_gateway-&gt;getByAPIKey($api_key) === []) {</t>
+  </si>
+  <si>
+    <t>    http_response_code(401);</t>
+  </si>
+  <si>
+    <t>    echo json_encode(["message" =&gt; "invalid API key"]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị api key được gửi đến ko tồn tại trong DB nghĩa là giá trị api key đó được </t>
+  </si>
+  <si>
+    <t>gửi đến  ko đúng thì api sẽ trả về 401 Unauthorized</t>
+  </si>
+  <si>
+    <r>
+      <t>Call api /tasks với api key ko đúng e02a2b46505f131af535fc3077f8e8e7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XXX</t>
+    </r>
+  </si>
+  <si>
+    <t>Call api /tasks với api key đúng. API trả về danh sách task bình thường</t>
+  </si>
 </sst>
 </file>
 
@@ -814,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -853,6 +902,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2674,6 +2724,355 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9773132-66A6-2F8F-09E9-D89D0AA69AF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="1400175"/>
+          <a:ext cx="11249025" cy="5546223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38573C54-FE1F-436E-A4B1-790B4A2250A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2057400" y="6800850"/>
+          <a:ext cx="1752600" cy="15163800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>455940</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>75794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5597EC-DD16-D2CF-377C-77C7C52F127D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="24641175"/>
+          <a:ext cx="10076190" cy="3247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A270CF8-C3D1-40EC-AB23-76425EAB998C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="22088475"/>
+          <a:ext cx="6677025" cy="4429125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066BB792-D0C3-9403-9DAA-706837E74ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2590800" y="22250400"/>
+          <a:ext cx="342900" cy="5143500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>398795</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>37436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA939216-64A3-562B-B7FA-FD27B2A611D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="28632150"/>
+          <a:ext cx="10038095" cy="5314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF7B481-B4C0-1D27-6079-3CB0035734AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1524000" y="28555950"/>
+          <a:ext cx="2286000" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15769,8 +16168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936CEF40-BB7C-4A71-87CC-DD63345030FB}">
   <dimension ref="A2:Y124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="T91" sqref="T91"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17358,4 +17757,3099 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCC0B30-5183-427A-AE3B-84CBE75D199E}">
+  <dimension ref="A2:T181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="7"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="7"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="7"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="7"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="11"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="8"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="7"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="7"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="7"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="7"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="7"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="8"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="7"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="8"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="7"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="7"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="7"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="8"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="7"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="7"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="8"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="7"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="7"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="8"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="7"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="7"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="7"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="7"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="7"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="7"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="8"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="7"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="7"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="7"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="7"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="8"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="7"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="7"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="8"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="7"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="7"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="8"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="7"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="7"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="7"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="7"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="7"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="8"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="7"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="7"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="8"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="7"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="7"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="8"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="7"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="7"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B113" s="8"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="7"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B114" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="7"/>
+      <c r="M114" t="s">
+        <v>34</v>
+      </c>
+      <c r="N114" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B115" s="35"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="7"/>
+      <c r="N115" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B116" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="7"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B117" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="7"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B118" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="7"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B119" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="7"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B120" s="8"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="7"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B121" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="7"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B122" s="8"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="7"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B123" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="7"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B124" s="8"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="7"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B125" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="11"/>
+    </row>
+    <row r="127" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="18"/>
+      <c r="Q128" s="18"/>
+      <c r="R128" s="18"/>
+      <c r="S128" s="19"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="20"/>
+      <c r="B129" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="21"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="20"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="7"/>
+      <c r="S130" s="21"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="20"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="7"/>
+      <c r="S131" s="21"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="20"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="7"/>
+      <c r="S132" s="21"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="20"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="7"/>
+      <c r="S133" s="21"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="20"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+      <c r="R134" s="7"/>
+      <c r="S134" s="21"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" s="20"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="7"/>
+      <c r="S135" s="21"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="20"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="7"/>
+      <c r="S136" s="21"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="20"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="21"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="20"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="7"/>
+      <c r="S138" s="21"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="20"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="7"/>
+      <c r="S139" s="21"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="20"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="7"/>
+      <c r="S140" s="21"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="20"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="7"/>
+      <c r="S141" s="21"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="20"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="7"/>
+      <c r="S142" s="21"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="20"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="7"/>
+      <c r="S143" s="21"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="20"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="7"/>
+      <c r="S144" s="21"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="20"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="7"/>
+      <c r="S145" s="21"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="20"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="7"/>
+      <c r="S146" s="21"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" s="20"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10"/>
+      <c r="L147" s="10"/>
+      <c r="M147" s="10"/>
+      <c r="N147" s="10"/>
+      <c r="O147" s="10"/>
+      <c r="P147" s="10"/>
+      <c r="Q147" s="10"/>
+      <c r="R147" s="11"/>
+      <c r="S147" s="21"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="20"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="21"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="20"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="21"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="20"/>
+      <c r="B150" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="21"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="20"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="7"/>
+      <c r="S151" s="21"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" s="20"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="6"/>
+      <c r="R152" s="7"/>
+      <c r="S152" s="21"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="20"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="7"/>
+      <c r="S153" s="21"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="20"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="7"/>
+      <c r="S154" s="21"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="20"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="7"/>
+      <c r="S155" s="21"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="20"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="7"/>
+      <c r="S156" s="21"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="20"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="7"/>
+      <c r="S157" s="21"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="20"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="7"/>
+      <c r="S158" s="21"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="20"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="21"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="20"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="7"/>
+      <c r="S160" s="21"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="20"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="7"/>
+      <c r="S161" s="21"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="20"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="7"/>
+      <c r="S162" s="21"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="20"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="7"/>
+      <c r="S163" s="21"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" s="20"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="7"/>
+      <c r="S164" s="21"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" s="20"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="7"/>
+      <c r="S165" s="21"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" s="20"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="7"/>
+      <c r="S166" s="21"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167" s="20"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="7"/>
+      <c r="S167" s="21"/>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168" s="20"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6"/>
+      <c r="N168" s="6"/>
+      <c r="O168" s="6"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="6"/>
+      <c r="R168" s="7"/>
+      <c r="S168" s="21"/>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" s="20"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
+      <c r="M169" s="6"/>
+      <c r="N169" s="6"/>
+      <c r="O169" s="6"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
+      <c r="R169" s="7"/>
+      <c r="S169" s="21"/>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" s="20"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6"/>
+      <c r="M170" s="6"/>
+      <c r="N170" s="6"/>
+      <c r="O170" s="6"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="6"/>
+      <c r="R170" s="7"/>
+      <c r="S170" s="21"/>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" s="20"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6"/>
+      <c r="M171" s="6"/>
+      <c r="N171" s="6"/>
+      <c r="O171" s="6"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" s="6"/>
+      <c r="R171" s="7"/>
+      <c r="S171" s="21"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" s="20"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6"/>
+      <c r="L172" s="6"/>
+      <c r="M172" s="6"/>
+      <c r="N172" s="6"/>
+      <c r="O172" s="6"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="6"/>
+      <c r="R172" s="7"/>
+      <c r="S172" s="21"/>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173" s="20"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="6"/>
+      <c r="L173" s="6"/>
+      <c r="M173" s="6"/>
+      <c r="N173" s="6"/>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="6"/>
+      <c r="R173" s="7"/>
+      <c r="S173" s="21"/>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174" s="20"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+      <c r="R174" s="7"/>
+      <c r="S174" s="21"/>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175" s="20"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="6"/>
+      <c r="L175" s="6"/>
+      <c r="M175" s="6"/>
+      <c r="N175" s="6"/>
+      <c r="O175" s="6"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" s="6"/>
+      <c r="R175" s="7"/>
+      <c r="S175" s="21"/>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" s="20"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6"/>
+      <c r="L176" s="6"/>
+      <c r="M176" s="6"/>
+      <c r="N176" s="6"/>
+      <c r="O176" s="6"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="6"/>
+      <c r="R176" s="7"/>
+      <c r="S176" s="21"/>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="20"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6"/>
+      <c r="M177" s="6"/>
+      <c r="N177" s="6"/>
+      <c r="O177" s="6"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="6"/>
+      <c r="R177" s="7"/>
+      <c r="S177" s="21"/>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" s="20"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+      <c r="M178" s="6"/>
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="6"/>
+      <c r="R178" s="7"/>
+      <c r="S178" s="21"/>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="20"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="6"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
+      <c r="R179" s="7"/>
+      <c r="S179" s="21"/>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" s="20"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="10"/>
+      <c r="K180" s="10"/>
+      <c r="L180" s="10"/>
+      <c r="M180" s="10"/>
+      <c r="N180" s="10"/>
+      <c r="O180" s="10"/>
+      <c r="P180" s="10"/>
+      <c r="Q180" s="10"/>
+      <c r="R180" s="11"/>
+      <c r="S180" s="21"/>
+    </row>
+    <row r="181" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="22"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="23"/>
+      <c r="G181" s="23"/>
+      <c r="H181" s="23"/>
+      <c r="I181" s="23"/>
+      <c r="J181" s="23"/>
+      <c r="K181" s="23"/>
+      <c r="L181" s="23"/>
+      <c r="M181" s="23"/>
+      <c r="N181" s="23"/>
+      <c r="O181" s="23"/>
+      <c r="P181" s="23"/>
+      <c r="Q181" s="23"/>
+      <c r="R181" s="23"/>
+      <c r="S181" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/4.api-key-authentication.xlsx
+++ b/me/4.create-a-restful-api/4.api-key-authentication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3466572-FDA2-41AB-9F72-848C71BC6B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641E0AE1-CA51-499D-8B59-120A6E0F94E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create user table" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Check API key return 400 if not" sheetId="4" r:id="rId4"/>
     <sheet name="Create gateway class for user " sheetId="5" r:id="rId5"/>
     <sheet name="Authenticate API key 401 status" sheetId="6" r:id="rId6"/>
+    <sheet name="bootstrap file and Auth class" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="237">
   <si>
     <t>Create a table to store user account data</t>
   </si>
@@ -655,6 +656,105 @@
   </si>
   <si>
     <t>Call api /tasks với api key đúng. API trả về danh sách task bình thường</t>
+  </si>
+  <si>
+    <t>Refactor the front controller to a bootstrap file and Auth class</t>
+  </si>
+  <si>
+    <t>bootstrap.php</t>
+  </si>
+  <si>
+    <t>Auth.php</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\api\bootstrap.php</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\src\Auth.php</t>
+  </si>
+  <si>
+    <t>class Auth</t>
+  </si>
+  <si>
+    <t>    private $user_gateway;</t>
+  </si>
+  <si>
+    <t>    public function __construct(UserGateway $user_gateway)</t>
+  </si>
+  <si>
+    <t>        $this-&gt;user_gateway = $user_gateway;</t>
+  </si>
+  <si>
+    <t>    public function authenticateAPIKey(): bool</t>
+  </si>
+  <si>
+    <t>        if (empty($_SERVER["HTTP_X_API_KEY"])) {</t>
+  </si>
+  <si>
+    <t>            http_response_code(400);</t>
+  </si>
+  <si>
+    <t>            echo json_encode(["message" =&gt; "missing API key"]);</t>
+  </si>
+  <si>
+    <t>            return false;</t>
+  </si>
+  <si>
+    <t>        $api_key = $_SERVER["HTTP_X_API_KEY"];</t>
+  </si>
+  <si>
+    <t>        if ($this-&gt;user_gateway-&gt;getByAPIKey($api_key) === []) {</t>
+  </si>
+  <si>
+    <t>            http_response_code(401);</t>
+  </si>
+  <si>
+    <t>            echo json_encode(["message" =&gt; "invalid API key"]);</t>
+  </si>
+  <si>
+    <t>        return true;</t>
+  </si>
+  <si>
+    <t>require __DIR__ . "/bootstrap.php";</t>
+  </si>
+  <si>
+    <t>$auth = new Auth($user_gateway);</t>
+  </si>
+  <si>
+    <t>if (!$auth-&gt;authenticateAPIKey()) {</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đối với tất cả các request được gửi đến thì đầu tiên là đến index.php xử lý </t>
+  </si>
+  <si>
+    <t>Tất cả các enpoint api thì có chung các phần xử lý như require autoload.php enable các phần handler error …. Các phần chúng đó mình sẽ gom vào bootstrap.php</t>
+  </si>
+  <si>
+    <t>Đối với phần authentication thì mình cũng sẽ tách riêng ra class Auth.php</t>
+  </si>
+  <si>
+    <t>Trả về 1 giá trị boolean. Nếu authentication thành công thì trả về true, ngược lại trả về false</t>
+  </si>
+  <si>
+    <t>Trong trường hợp authentication thành công thì tiếp tục process, nếu ko thành công thì thoát khoải process của script</t>
+  </si>
+  <si>
+    <t>call api /tasks nhưng ko truyền api key</t>
+  </si>
+  <si>
+    <t>call api /tasks có truyền api key nhưng giá trị rỗng</t>
+  </si>
+  <si>
+    <t>call api /tasks có truyền api key nhưng giá trị ko đúng</t>
+  </si>
+  <si>
+    <t>call api /tasks có truyền api key với giá trị giống trong db, api trả về danh sách task bình thường</t>
   </si>
 </sst>
 </file>
@@ -3073,6 +3173,735 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>151976</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DBF54D-DC5E-133C-F0DB-0E2C76B454D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8639176" y="16840200"/>
+          <a:ext cx="11353799" cy="2933276"/>
+          <a:chOff x="8639176" y="16459200"/>
+          <a:chExt cx="11353799" cy="2933276"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CBC9041-47CA-1910-4BE8-CE5BAFFDACA7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8639176" y="16459200"/>
+            <a:ext cx="11353799" cy="2933276"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C21D4F2-0258-9BDA-17A3-041F6AFB08CA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9124950" y="17164050"/>
+            <a:ext cx="5495925" cy="1552575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE16BD2-6FBB-CBBD-7A7D-C33C74E30DB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4867275" y="7848600"/>
+          <a:ext cx="4257675" cy="9296400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>89526</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034D9973-835E-4A4F-AE9F-4C5D754B7EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8658225" y="19802476"/>
+          <a:ext cx="11306175" cy="3909050"/>
+          <a:chOff x="8553450" y="19545301"/>
+          <a:chExt cx="11306175" cy="3909050"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5C2FD1-0F3B-C88E-6068-9A7F1BA49280}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8553450" y="19545301"/>
+            <a:ext cx="11306175" cy="3909050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6D7D99-103E-2045-50A5-B3C61C4B2C09}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8820150" y="19831050"/>
+            <a:ext cx="5476875" cy="3152775"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94489B0E-281B-BE5B-FBC1-81B61EB8E23D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4886325" y="12963525"/>
+          <a:ext cx="4057650" cy="6762750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F58A16-4957-62E7-C949-F523B4E2A47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1609725" y="11991975"/>
+          <a:ext cx="400050" cy="9801225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E66C85-1FB3-0A17-B214-60186F21C52D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3924300" y="742950"/>
+          <a:ext cx="5276850" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94B70E9-0DDF-76C6-3535-2B2994D0E1C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3238500" y="904875"/>
+          <a:ext cx="1181100" cy="3343275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB04F4F5-997B-7104-9F38-8B9D26C17EC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="971550" y="22459950"/>
+          <a:ext cx="38100" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>465469</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>85364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B97AF6-D235-47F1-2CC5-9554D9C385E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="25012650"/>
+          <a:ext cx="10047619" cy="2885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>370224</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>152004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD977AA9-78AD-A656-BE47-0F5F58FFE754}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="28603575"/>
+          <a:ext cx="10009524" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>417848</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>104367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6607C9D-2C9B-3ACB-D856-F3F15DE7862F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="32651700"/>
+          <a:ext cx="10019048" cy="3266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360700</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>75532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECD92EF-0029-B1C5-7AB8-0D23AB231E7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="36833175"/>
+          <a:ext cx="10000000" cy="5342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17763,8 +18592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCC0B30-5183-427A-AE3B-84CBE75D199E}">
   <dimension ref="A2:T181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20852,4 +21681,4225 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8D74F8-17D5-4629-935D-7B5DF17808EF}">
+  <dimension ref="A2:AG223"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="J232" sqref="J232"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="8"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="7"/>
+      <c r="I65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="8"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="8"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="8"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="8"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B82" s="8"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B85" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="11"/>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y88" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B89" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="4"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+      <c r="AD89" s="3"/>
+      <c r="AE89" s="3"/>
+      <c r="AF89" s="3"/>
+      <c r="AG89" s="4"/>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="7"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="6"/>
+      <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
+      <c r="AD90" s="6"/>
+      <c r="AE90" s="6"/>
+      <c r="AF90" s="6"/>
+      <c r="AG90" s="7"/>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="7"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="6"/>
+      <c r="AB91" s="6"/>
+      <c r="AC91" s="6"/>
+      <c r="AD91" s="6"/>
+      <c r="AE91" s="6"/>
+      <c r="AF91" s="6"/>
+      <c r="AG91" s="7"/>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="7"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6"/>
+      <c r="AA92" s="6"/>
+      <c r="AB92" s="6"/>
+      <c r="AC92" s="6"/>
+      <c r="AD92" s="6"/>
+      <c r="AE92" s="6"/>
+      <c r="AF92" s="6"/>
+      <c r="AG92" s="7"/>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B93" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="7"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="6"/>
+      <c r="AA93" s="6"/>
+      <c r="AB93" s="6"/>
+      <c r="AC93" s="6"/>
+      <c r="AD93" s="6"/>
+      <c r="AE93" s="6"/>
+      <c r="AF93" s="6"/>
+      <c r="AG93" s="7"/>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B94" s="8"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="7"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
+      <c r="AA94" s="6"/>
+      <c r="AB94" s="6"/>
+      <c r="AC94" s="6"/>
+      <c r="AD94" s="6"/>
+      <c r="AE94" s="6"/>
+      <c r="AF94" s="6"/>
+      <c r="AG94" s="7"/>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="7"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
+      <c r="AA95" s="6"/>
+      <c r="AB95" s="6"/>
+      <c r="AC95" s="6"/>
+      <c r="AD95" s="6"/>
+      <c r="AE95" s="6"/>
+      <c r="AF95" s="6"/>
+      <c r="AG95" s="7"/>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B96" s="8"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="7"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
+      <c r="Z96" s="6"/>
+      <c r="AA96" s="6"/>
+      <c r="AB96" s="6"/>
+      <c r="AC96" s="6"/>
+      <c r="AD96" s="6"/>
+      <c r="AE96" s="6"/>
+      <c r="AF96" s="6"/>
+      <c r="AG96" s="7"/>
+    </row>
+    <row r="97" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="7"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
+      <c r="AA97" s="6"/>
+      <c r="AB97" s="6"/>
+      <c r="AC97" s="6"/>
+      <c r="AD97" s="6"/>
+      <c r="AE97" s="6"/>
+      <c r="AF97" s="6"/>
+      <c r="AG97" s="7"/>
+    </row>
+    <row r="98" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B98" s="8"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="7"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+      <c r="Y98" s="6"/>
+      <c r="Z98" s="6"/>
+      <c r="AA98" s="6"/>
+      <c r="AB98" s="6"/>
+      <c r="AC98" s="6"/>
+      <c r="AD98" s="6"/>
+      <c r="AE98" s="6"/>
+      <c r="AF98" s="6"/>
+      <c r="AG98" s="7"/>
+    </row>
+    <row r="99" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="7"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+      <c r="Y99" s="6"/>
+      <c r="Z99" s="6"/>
+      <c r="AA99" s="6"/>
+      <c r="AB99" s="6"/>
+      <c r="AC99" s="6"/>
+      <c r="AD99" s="6"/>
+      <c r="AE99" s="6"/>
+      <c r="AF99" s="6"/>
+      <c r="AG99" s="7"/>
+    </row>
+    <row r="100" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B100" s="8"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="7"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="6"/>
+      <c r="AA100" s="6"/>
+      <c r="AB100" s="6"/>
+      <c r="AC100" s="6"/>
+      <c r="AD100" s="6"/>
+      <c r="AE100" s="6"/>
+      <c r="AF100" s="6"/>
+      <c r="AG100" s="7"/>
+    </row>
+    <row r="101" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B101" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="7"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="6"/>
+      <c r="Y101" s="6"/>
+      <c r="Z101" s="6"/>
+      <c r="AA101" s="6"/>
+      <c r="AB101" s="6"/>
+      <c r="AC101" s="6"/>
+      <c r="AD101" s="6"/>
+      <c r="AE101" s="6"/>
+      <c r="AF101" s="6"/>
+      <c r="AG101" s="7"/>
+    </row>
+    <row r="102" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B102" s="8"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="7"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6"/>
+      <c r="V102" s="6"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="6"/>
+      <c r="Y102" s="6"/>
+      <c r="Z102" s="6"/>
+      <c r="AA102" s="6"/>
+      <c r="AB102" s="6"/>
+      <c r="AC102" s="6"/>
+      <c r="AD102" s="6"/>
+      <c r="AE102" s="6"/>
+      <c r="AF102" s="6"/>
+      <c r="AG102" s="7"/>
+    </row>
+    <row r="103" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="7"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
+      <c r="Y103" s="6"/>
+      <c r="Z103" s="6"/>
+      <c r="AA103" s="6"/>
+      <c r="AB103" s="6"/>
+      <c r="AC103" s="6"/>
+      <c r="AD103" s="6"/>
+      <c r="AE103" s="6"/>
+      <c r="AF103" s="6"/>
+      <c r="AG103" s="7"/>
+    </row>
+    <row r="104" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B104" s="8"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="7"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6"/>
+      <c r="V104" s="6"/>
+      <c r="W104" s="6"/>
+      <c r="X104" s="6"/>
+      <c r="Y104" s="6"/>
+      <c r="Z104" s="6"/>
+      <c r="AA104" s="6"/>
+      <c r="AB104" s="6"/>
+      <c r="AC104" s="6"/>
+      <c r="AD104" s="6"/>
+      <c r="AE104" s="6"/>
+      <c r="AF104" s="6"/>
+      <c r="AG104" s="7"/>
+    </row>
+    <row r="105" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B105" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="7"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6"/>
+      <c r="U105" s="6"/>
+      <c r="V105" s="6"/>
+      <c r="W105" s="6"/>
+      <c r="X105" s="6"/>
+      <c r="Y105" s="6"/>
+      <c r="Z105" s="6"/>
+      <c r="AA105" s="6"/>
+      <c r="AB105" s="6"/>
+      <c r="AC105" s="6"/>
+      <c r="AD105" s="6"/>
+      <c r="AE105" s="6"/>
+      <c r="AF105" s="6"/>
+      <c r="AG105" s="7"/>
+    </row>
+    <row r="106" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B106" s="8"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="7"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="6"/>
+      <c r="V106" s="6"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="6"/>
+      <c r="Y106" s="6"/>
+      <c r="Z106" s="6"/>
+      <c r="AA106" s="6"/>
+      <c r="AB106" s="6"/>
+      <c r="AC106" s="6"/>
+      <c r="AD106" s="6"/>
+      <c r="AE106" s="6"/>
+      <c r="AF106" s="6"/>
+      <c r="AG106" s="7"/>
+    </row>
+    <row r="107" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B107" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="7"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+      <c r="T107" s="6"/>
+      <c r="U107" s="6"/>
+      <c r="V107" s="6"/>
+      <c r="W107" s="6"/>
+      <c r="X107" s="6"/>
+      <c r="Y107" s="6"/>
+      <c r="Z107" s="6"/>
+      <c r="AA107" s="6"/>
+      <c r="AB107" s="6"/>
+      <c r="AC107" s="6"/>
+      <c r="AD107" s="6"/>
+      <c r="AE107" s="6"/>
+      <c r="AF107" s="6"/>
+      <c r="AG107" s="7"/>
+    </row>
+    <row r="108" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B108" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="7"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+      <c r="U108" s="6"/>
+      <c r="V108" s="6"/>
+      <c r="W108" s="6"/>
+      <c r="X108" s="6"/>
+      <c r="Y108" s="6"/>
+      <c r="Z108" s="6"/>
+      <c r="AA108" s="6"/>
+      <c r="AB108" s="6"/>
+      <c r="AC108" s="6"/>
+      <c r="AD108" s="6"/>
+      <c r="AE108" s="6"/>
+      <c r="AF108" s="6"/>
+      <c r="AG108" s="7"/>
+    </row>
+    <row r="109" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B109" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="7"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="6"/>
+      <c r="Y109" s="6"/>
+      <c r="Z109" s="6"/>
+      <c r="AA109" s="6"/>
+      <c r="AB109" s="6"/>
+      <c r="AC109" s="6"/>
+      <c r="AD109" s="6"/>
+      <c r="AE109" s="6"/>
+      <c r="AF109" s="6"/>
+      <c r="AG109" s="7"/>
+    </row>
+    <row r="110" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B110" s="8"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="7"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="6"/>
+      <c r="W110" s="6"/>
+      <c r="X110" s="6"/>
+      <c r="Y110" s="6"/>
+      <c r="Z110" s="6"/>
+      <c r="AA110" s="6"/>
+      <c r="AB110" s="6"/>
+      <c r="AC110" s="6"/>
+      <c r="AD110" s="6"/>
+      <c r="AE110" s="6"/>
+      <c r="AF110" s="6"/>
+      <c r="AG110" s="7"/>
+    </row>
+    <row r="111" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="7"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+      <c r="U111" s="6"/>
+      <c r="V111" s="6"/>
+      <c r="W111" s="6"/>
+      <c r="X111" s="6"/>
+      <c r="Y111" s="6"/>
+      <c r="Z111" s="6"/>
+      <c r="AA111" s="6"/>
+      <c r="AB111" s="6"/>
+      <c r="AC111" s="6"/>
+      <c r="AD111" s="6"/>
+      <c r="AE111" s="6"/>
+      <c r="AF111" s="6"/>
+      <c r="AG111" s="7"/>
+    </row>
+    <row r="112" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B112" s="8"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="7"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
+      <c r="U112" s="6"/>
+      <c r="V112" s="6"/>
+      <c r="W112" s="6"/>
+      <c r="X112" s="6"/>
+      <c r="Y112" s="6"/>
+      <c r="Z112" s="6"/>
+      <c r="AA112" s="6"/>
+      <c r="AB112" s="6"/>
+      <c r="AC112" s="6"/>
+      <c r="AD112" s="6"/>
+      <c r="AE112" s="6"/>
+      <c r="AF112" s="6"/>
+      <c r="AG112" s="7"/>
+    </row>
+    <row r="113" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="7"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+      <c r="Y113" s="6"/>
+      <c r="Z113" s="6"/>
+      <c r="AA113" s="6"/>
+      <c r="AB113" s="6"/>
+      <c r="AC113" s="6"/>
+      <c r="AD113" s="6"/>
+      <c r="AE113" s="6"/>
+      <c r="AF113" s="6"/>
+      <c r="AG113" s="7"/>
+    </row>
+    <row r="114" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B114" s="8"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="7"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="6"/>
+      <c r="U114" s="6"/>
+      <c r="V114" s="6"/>
+      <c r="W114" s="6"/>
+      <c r="X114" s="6"/>
+      <c r="Y114" s="6"/>
+      <c r="Z114" s="6"/>
+      <c r="AA114" s="6"/>
+      <c r="AB114" s="6"/>
+      <c r="AC114" s="6"/>
+      <c r="AD114" s="6"/>
+      <c r="AE114" s="6"/>
+      <c r="AF114" s="6"/>
+      <c r="AG114" s="7"/>
+    </row>
+    <row r="115" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B115" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="7"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="6"/>
+      <c r="V115" s="6"/>
+      <c r="W115" s="6"/>
+      <c r="X115" s="6"/>
+      <c r="Y115" s="6"/>
+      <c r="Z115" s="6"/>
+      <c r="AA115" s="6"/>
+      <c r="AB115" s="6"/>
+      <c r="AC115" s="6"/>
+      <c r="AD115" s="6"/>
+      <c r="AE115" s="6"/>
+      <c r="AF115" s="6"/>
+      <c r="AG115" s="7"/>
+    </row>
+    <row r="116" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B116" s="8"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="7"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
+      <c r="V116" s="6"/>
+      <c r="W116" s="6"/>
+      <c r="X116" s="6"/>
+      <c r="Y116" s="6"/>
+      <c r="Z116" s="6"/>
+      <c r="AA116" s="6"/>
+      <c r="AB116" s="6"/>
+      <c r="AC116" s="6"/>
+      <c r="AD116" s="6"/>
+      <c r="AE116" s="6"/>
+      <c r="AF116" s="6"/>
+      <c r="AG116" s="7"/>
+    </row>
+    <row r="117" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B117" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="7"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="6"/>
+      <c r="U117" s="6"/>
+      <c r="V117" s="6"/>
+      <c r="W117" s="6"/>
+      <c r="X117" s="6"/>
+      <c r="Y117" s="6"/>
+      <c r="Z117" s="6"/>
+      <c r="AA117" s="6"/>
+      <c r="AB117" s="6"/>
+      <c r="AC117" s="6"/>
+      <c r="AD117" s="6"/>
+      <c r="AE117" s="6"/>
+      <c r="AF117" s="6"/>
+      <c r="AG117" s="7"/>
+    </row>
+    <row r="118" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B118" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="7"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+      <c r="T118" s="6"/>
+      <c r="U118" s="6"/>
+      <c r="V118" s="6"/>
+      <c r="W118" s="6"/>
+      <c r="X118" s="6"/>
+      <c r="Y118" s="6"/>
+      <c r="Z118" s="6"/>
+      <c r="AA118" s="6"/>
+      <c r="AB118" s="6"/>
+      <c r="AC118" s="6"/>
+      <c r="AD118" s="6"/>
+      <c r="AE118" s="6"/>
+      <c r="AF118" s="6"/>
+      <c r="AG118" s="7"/>
+    </row>
+    <row r="119" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B119" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="7"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+      <c r="T119" s="6"/>
+      <c r="U119" s="6"/>
+      <c r="V119" s="6"/>
+      <c r="W119" s="6"/>
+      <c r="X119" s="6"/>
+      <c r="Y119" s="6"/>
+      <c r="Z119" s="6"/>
+      <c r="AA119" s="6"/>
+      <c r="AB119" s="6"/>
+      <c r="AC119" s="6"/>
+      <c r="AD119" s="6"/>
+      <c r="AE119" s="6"/>
+      <c r="AF119" s="6"/>
+      <c r="AG119" s="7"/>
+    </row>
+    <row r="120" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B120" s="8"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="7"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
+      <c r="T120" s="6"/>
+      <c r="U120" s="6"/>
+      <c r="V120" s="6"/>
+      <c r="W120" s="6"/>
+      <c r="X120" s="6"/>
+      <c r="Y120" s="6"/>
+      <c r="Z120" s="6"/>
+      <c r="AA120" s="6"/>
+      <c r="AB120" s="6"/>
+      <c r="AC120" s="6"/>
+      <c r="AD120" s="6"/>
+      <c r="AE120" s="6"/>
+      <c r="AF120" s="6"/>
+      <c r="AG120" s="7"/>
+    </row>
+    <row r="121" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B121" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="7"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="6"/>
+      <c r="T121" s="6"/>
+      <c r="U121" s="6"/>
+      <c r="V121" s="6"/>
+      <c r="W121" s="6"/>
+      <c r="X121" s="6"/>
+      <c r="Y121" s="6"/>
+      <c r="Z121" s="6"/>
+      <c r="AA121" s="6"/>
+      <c r="AB121" s="6"/>
+      <c r="AC121" s="6"/>
+      <c r="AD121" s="6"/>
+      <c r="AE121" s="6"/>
+      <c r="AF121" s="6"/>
+      <c r="AG121" s="7"/>
+    </row>
+    <row r="122" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B122" s="8"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="7"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="6"/>
+      <c r="T122" s="6"/>
+      <c r="U122" s="6"/>
+      <c r="V122" s="6"/>
+      <c r="W122" s="6"/>
+      <c r="X122" s="6"/>
+      <c r="Y122" s="6"/>
+      <c r="Z122" s="6"/>
+      <c r="AA122" s="6"/>
+      <c r="AB122" s="6"/>
+      <c r="AC122" s="6"/>
+      <c r="AD122" s="6"/>
+      <c r="AE122" s="6"/>
+      <c r="AF122" s="6"/>
+      <c r="AG122" s="7"/>
+    </row>
+    <row r="123" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B123" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="7"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="6"/>
+      <c r="T123" s="6"/>
+      <c r="U123" s="6"/>
+      <c r="V123" s="6"/>
+      <c r="W123" s="6"/>
+      <c r="X123" s="6"/>
+      <c r="Y123" s="6"/>
+      <c r="Z123" s="6"/>
+      <c r="AA123" s="6"/>
+      <c r="AB123" s="6"/>
+      <c r="AC123" s="6"/>
+      <c r="AD123" s="6"/>
+      <c r="AE123" s="6"/>
+      <c r="AF123" s="6"/>
+      <c r="AG123" s="7"/>
+    </row>
+    <row r="124" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B124" s="8"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="7"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="6"/>
+      <c r="T124" s="6"/>
+      <c r="U124" s="6"/>
+      <c r="V124" s="6"/>
+      <c r="W124" s="6"/>
+      <c r="X124" s="6"/>
+      <c r="Y124" s="6"/>
+      <c r="Z124" s="6"/>
+      <c r="AA124" s="6"/>
+      <c r="AB124" s="6"/>
+      <c r="AC124" s="6"/>
+      <c r="AD124" s="6"/>
+      <c r="AE124" s="6"/>
+      <c r="AF124" s="6"/>
+      <c r="AG124" s="7"/>
+    </row>
+    <row r="125" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B125" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="11"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="10"/>
+      <c r="Q125" s="10"/>
+      <c r="R125" s="10"/>
+      <c r="S125" s="10"/>
+      <c r="T125" s="10"/>
+      <c r="U125" s="10"/>
+      <c r="V125" s="10"/>
+      <c r="W125" s="10"/>
+      <c r="X125" s="10"/>
+      <c r="Y125" s="10"/>
+      <c r="Z125" s="10"/>
+      <c r="AA125" s="10"/>
+      <c r="AB125" s="10"/>
+      <c r="AC125" s="10"/>
+      <c r="AD125" s="10"/>
+      <c r="AE125" s="10"/>
+      <c r="AF125" s="10"/>
+      <c r="AG125" s="11"/>
+    </row>
+    <row r="127" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="18"/>
+      <c r="N130" s="18"/>
+      <c r="O130" s="18"/>
+      <c r="P130" s="18"/>
+      <c r="Q130" s="18"/>
+      <c r="R130" s="18"/>
+      <c r="S130" s="19"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="20"/>
+      <c r="B131" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="21"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="20"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="7"/>
+      <c r="S132" s="21"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="20"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="7"/>
+      <c r="S133" s="21"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="20"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+      <c r="R134" s="7"/>
+      <c r="S134" s="21"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" s="20"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="7"/>
+      <c r="S135" s="21"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="20"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="7"/>
+      <c r="S136" s="21"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="20"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="21"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="20"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="7"/>
+      <c r="S138" s="21"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="20"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="7"/>
+      <c r="S139" s="21"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="20"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="7"/>
+      <c r="S140" s="21"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="20"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="7"/>
+      <c r="S141" s="21"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="20"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="7"/>
+      <c r="S142" s="21"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="20"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="7"/>
+      <c r="S143" s="21"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="20"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="7"/>
+      <c r="S144" s="21"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="20"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="7"/>
+      <c r="S145" s="21"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="20"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="7"/>
+      <c r="S146" s="21"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" s="20"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10"/>
+      <c r="L147" s="10"/>
+      <c r="M147" s="10"/>
+      <c r="N147" s="10"/>
+      <c r="O147" s="10"/>
+      <c r="P147" s="10"/>
+      <c r="Q147" s="10"/>
+      <c r="R147" s="11"/>
+      <c r="S147" s="21"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="20"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="21"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="20"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="21"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="20"/>
+      <c r="B150" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="21"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="20"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="7"/>
+      <c r="S151" s="21"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" s="20"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="6"/>
+      <c r="R152" s="7"/>
+      <c r="S152" s="21"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="20"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="7"/>
+      <c r="S153" s="21"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="20"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="7"/>
+      <c r="S154" s="21"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="20"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="7"/>
+      <c r="S155" s="21"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="20"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="7"/>
+      <c r="S156" s="21"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="20"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="7"/>
+      <c r="S157" s="21"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="20"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="7"/>
+      <c r="S158" s="21"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="20"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="21"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="20"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="7"/>
+      <c r="S160" s="21"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="20"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="7"/>
+      <c r="S161" s="21"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="20"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="7"/>
+      <c r="S162" s="21"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="20"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="7"/>
+      <c r="S163" s="21"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" s="20"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="7"/>
+      <c r="S164" s="21"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" s="20"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="7"/>
+      <c r="S165" s="21"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" s="20"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="7"/>
+      <c r="S166" s="21"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167" s="20"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="7"/>
+      <c r="S167" s="21"/>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168" s="20"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="10"/>
+      <c r="K168" s="10"/>
+      <c r="L168" s="10"/>
+      <c r="M168" s="10"/>
+      <c r="N168" s="10"/>
+      <c r="O168" s="10"/>
+      <c r="P168" s="10"/>
+      <c r="Q168" s="10"/>
+      <c r="R168" s="11"/>
+      <c r="S168" s="21"/>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" s="20"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
+      <c r="M169" s="6"/>
+      <c r="N169" s="6"/>
+      <c r="O169" s="6"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="21"/>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" s="20"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6"/>
+      <c r="M170" s="6"/>
+      <c r="N170" s="6"/>
+      <c r="O170" s="6"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="6"/>
+      <c r="R170" s="6"/>
+      <c r="S170" s="21"/>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" s="20"/>
+      <c r="B171" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="4"/>
+      <c r="S171" s="21"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" s="20"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6"/>
+      <c r="L172" s="6"/>
+      <c r="M172" s="6"/>
+      <c r="N172" s="6"/>
+      <c r="O172" s="6"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="6"/>
+      <c r="R172" s="7"/>
+      <c r="S172" s="21"/>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173" s="20"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="6"/>
+      <c r="L173" s="6"/>
+      <c r="M173" s="6"/>
+      <c r="N173" s="6"/>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="6"/>
+      <c r="R173" s="7"/>
+      <c r="S173" s="21"/>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174" s="20"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+      <c r="R174" s="7"/>
+      <c r="S174" s="21"/>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175" s="20"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="6"/>
+      <c r="L175" s="6"/>
+      <c r="M175" s="6"/>
+      <c r="N175" s="6"/>
+      <c r="O175" s="6"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" s="6"/>
+      <c r="R175" s="7"/>
+      <c r="S175" s="21"/>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" s="20"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6"/>
+      <c r="L176" s="6"/>
+      <c r="M176" s="6"/>
+      <c r="N176" s="6"/>
+      <c r="O176" s="6"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="6"/>
+      <c r="R176" s="7"/>
+      <c r="S176" s="21"/>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="20"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6"/>
+      <c r="M177" s="6"/>
+      <c r="N177" s="6"/>
+      <c r="O177" s="6"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="6"/>
+      <c r="R177" s="7"/>
+      <c r="S177" s="21"/>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" s="20"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+      <c r="M178" s="6"/>
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="6"/>
+      <c r="R178" s="7"/>
+      <c r="S178" s="21"/>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="20"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="6"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
+      <c r="R179" s="7"/>
+      <c r="S179" s="21"/>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" s="20"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+      <c r="M180" s="6"/>
+      <c r="N180" s="6"/>
+      <c r="O180" s="6"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="6"/>
+      <c r="R180" s="7"/>
+      <c r="S180" s="21"/>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" s="20"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
+      <c r="M181" s="6"/>
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" s="6"/>
+      <c r="R181" s="7"/>
+      <c r="S181" s="21"/>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A182" s="20"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="6"/>
+      <c r="L182" s="6"/>
+      <c r="M182" s="6"/>
+      <c r="N182" s="6"/>
+      <c r="O182" s="6"/>
+      <c r="P182" s="6"/>
+      <c r="Q182" s="6"/>
+      <c r="R182" s="7"/>
+      <c r="S182" s="21"/>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A183" s="20"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6"/>
+      <c r="M183" s="6"/>
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
+      <c r="P183" s="6"/>
+      <c r="Q183" s="6"/>
+      <c r="R183" s="7"/>
+      <c r="S183" s="21"/>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184" s="20"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6"/>
+      <c r="M184" s="6"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="6"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+      <c r="R184" s="7"/>
+      <c r="S184" s="21"/>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" s="20"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6"/>
+      <c r="M185" s="6"/>
+      <c r="N185" s="6"/>
+      <c r="O185" s="6"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" s="6"/>
+      <c r="R185" s="7"/>
+      <c r="S185" s="21"/>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" s="20"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
+      <c r="R186" s="7"/>
+      <c r="S186" s="21"/>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" s="20"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+      <c r="K187" s="6"/>
+      <c r="L187" s="6"/>
+      <c r="M187" s="6"/>
+      <c r="N187" s="6"/>
+      <c r="O187" s="6"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" s="6"/>
+      <c r="R187" s="7"/>
+      <c r="S187" s="21"/>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188" s="20"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="6"/>
+      <c r="L188" s="6"/>
+      <c r="M188" s="6"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="6"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
+      <c r="R188" s="7"/>
+      <c r="S188" s="21"/>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189" s="20"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="6"/>
+      <c r="L189" s="6"/>
+      <c r="M189" s="6"/>
+      <c r="N189" s="6"/>
+      <c r="O189" s="6"/>
+      <c r="P189" s="6"/>
+      <c r="Q189" s="6"/>
+      <c r="R189" s="7"/>
+      <c r="S189" s="21"/>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190" s="20"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="10"/>
+      <c r="K190" s="10"/>
+      <c r="L190" s="10"/>
+      <c r="M190" s="10"/>
+      <c r="N190" s="10"/>
+      <c r="O190" s="10"/>
+      <c r="P190" s="10"/>
+      <c r="Q190" s="10"/>
+      <c r="R190" s="11"/>
+      <c r="S190" s="21"/>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191" s="20"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6"/>
+      <c r="L191" s="6"/>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="6"/>
+      <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
+      <c r="R191" s="6"/>
+      <c r="S191" s="21"/>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192" s="20"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="6"/>
+      <c r="L192" s="6"/>
+      <c r="M192" s="6"/>
+      <c r="N192" s="6"/>
+      <c r="O192" s="6"/>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="6"/>
+      <c r="R192" s="6"/>
+      <c r="S192" s="21"/>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" s="20"/>
+      <c r="B193" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3"/>
+      <c r="Q193" s="3"/>
+      <c r="R193" s="4"/>
+      <c r="S193" s="21"/>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A194" s="20"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="6"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
+      <c r="R194" s="7"/>
+      <c r="S194" s="21"/>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A195" s="20"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="6"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
+      <c r="R195" s="7"/>
+      <c r="S195" s="21"/>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A196" s="20"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
+      <c r="R196" s="7"/>
+      <c r="S196" s="21"/>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" s="20"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="6"/>
+      <c r="R197" s="7"/>
+      <c r="S197" s="21"/>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A198" s="20"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+      <c r="R198" s="7"/>
+      <c r="S198" s="21"/>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A199" s="20"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="6"/>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
+      <c r="R199" s="7"/>
+      <c r="S199" s="21"/>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A200" s="20"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="6"/>
+      <c r="L200" s="6"/>
+      <c r="M200" s="6"/>
+      <c r="N200" s="6"/>
+      <c r="O200" s="6"/>
+      <c r="P200" s="6"/>
+      <c r="Q200" s="6"/>
+      <c r="R200" s="7"/>
+      <c r="S200" s="21"/>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A201" s="20"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+      <c r="M201" s="6"/>
+      <c r="N201" s="6"/>
+      <c r="O201" s="6"/>
+      <c r="P201" s="6"/>
+      <c r="Q201" s="6"/>
+      <c r="R201" s="7"/>
+      <c r="S201" s="21"/>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A202" s="20"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="M202" s="6"/>
+      <c r="N202" s="6"/>
+      <c r="O202" s="6"/>
+      <c r="P202" s="6"/>
+      <c r="Q202" s="6"/>
+      <c r="R202" s="7"/>
+      <c r="S202" s="21"/>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A203" s="20"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="M203" s="6"/>
+      <c r="N203" s="6"/>
+      <c r="O203" s="6"/>
+      <c r="P203" s="6"/>
+      <c r="Q203" s="6"/>
+      <c r="R203" s="7"/>
+      <c r="S203" s="21"/>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A204" s="20"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="M204" s="6"/>
+      <c r="N204" s="6"/>
+      <c r="O204" s="6"/>
+      <c r="P204" s="6"/>
+      <c r="Q204" s="6"/>
+      <c r="R204" s="7"/>
+      <c r="S204" s="21"/>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A205" s="20"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6"/>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+      <c r="M205" s="6"/>
+      <c r="N205" s="6"/>
+      <c r="O205" s="6"/>
+      <c r="P205" s="6"/>
+      <c r="Q205" s="6"/>
+      <c r="R205" s="7"/>
+      <c r="S205" s="21"/>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A206" s="20"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
+      <c r="K206" s="6"/>
+      <c r="L206" s="6"/>
+      <c r="M206" s="6"/>
+      <c r="N206" s="6"/>
+      <c r="O206" s="6"/>
+      <c r="P206" s="6"/>
+      <c r="Q206" s="6"/>
+      <c r="R206" s="7"/>
+      <c r="S206" s="21"/>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A207" s="20"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="6"/>
+      <c r="K207" s="6"/>
+      <c r="L207" s="6"/>
+      <c r="M207" s="6"/>
+      <c r="N207" s="6"/>
+      <c r="O207" s="6"/>
+      <c r="P207" s="6"/>
+      <c r="Q207" s="6"/>
+      <c r="R207" s="7"/>
+      <c r="S207" s="21"/>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A208" s="20"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="6"/>
+      <c r="J208" s="6"/>
+      <c r="K208" s="6"/>
+      <c r="L208" s="6"/>
+      <c r="M208" s="6"/>
+      <c r="N208" s="6"/>
+      <c r="O208" s="6"/>
+      <c r="P208" s="6"/>
+      <c r="Q208" s="6"/>
+      <c r="R208" s="7"/>
+      <c r="S208" s="21"/>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A209" s="20"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
+      <c r="K209" s="6"/>
+      <c r="L209" s="6"/>
+      <c r="M209" s="6"/>
+      <c r="N209" s="6"/>
+      <c r="O209" s="6"/>
+      <c r="P209" s="6"/>
+      <c r="Q209" s="6"/>
+      <c r="R209" s="7"/>
+      <c r="S209" s="21"/>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A210" s="20"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
+      <c r="K210" s="6"/>
+      <c r="L210" s="6"/>
+      <c r="M210" s="6"/>
+      <c r="N210" s="6"/>
+      <c r="O210" s="6"/>
+      <c r="P210" s="6"/>
+      <c r="Q210" s="6"/>
+      <c r="R210" s="7"/>
+      <c r="S210" s="21"/>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A211" s="20"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="6"/>
+      <c r="L211" s="6"/>
+      <c r="M211" s="6"/>
+      <c r="N211" s="6"/>
+      <c r="O211" s="6"/>
+      <c r="P211" s="6"/>
+      <c r="Q211" s="6"/>
+      <c r="R211" s="7"/>
+      <c r="S211" s="21"/>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A212" s="20"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
+      <c r="K212" s="6"/>
+      <c r="L212" s="6"/>
+      <c r="M212" s="6"/>
+      <c r="N212" s="6"/>
+      <c r="O212" s="6"/>
+      <c r="P212" s="6"/>
+      <c r="Q212" s="6"/>
+      <c r="R212" s="7"/>
+      <c r="S212" s="21"/>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A213" s="20"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+      <c r="I213" s="6"/>
+      <c r="J213" s="6"/>
+      <c r="K213" s="6"/>
+      <c r="L213" s="6"/>
+      <c r="M213" s="6"/>
+      <c r="N213" s="6"/>
+      <c r="O213" s="6"/>
+      <c r="P213" s="6"/>
+      <c r="Q213" s="6"/>
+      <c r="R213" s="7"/>
+      <c r="S213" s="21"/>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A214" s="20"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
+      <c r="I214" s="6"/>
+      <c r="J214" s="6"/>
+      <c r="K214" s="6"/>
+      <c r="L214" s="6"/>
+      <c r="M214" s="6"/>
+      <c r="N214" s="6"/>
+      <c r="O214" s="6"/>
+      <c r="P214" s="6"/>
+      <c r="Q214" s="6"/>
+      <c r="R214" s="7"/>
+      <c r="S214" s="21"/>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A215" s="20"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
+      <c r="K215" s="6"/>
+      <c r="L215" s="6"/>
+      <c r="M215" s="6"/>
+      <c r="N215" s="6"/>
+      <c r="O215" s="6"/>
+      <c r="P215" s="6"/>
+      <c r="Q215" s="6"/>
+      <c r="R215" s="7"/>
+      <c r="S215" s="21"/>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A216" s="20"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
+      <c r="M216" s="6"/>
+      <c r="N216" s="6"/>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
+      <c r="Q216" s="6"/>
+      <c r="R216" s="7"/>
+      <c r="S216" s="21"/>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A217" s="20"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
+      <c r="M217" s="6"/>
+      <c r="N217" s="6"/>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
+      <c r="R217" s="7"/>
+      <c r="S217" s="21"/>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A218" s="20"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="6"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
+      <c r="M218" s="6"/>
+      <c r="N218" s="6"/>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
+      <c r="R218" s="7"/>
+      <c r="S218" s="21"/>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A219" s="20"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
+      <c r="M219" s="6"/>
+      <c r="N219" s="6"/>
+      <c r="O219" s="6"/>
+      <c r="P219" s="6"/>
+      <c r="Q219" s="6"/>
+      <c r="R219" s="7"/>
+      <c r="S219" s="21"/>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A220" s="20"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="6"/>
+      <c r="K220" s="6"/>
+      <c r="L220" s="6"/>
+      <c r="M220" s="6"/>
+      <c r="N220" s="6"/>
+      <c r="O220" s="6"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="6"/>
+      <c r="R220" s="7"/>
+      <c r="S220" s="21"/>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A221" s="20"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+      <c r="I221" s="6"/>
+      <c r="J221" s="6"/>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6"/>
+      <c r="M221" s="6"/>
+      <c r="N221" s="6"/>
+      <c r="O221" s="6"/>
+      <c r="P221" s="6"/>
+      <c r="Q221" s="6"/>
+      <c r="R221" s="7"/>
+      <c r="S221" s="21"/>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A222" s="20"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="10"/>
+      <c r="K222" s="10"/>
+      <c r="L222" s="10"/>
+      <c r="M222" s="10"/>
+      <c r="N222" s="10"/>
+      <c r="O222" s="10"/>
+      <c r="P222" s="10"/>
+      <c r="Q222" s="10"/>
+      <c r="R222" s="11"/>
+      <c r="S222" s="21"/>
+    </row>
+    <row r="223" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="22"/>
+      <c r="B223" s="23"/>
+      <c r="C223" s="23"/>
+      <c r="D223" s="23"/>
+      <c r="E223" s="23"/>
+      <c r="F223" s="23"/>
+      <c r="G223" s="23"/>
+      <c r="H223" s="23"/>
+      <c r="I223" s="23"/>
+      <c r="J223" s="23"/>
+      <c r="K223" s="23"/>
+      <c r="L223" s="23"/>
+      <c r="M223" s="23"/>
+      <c r="N223" s="23"/>
+      <c r="O223" s="23"/>
+      <c r="P223" s="23"/>
+      <c r="Q223" s="23"/>
+      <c r="R223" s="23"/>
+      <c r="S223" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/4.api-key-authentication.xlsx
+++ b/me/4.create-a-restful-api/4.api-key-authentication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641E0AE1-CA51-499D-8B59-120A6E0F94E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08564B4-EDD3-4543-8895-011AB0B2D68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create user table" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Create gateway class for user " sheetId="5" r:id="rId5"/>
     <sheet name="Authenticate API key 401 status" sheetId="6" r:id="rId6"/>
     <sheet name="bootstrap file and Auth class" sheetId="7" r:id="rId7"/>
+    <sheet name="Add a foreign key relationship " sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="263">
   <si>
     <t>Create a table to store user account data</t>
   </si>
@@ -756,12 +757,90 @@
   <si>
     <t>call api /tasks có truyền api key với giá trị giống trong db, api trả về danh sách task bình thường</t>
   </si>
+  <si>
+    <t>Add a foreign key relationship to link task records to user records</t>
+  </si>
+  <si>
+    <t>Khi authenticate bằng cách dùng api key thì cần phải xác định key đó là của user nào</t>
+  </si>
+  <si>
+    <t>Hiện tại thì bất kỳ user nào thì cũng có thể access đến bất kỳ task nào bằng nhiều api enpoint khác nhau. Giờ mình sẽ thêm liên kết task nào là của user nào thì user đó mới có quyền access đến</t>
+  </si>
+  <si>
+    <t>bằng cách thêm foreign key vào bảng task</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>1.create_database.sql</t>
+  </si>
+  <si>
+    <t>2.create_task_table.sql</t>
+  </si>
+  <si>
+    <t>3.insert_task_table.sql</t>
+  </si>
+  <si>
+    <t>4.create_user_table.sql</t>
+  </si>
+  <si>
+    <t>5.link_tasks_to_users.sql</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\database\5.link_tasks_to_users.sql</t>
+  </si>
+  <si>
+    <t>ALTER TABLE task</t>
+  </si>
+  <si>
+    <t>ADD user_id INT NOT NULL,</t>
+  </si>
+  <si>
+    <t>ADD INDEX (user_id);</t>
+  </si>
+  <si>
+    <t>ADD FOREIGN KEY (user_id) REFERENCES user(id)</t>
+  </si>
+  <si>
+    <t>ON DELETE CASCADE ON UPDATE CASCADE;</t>
+  </si>
+  <si>
+    <t>Thêm field user_id vào bảng task</t>
+  </si>
+  <si>
+    <t>user table</t>
+  </si>
+  <si>
+    <t>Check bảng task thấy field user_id đã được thêm và tất cả các giá trị của user_id đang là 0 trong khi bảng user đang có 1 user</t>
+  </si>
+  <si>
+    <t>có id là 1 nên mình sẽ update các giá trị user_id của bảng task thành 1</t>
+  </si>
+  <si>
+    <t>update các giá trị user_id trong bảng task thành 1</t>
+  </si>
+  <si>
+    <t>SET SQL_SAFE_UPDATES=0;</t>
+  </si>
+  <si>
+    <t>Tuy nhiên MySQL Workbench mặc định được dùng safe update mode nên để update được thì cần disable safe mode</t>
+  </si>
+  <si>
+    <t>Check giá trị user_id đã được update thành 1</t>
+  </si>
+  <si>
+    <t>Them foreign key cho bảng task, nếu record bảng user được delete hoặc update thì record liên quan bên bảng task cũng sẽ được delete hoặc update</t>
+  </si>
+  <si>
+    <t>Change 構成</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +851,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -963,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1003,6 +1096,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3902,6 +4001,1008 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399FD0E0-4B27-A63D-FF6B-07C2F569F0A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="1419225"/>
+          <a:ext cx="6248400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31D96F0-1725-FC2F-794B-1FD42B6BDB2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3724275" y="4505325"/>
+          <a:ext cx="6067425" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73474B39-95BE-4D36-7E78-878CFAC886C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3810000" y="4695825"/>
+          <a:ext cx="6010275" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09221372-79A5-BF8A-6F49-95CFF58ED6C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3781425" y="4905375"/>
+          <a:ext cx="6010275" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705C44C6-CD23-0C5B-BE7A-FD610C0848CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3724275" y="5076825"/>
+          <a:ext cx="6096000" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361233</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5106EB-3C1B-069A-F364-0AA6DCCE7839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="9972675"/>
+          <a:ext cx="5733333" cy="1200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650BF894-6961-B064-FF79-07A7B7A31144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="8162925"/>
+          <a:ext cx="619125" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>608775</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>190080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDA7450-A528-B7D0-2A26-7002919E0420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="11687175"/>
+          <a:ext cx="6600000" cy="3361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>427823</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>94918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B27E6F5-2DDA-10ED-0A9B-749DBED4D0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="15725775"/>
+          <a:ext cx="6419048" cy="2657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42768C7D-4EFA-6497-C95D-F53D5822D139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1047750" y="11782425"/>
+          <a:ext cx="66675" cy="6267450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>446949</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>190374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0634F8-879C-CCA1-9D63-14DBF9002A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9267825" y="19373850"/>
+          <a:ext cx="5809524" cy="1009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313608</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>85581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56E4538-FE68-50A8-BDEA-DFC563BD0471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="19507200"/>
+          <a:ext cx="5733333" cy="1152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641A168B-014C-E5F3-F13F-B7CF0B3B7EA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7410450" y="19173825"/>
+          <a:ext cx="1762125" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561156</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>18613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C5E18C-D8FF-115E-B6BB-1769AF288890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="21288375"/>
+          <a:ext cx="6552381" cy="3495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2526304F-EFBD-4216-A07D-6F0484E3AE26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="21145500"/>
+          <a:ext cx="295275" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2159259-7D94-4B6D-0F93-2E941F85703E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="971550" y="11801475"/>
+          <a:ext cx="1209675" cy="7258050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>399319</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>9369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{617254E1-8D40-7779-A0C2-579B5D023219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="25812750"/>
+          <a:ext cx="5847619" cy="1247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAC5891-AE03-3DAA-886F-984BD27FAABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1962150" y="25688925"/>
+          <a:ext cx="5619750" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0794E306-082B-ECA6-589F-DA050D005D86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3124200" y="25698450"/>
+          <a:ext cx="5238750" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7797E263-B6E4-046F-0157-34AE3D5503FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="8934450"/>
+          <a:ext cx="923925" cy="17411700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -21687,8 +22788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8D74F8-17D5-4629-935D-7B5DF17808EF}">
   <dimension ref="A2:AG223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="J232" sqref="J232"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25902,4 +27003,3387 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4C94D6-B2F3-40EA-9B67-C2490AD9289F}">
+  <dimension ref="A2:Z143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="27"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="29"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="29"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="29"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="29"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="29"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="29"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="29"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="29"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="29"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="29"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="29"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="29"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="29"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="29"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="29"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="29"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="29"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="29"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="29"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="29"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="29"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="29"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="29"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="29"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="29"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="29"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="29"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="29"/>
+      <c r="V23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="29"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="29"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="29"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="29"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="29"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="29"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="29"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="29"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="29"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="29"/>
+      <c r="V28" t="s">
+        <v>34</v>
+      </c>
+      <c r="W28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="29"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="29"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="29"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="29"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="29"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="29"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="29"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="29"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="29"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="29"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="29"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="29"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="29"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="29"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="29"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="29"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="33"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="29"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M38" s="28"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="29"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M39" s="30"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="33"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B47" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B49" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="4"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="7"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="7"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="7"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="7"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="7"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="7"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="7"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="7"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="7"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="7"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="7"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="7"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="7"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="7"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="7"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="7"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="7"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="7"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="7"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="7"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="7"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="7"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="7"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="7"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="7"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="7"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="7"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="7"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="7"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="7"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="7"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="7"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="7"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="7"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="7"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="7"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="7"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="7"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="7"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="7"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="7"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="7"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="7"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
+      <c r="Z96" s="7"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="7"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+      <c r="Y98" s="6"/>
+      <c r="Z98" s="7"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+      <c r="Y99" s="6"/>
+      <c r="Z99" s="7"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="7"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="7"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6"/>
+      <c r="V102" s="6"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="6"/>
+      <c r="Y102" s="7"/>
+      <c r="Z102" s="7"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6"/>
+      <c r="V104" s="6"/>
+      <c r="W104" s="6"/>
+      <c r="X104" s="6"/>
+      <c r="Y104" s="7"/>
+      <c r="Z104" s="7"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6"/>
+      <c r="U105" s="6"/>
+      <c r="V105" s="6"/>
+      <c r="W105" s="6"/>
+      <c r="X105" s="6"/>
+      <c r="Y105" s="7"/>
+      <c r="Z105" s="7"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="6"/>
+      <c r="V106" s="6"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="6"/>
+      <c r="Y106" s="7"/>
+      <c r="Z106" s="7"/>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+      <c r="T107" s="10"/>
+      <c r="U107" s="10"/>
+      <c r="V107" s="10"/>
+      <c r="W107" s="10"/>
+      <c r="X107" s="10"/>
+      <c r="Y107" s="11"/>
+      <c r="Z107" s="7"/>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+      <c r="U108" s="6"/>
+      <c r="V108" s="6"/>
+      <c r="W108" s="6"/>
+      <c r="X108" s="6"/>
+      <c r="Y108" s="6"/>
+      <c r="Z108" s="7"/>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="6"/>
+      <c r="Y109" s="6"/>
+      <c r="Z109" s="7"/>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="6"/>
+      <c r="W110" s="6"/>
+      <c r="X110" s="6"/>
+      <c r="Y110" s="6"/>
+      <c r="Z110" s="7"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+      <c r="U111" s="6"/>
+      <c r="V111" s="6"/>
+      <c r="W111" s="6"/>
+      <c r="X111" s="6"/>
+      <c r="Y111" s="6"/>
+      <c r="Z111" s="7"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
+      <c r="U112" s="6"/>
+      <c r="V112" s="6"/>
+      <c r="W112" s="6"/>
+      <c r="X112" s="6"/>
+      <c r="Y112" s="6"/>
+      <c r="Z112" s="7"/>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+      <c r="Y113" s="6"/>
+      <c r="Z113" s="7"/>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="6"/>
+      <c r="U114" s="6"/>
+      <c r="V114" s="6"/>
+      <c r="W114" s="6"/>
+      <c r="X114" s="6"/>
+      <c r="Y114" s="6"/>
+      <c r="Z114" s="7"/>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="6"/>
+      <c r="V115" s="6"/>
+      <c r="W115" s="6"/>
+      <c r="X115" s="6"/>
+      <c r="Y115" s="6"/>
+      <c r="Z115" s="7"/>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
+      <c r="V116" s="6"/>
+      <c r="W116" s="6"/>
+      <c r="X116" s="6"/>
+      <c r="Y116" s="6"/>
+      <c r="Z116" s="7"/>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="6"/>
+      <c r="U117" s="6"/>
+      <c r="V117" s="6"/>
+      <c r="W117" s="6"/>
+      <c r="X117" s="6"/>
+      <c r="Y117" s="6"/>
+      <c r="Z117" s="7"/>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+      <c r="T118" s="6"/>
+      <c r="U118" s="6"/>
+      <c r="V118" s="6"/>
+      <c r="W118" s="6"/>
+      <c r="X118" s="6"/>
+      <c r="Y118" s="6"/>
+      <c r="Z118" s="7"/>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+      <c r="T119" s="6"/>
+      <c r="U119" s="6"/>
+      <c r="V119" s="6"/>
+      <c r="W119" s="6"/>
+      <c r="X119" s="6"/>
+      <c r="Y119" s="6"/>
+      <c r="Z119" s="7"/>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
+      <c r="T120" s="6"/>
+      <c r="U120" s="6"/>
+      <c r="V120" s="6"/>
+      <c r="W120" s="6"/>
+      <c r="X120" s="6"/>
+      <c r="Y120" s="6"/>
+      <c r="Z120" s="7"/>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="6"/>
+      <c r="T121" s="6"/>
+      <c r="U121" s="6"/>
+      <c r="V121" s="6"/>
+      <c r="W121" s="6"/>
+      <c r="X121" s="6"/>
+      <c r="Y121" s="6"/>
+      <c r="Z121" s="7"/>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="6"/>
+      <c r="T122" s="6"/>
+      <c r="U122" s="6"/>
+      <c r="V122" s="6"/>
+      <c r="W122" s="6"/>
+      <c r="X122" s="6"/>
+      <c r="Y122" s="6"/>
+      <c r="Z122" s="7"/>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="6"/>
+      <c r="O123" s="6"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="6"/>
+      <c r="T123" s="6"/>
+      <c r="U123" s="6"/>
+      <c r="V123" s="6"/>
+      <c r="W123" s="6"/>
+      <c r="X123" s="6"/>
+      <c r="Y123" s="6"/>
+      <c r="Z123" s="7"/>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="6"/>
+      <c r="T124" s="6"/>
+      <c r="U124" s="6"/>
+      <c r="V124" s="6"/>
+      <c r="W124" s="6"/>
+      <c r="X124" s="6"/>
+      <c r="Y124" s="6"/>
+      <c r="Z124" s="7"/>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="6"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="6"/>
+      <c r="T125" s="6"/>
+      <c r="U125" s="6"/>
+      <c r="V125" s="6"/>
+      <c r="W125" s="6"/>
+      <c r="X125" s="6"/>
+      <c r="Y125" s="6"/>
+      <c r="Z125" s="7"/>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="6"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="6"/>
+      <c r="R126" s="6"/>
+      <c r="S126" s="6"/>
+      <c r="T126" s="6"/>
+      <c r="U126" s="6"/>
+      <c r="V126" s="6"/>
+      <c r="W126" s="6"/>
+      <c r="X126" s="6"/>
+      <c r="Y126" s="6"/>
+      <c r="Z126" s="7"/>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
+      <c r="R127" s="6"/>
+      <c r="S127" s="6"/>
+      <c r="T127" s="6"/>
+      <c r="U127" s="6"/>
+      <c r="V127" s="6"/>
+      <c r="W127" s="6"/>
+      <c r="X127" s="6"/>
+      <c r="Y127" s="6"/>
+      <c r="Z127" s="7"/>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="6"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
+      <c r="R128" s="6"/>
+      <c r="S128" s="6"/>
+      <c r="T128" s="6"/>
+      <c r="U128" s="6"/>
+      <c r="V128" s="6"/>
+      <c r="W128" s="6"/>
+      <c r="X128" s="6"/>
+      <c r="Y128" s="6"/>
+      <c r="Z128" s="7"/>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="6"/>
+      <c r="S129" s="6"/>
+      <c r="T129" s="6"/>
+      <c r="U129" s="6"/>
+      <c r="V129" s="6"/>
+      <c r="W129" s="6"/>
+      <c r="X129" s="6"/>
+      <c r="Y129" s="6"/>
+      <c r="Z129" s="7"/>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="6"/>
+      <c r="S130" s="6"/>
+      <c r="T130" s="6"/>
+      <c r="U130" s="6"/>
+      <c r="V130" s="6"/>
+      <c r="W130" s="6"/>
+      <c r="X130" s="6"/>
+      <c r="Y130" s="6"/>
+      <c r="Z130" s="7"/>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A131" s="8"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="6"/>
+      <c r="S131" s="6"/>
+      <c r="T131" s="6"/>
+      <c r="U131" s="6"/>
+      <c r="V131" s="6"/>
+      <c r="W131" s="6"/>
+      <c r="X131" s="6"/>
+      <c r="Y131" s="6"/>
+      <c r="Z131" s="7"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A132" s="9"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+      <c r="O132" s="10"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10"/>
+      <c r="R132" s="10"/>
+      <c r="S132" s="10"/>
+      <c r="T132" s="10"/>
+      <c r="U132" s="10"/>
+      <c r="V132" s="10"/>
+      <c r="W132" s="10"/>
+      <c r="X132" s="10"/>
+      <c r="Y132" s="10"/>
+      <c r="Z132" s="11"/>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="4"/>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="7"/>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="7"/>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A138" s="8"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="7"/>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="7"/>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="7"/>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A141" s="8"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="7"/>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="7"/>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A143" s="9"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="10"/>
+      <c r="O143" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/4.api-key-authentication.xlsx
+++ b/me/4.create-a-restful-api/4.api-key-authentication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08564B4-EDD3-4543-8895-011AB0B2D68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95605698-2347-47CD-B2A6-E0E475F7E480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create user table" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Authenticate API key 401 status" sheetId="6" r:id="rId6"/>
     <sheet name="bootstrap file and Auth class" sheetId="7" r:id="rId7"/>
     <sheet name="Add a foreign key relationship " sheetId="8" r:id="rId8"/>
+    <sheet name="Retrieve ID of athenticate user" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="281">
   <si>
     <t>Create a table to store user account data</t>
   </si>
@@ -834,6 +835,60 @@
   </si>
   <si>
     <t>Change 構成</t>
+  </si>
+  <si>
+    <t>Retrieve the ID of the authenticated user when authenticating</t>
+  </si>
+  <si>
+    <t>    private $user_id;</t>
+  </si>
+  <si>
+    <t>        $user = $this-&gt;user_gateway-&gt;getByAPIKey($api_key);</t>
+  </si>
+  <si>
+    <t>        if ($user === []) {</t>
+  </si>
+  <si>
+    <t>        $this-&gt;user_id = $user["id"];</t>
+  </si>
+  <si>
+    <t>    public function getUserID(): int</t>
+  </si>
+  <si>
+    <t>        return $this-&gt;user_id;</t>
+  </si>
+  <si>
+    <t>$user_id = $auth-&gt;getUserID();</t>
+  </si>
+  <si>
+    <t>echo json_encode($user_id);</t>
+  </si>
+  <si>
+    <t>Sau khi authentication thành công gọi phương thức getUserID() để lấy user id</t>
+  </si>
+  <si>
+    <t>Bảng user hiện tại có 1 user với id là 1 và giá trị api_key là e02a2b46505f131af535fc3077f8e8e7, mình dùng giá trị này để</t>
+  </si>
+  <si>
+    <t>set request header X-API-Key để gọi api /tasks</t>
+  </si>
+  <si>
+    <t>call api /tasks</t>
+  </si>
+  <si>
+    <t>Đăng ký thêm 1 user mới, pwd cũng là 123456</t>
+  </si>
+  <si>
+    <t>user mới được thêm vào DB với id là 3</t>
+  </si>
+  <si>
+    <t>Dùng api key của user mới để call api /tasks</t>
+  </si>
+  <si>
+    <t>Hiên tại task record đã được link đến user record do đó mình có thể dàng buộc những task của user đã được authentication bởi api key được gửi đến khi get/add/update/delete. Để</t>
+  </si>
+  <si>
+    <t>làm được việc này thì ban đầu dựa vào api key được gửi đến mình sẽ lấy được giá trị id của user đó</t>
   </si>
 </sst>
 </file>
@@ -5003,6 +5058,964 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D6D690-F306-7A44-91C4-0A24ACF69B19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="11944350"/>
+          <a:ext cx="209550" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607A61CF-6770-86E5-9AE6-2283CF0C0127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="8543925"/>
+          <a:ext cx="19050" cy="5038725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A9F263-1930-B157-F463-32B6F1AA37C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="13668375"/>
+          <a:ext cx="314325" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA8FEE5D-C720-6ED6-3670-03528BD13B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="14630400"/>
+          <a:ext cx="9525" cy="7543800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103943</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>47293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9ECA53C-8981-E402-0EEA-C0E3CE164807}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="25584150"/>
+          <a:ext cx="6657143" cy="2657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D7FEB0-1904-3D5F-BD1F-B70FDBCDBD49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="24926925"/>
+          <a:ext cx="885825" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A206C9C5-CBA4-8272-1B94-84D4CD98F6F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1133475" y="24936450"/>
+          <a:ext cx="1647825" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>398798</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>152009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F774F3AC-CBE0-018C-B85B-3914CC71EC54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="29032200"/>
+          <a:ext cx="10019048" cy="3123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2422AF89-2F24-D955-5951-421BB5554F85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="27832050"/>
+          <a:ext cx="123825" cy="3848100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3F26E9-57CD-1EB7-EFC9-08CB8F8ECEA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="27851100"/>
+          <a:ext cx="123825" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>74464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347E1E34-92BA-674E-360E-340C0ECEDF36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714376" y="33251776"/>
+          <a:ext cx="11201400" cy="5684688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>370776</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>133205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E7C3079-9A94-298D-98C9-3E23A92FFFE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="39166800"/>
+          <a:ext cx="5590476" cy="1161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103954</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>9181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFC5B14-6947-9482-6B88-10E0E318ABB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="40881300"/>
+          <a:ext cx="6571429" cy="2752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10750759-CFC6-EA33-A19E-204337055ECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="40224075"/>
+          <a:ext cx="1600200" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3888A1-A64D-EFD4-276A-5FB067EE2E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1266825" y="40919400"/>
+          <a:ext cx="1543050" cy="2524125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>351174</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>66317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00E4F2E-484C-40A2-9F56-219B498E2B73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="44634150"/>
+          <a:ext cx="10009524" cy="2866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3641DDD-43CE-F540-4DF5-3DBE771E589E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5010150" y="43519725"/>
+          <a:ext cx="266700" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39637DD1-10C8-33A5-D834-ACB7FD7D2D18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1171575" y="43510200"/>
+          <a:ext cx="9525" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C687D4-1CE9-D20C-EF4D-3262AA3413E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1333500" y="22879050"/>
+          <a:ext cx="542925" cy="8782050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -27009,8 +28022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4C94D6-B2F3-40EA-9B67-C2490AD9289F}">
   <dimension ref="A2:Z143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30386,4 +31399,4219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F05DCE0-397E-4192-8E6D-D2215DEE2453}">
+  <dimension ref="A2:U251"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="29"/>
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="29"/>
+      <c r="K28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="29"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="8"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="35"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="8"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="8"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="8"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="8"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="7"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="7"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="8"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="7"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="7"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="8"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="7"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="7"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="8"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="7"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="7"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="8"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="7"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="7"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="8"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="7"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="7"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="8"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="7"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="7"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="8"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="7"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="7"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="8"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="7"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="7"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="7"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="7"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="8"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="7"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="7"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="8"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="7"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="7"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="8"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="7"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="7"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="8"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="7"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="7"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="7"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="7"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="8"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="7"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="7"/>
+      <c r="M118" t="s">
+        <v>34</v>
+      </c>
+      <c r="N118" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="35"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="7"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="7"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="7"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="8"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="7"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B123" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="7"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="8"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="7"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="7"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="8"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="7"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B127" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="11"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="12"/>
+      <c r="B131" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="4"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+      <c r="B132" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="7"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="8"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="7"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="B134" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+      <c r="R134" s="6"/>
+      <c r="S134" s="7"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="6"/>
+      <c r="S135" s="7"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="6"/>
+      <c r="S136" s="7"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="7"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="7"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="7"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="7"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="6"/>
+      <c r="S141" s="7"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="7"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="7"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="7"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="7"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="7"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="7"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="7"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="8"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="10"/>
+      <c r="L149" s="10"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="7"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="8"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="7"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="8"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="7"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="4"/>
+      <c r="S152" s="7"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="7"/>
+      <c r="S153" s="7"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="7"/>
+      <c r="S154" s="7"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="7"/>
+      <c r="S155" s="7"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="7"/>
+      <c r="S156" s="7"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="7"/>
+      <c r="S157" s="7"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="7"/>
+      <c r="S158" s="7"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="7"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="7"/>
+      <c r="S160" s="7"/>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="7"/>
+      <c r="S161" s="7"/>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="7"/>
+      <c r="S162" s="7"/>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="7"/>
+      <c r="S163" s="7"/>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="7"/>
+      <c r="S164" s="7"/>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="7"/>
+      <c r="S165" s="7"/>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="7"/>
+      <c r="S166" s="7"/>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="7"/>
+      <c r="S167" s="7"/>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6"/>
+      <c r="N168" s="6"/>
+      <c r="O168" s="6"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="6"/>
+      <c r="R168" s="7"/>
+      <c r="S168" s="7"/>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
+      <c r="M169" s="6"/>
+      <c r="N169" s="6"/>
+      <c r="O169" s="6"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
+      <c r="R169" s="7"/>
+      <c r="S169" s="7"/>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A170" s="8"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="10"/>
+      <c r="L170" s="10"/>
+      <c r="M170" s="10"/>
+      <c r="N170" s="10"/>
+      <c r="O170" s="10"/>
+      <c r="P170" s="10"/>
+      <c r="Q170" s="10"/>
+      <c r="R170" s="11"/>
+      <c r="S170" s="7"/>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A171" s="9"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="10"/>
+      <c r="K171" s="10"/>
+      <c r="L171" s="10"/>
+      <c r="M171" s="10"/>
+      <c r="N171" s="10"/>
+      <c r="O171" s="10"/>
+      <c r="P171" s="10"/>
+      <c r="Q171" s="10"/>
+      <c r="R171" s="10"/>
+      <c r="S171" s="11"/>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A174" s="12"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="3"/>
+      <c r="R174" s="3"/>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3"/>
+      <c r="U174" s="4"/>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A175" s="8"/>
+      <c r="B175" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
+      <c r="Q175" s="3"/>
+      <c r="R175" s="3"/>
+      <c r="S175" s="3"/>
+      <c r="T175" s="4"/>
+      <c r="U175" s="7"/>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6"/>
+      <c r="L176" s="6"/>
+      <c r="M176" s="6"/>
+      <c r="N176" s="6"/>
+      <c r="O176" s="6"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="6"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="6"/>
+      <c r="T176" s="7"/>
+      <c r="U176" s="7"/>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6"/>
+      <c r="M177" s="6"/>
+      <c r="N177" s="6"/>
+      <c r="O177" s="6"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="6"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="6"/>
+      <c r="T177" s="7"/>
+      <c r="U177" s="7"/>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+      <c r="M178" s="6"/>
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="6"/>
+      <c r="R178" s="6"/>
+      <c r="S178" s="6"/>
+      <c r="T178" s="7"/>
+      <c r="U178" s="7"/>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="6"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="6"/>
+      <c r="T179" s="7"/>
+      <c r="U179" s="7"/>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+      <c r="M180" s="6"/>
+      <c r="N180" s="6"/>
+      <c r="O180" s="6"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="6"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="6"/>
+      <c r="T180" s="7"/>
+      <c r="U180" s="7"/>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
+      <c r="M181" s="6"/>
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" s="6"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="6"/>
+      <c r="T181" s="7"/>
+      <c r="U181" s="7"/>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="6"/>
+      <c r="L182" s="6"/>
+      <c r="M182" s="6"/>
+      <c r="N182" s="6"/>
+      <c r="O182" s="6"/>
+      <c r="P182" s="6"/>
+      <c r="Q182" s="6"/>
+      <c r="R182" s="6"/>
+      <c r="S182" s="6"/>
+      <c r="T182" s="7"/>
+      <c r="U182" s="7"/>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6"/>
+      <c r="M183" s="6"/>
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
+      <c r="P183" s="6"/>
+      <c r="Q183" s="6"/>
+      <c r="R183" s="6"/>
+      <c r="S183" s="6"/>
+      <c r="T183" s="7"/>
+      <c r="U183" s="7"/>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6"/>
+      <c r="M184" s="6"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="6"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="6"/>
+      <c r="T184" s="7"/>
+      <c r="U184" s="7"/>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6"/>
+      <c r="M185" s="6"/>
+      <c r="N185" s="6"/>
+      <c r="O185" s="6"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" s="6"/>
+      <c r="R185" s="6"/>
+      <c r="S185" s="6"/>
+      <c r="T185" s="7"/>
+      <c r="U185" s="7"/>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
+      <c r="R186" s="6"/>
+      <c r="S186" s="6"/>
+      <c r="T186" s="7"/>
+      <c r="U186" s="7"/>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+      <c r="K187" s="6"/>
+      <c r="L187" s="6"/>
+      <c r="M187" s="6"/>
+      <c r="N187" s="6"/>
+      <c r="O187" s="6"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" s="6"/>
+      <c r="R187" s="6"/>
+      <c r="S187" s="6"/>
+      <c r="T187" s="7"/>
+      <c r="U187" s="7"/>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="6"/>
+      <c r="L188" s="6"/>
+      <c r="M188" s="6"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="6"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
+      <c r="R188" s="6"/>
+      <c r="S188" s="6"/>
+      <c r="T188" s="7"/>
+      <c r="U188" s="7"/>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="6"/>
+      <c r="L189" s="6"/>
+      <c r="M189" s="6"/>
+      <c r="N189" s="6"/>
+      <c r="O189" s="6"/>
+      <c r="P189" s="6"/>
+      <c r="Q189" s="6"/>
+      <c r="R189" s="6"/>
+      <c r="S189" s="6"/>
+      <c r="T189" s="7"/>
+      <c r="U189" s="7"/>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="6"/>
+      <c r="L190" s="6"/>
+      <c r="M190" s="6"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="6"/>
+      <c r="P190" s="6"/>
+      <c r="Q190" s="6"/>
+      <c r="R190" s="6"/>
+      <c r="S190" s="6"/>
+      <c r="T190" s="7"/>
+      <c r="U190" s="7"/>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6"/>
+      <c r="L191" s="6"/>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="6"/>
+      <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
+      <c r="R191" s="6"/>
+      <c r="S191" s="6"/>
+      <c r="T191" s="7"/>
+      <c r="U191" s="7"/>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="6"/>
+      <c r="L192" s="6"/>
+      <c r="M192" s="6"/>
+      <c r="N192" s="6"/>
+      <c r="O192" s="6"/>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="6"/>
+      <c r="R192" s="6"/>
+      <c r="S192" s="6"/>
+      <c r="T192" s="7"/>
+      <c r="U192" s="7"/>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6"/>
+      <c r="L193" s="6"/>
+      <c r="M193" s="6"/>
+      <c r="N193" s="6"/>
+      <c r="O193" s="6"/>
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
+      <c r="R193" s="6"/>
+      <c r="S193" s="6"/>
+      <c r="T193" s="7"/>
+      <c r="U193" s="7"/>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="6"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
+      <c r="R194" s="6"/>
+      <c r="S194" s="6"/>
+      <c r="T194" s="7"/>
+      <c r="U194" s="7"/>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="6"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
+      <c r="R195" s="6"/>
+      <c r="S195" s="6"/>
+      <c r="T195" s="7"/>
+      <c r="U195" s="7"/>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
+      <c r="R196" s="6"/>
+      <c r="S196" s="6"/>
+      <c r="T196" s="7"/>
+      <c r="U196" s="7"/>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="6"/>
+      <c r="R197" s="6"/>
+      <c r="S197" s="6"/>
+      <c r="T197" s="7"/>
+      <c r="U197" s="7"/>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="6"/>
+      <c r="T198" s="7"/>
+      <c r="U198" s="7"/>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="6"/>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
+      <c r="R199" s="6"/>
+      <c r="S199" s="6"/>
+      <c r="T199" s="7"/>
+      <c r="U199" s="7"/>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="6"/>
+      <c r="L200" s="6"/>
+      <c r="M200" s="6"/>
+      <c r="N200" s="6"/>
+      <c r="O200" s="6"/>
+      <c r="P200" s="6"/>
+      <c r="Q200" s="6"/>
+      <c r="R200" s="6"/>
+      <c r="S200" s="6"/>
+      <c r="T200" s="7"/>
+      <c r="U200" s="7"/>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+      <c r="M201" s="6"/>
+      <c r="N201" s="6"/>
+      <c r="O201" s="6"/>
+      <c r="P201" s="6"/>
+      <c r="Q201" s="6"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="6"/>
+      <c r="T201" s="7"/>
+      <c r="U201" s="7"/>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="M202" s="6"/>
+      <c r="N202" s="6"/>
+      <c r="O202" s="6"/>
+      <c r="P202" s="6"/>
+      <c r="Q202" s="6"/>
+      <c r="R202" s="6"/>
+      <c r="S202" s="6"/>
+      <c r="T202" s="7"/>
+      <c r="U202" s="7"/>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="M203" s="6"/>
+      <c r="N203" s="6"/>
+      <c r="O203" s="6"/>
+      <c r="P203" s="6"/>
+      <c r="Q203" s="6"/>
+      <c r="R203" s="6"/>
+      <c r="S203" s="6"/>
+      <c r="T203" s="7"/>
+      <c r="U203" s="7"/>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="M204" s="6"/>
+      <c r="N204" s="6"/>
+      <c r="O204" s="6"/>
+      <c r="P204" s="6"/>
+      <c r="Q204" s="6"/>
+      <c r="R204" s="6"/>
+      <c r="S204" s="6"/>
+      <c r="T204" s="7"/>
+      <c r="U204" s="7"/>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6"/>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+      <c r="M205" s="6"/>
+      <c r="N205" s="6"/>
+      <c r="O205" s="6"/>
+      <c r="P205" s="6"/>
+      <c r="Q205" s="6"/>
+      <c r="R205" s="6"/>
+      <c r="S205" s="6"/>
+      <c r="T205" s="7"/>
+      <c r="U205" s="7"/>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
+      <c r="K206" s="6"/>
+      <c r="L206" s="6"/>
+      <c r="M206" s="6"/>
+      <c r="N206" s="6"/>
+      <c r="O206" s="6"/>
+      <c r="P206" s="6"/>
+      <c r="Q206" s="6"/>
+      <c r="R206" s="6"/>
+      <c r="S206" s="6"/>
+      <c r="T206" s="7"/>
+      <c r="U206" s="7"/>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="6"/>
+      <c r="K207" s="6"/>
+      <c r="L207" s="6"/>
+      <c r="M207" s="6"/>
+      <c r="N207" s="6"/>
+      <c r="O207" s="6"/>
+      <c r="P207" s="6"/>
+      <c r="Q207" s="6"/>
+      <c r="R207" s="6"/>
+      <c r="S207" s="6"/>
+      <c r="T207" s="7"/>
+      <c r="U207" s="7"/>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="6"/>
+      <c r="J208" s="6"/>
+      <c r="K208" s="6"/>
+      <c r="L208" s="6"/>
+      <c r="M208" s="6"/>
+      <c r="N208" s="6"/>
+      <c r="O208" s="6"/>
+      <c r="P208" s="6"/>
+      <c r="Q208" s="6"/>
+      <c r="R208" s="6"/>
+      <c r="S208" s="6"/>
+      <c r="T208" s="7"/>
+      <c r="U208" s="7"/>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
+      <c r="K209" s="6"/>
+      <c r="L209" s="6"/>
+      <c r="M209" s="6"/>
+      <c r="N209" s="6"/>
+      <c r="O209" s="6"/>
+      <c r="P209" s="6"/>
+      <c r="Q209" s="6"/>
+      <c r="R209" s="6"/>
+      <c r="S209" s="6"/>
+      <c r="T209" s="7"/>
+      <c r="U209" s="7"/>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
+      <c r="K210" s="6"/>
+      <c r="L210" s="6"/>
+      <c r="M210" s="6"/>
+      <c r="N210" s="6"/>
+      <c r="O210" s="6"/>
+      <c r="P210" s="6"/>
+      <c r="Q210" s="6"/>
+      <c r="R210" s="6"/>
+      <c r="S210" s="6"/>
+      <c r="T210" s="7"/>
+      <c r="U210" s="7"/>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="6"/>
+      <c r="L211" s="6"/>
+      <c r="M211" s="6"/>
+      <c r="N211" s="6"/>
+      <c r="O211" s="6"/>
+      <c r="P211" s="6"/>
+      <c r="Q211" s="6"/>
+      <c r="R211" s="6"/>
+      <c r="S211" s="6"/>
+      <c r="T211" s="7"/>
+      <c r="U211" s="7"/>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
+      <c r="K212" s="6"/>
+      <c r="L212" s="6"/>
+      <c r="M212" s="6"/>
+      <c r="N212" s="6"/>
+      <c r="O212" s="6"/>
+      <c r="P212" s="6"/>
+      <c r="Q212" s="6"/>
+      <c r="R212" s="6"/>
+      <c r="S212" s="6"/>
+      <c r="T212" s="7"/>
+      <c r="U212" s="7"/>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+      <c r="I213" s="6"/>
+      <c r="J213" s="6"/>
+      <c r="K213" s="6"/>
+      <c r="L213" s="6"/>
+      <c r="M213" s="6"/>
+      <c r="N213" s="6"/>
+      <c r="O213" s="6"/>
+      <c r="P213" s="6"/>
+      <c r="Q213" s="6"/>
+      <c r="R213" s="6"/>
+      <c r="S213" s="6"/>
+      <c r="T213" s="7"/>
+      <c r="U213" s="7"/>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
+      <c r="I214" s="6"/>
+      <c r="J214" s="6"/>
+      <c r="K214" s="6"/>
+      <c r="L214" s="6"/>
+      <c r="M214" s="6"/>
+      <c r="N214" s="6"/>
+      <c r="O214" s="6"/>
+      <c r="P214" s="6"/>
+      <c r="Q214" s="6"/>
+      <c r="R214" s="6"/>
+      <c r="S214" s="6"/>
+      <c r="T214" s="7"/>
+      <c r="U214" s="7"/>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A215" s="8"/>
+      <c r="B215" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
+      <c r="K215" s="6"/>
+      <c r="L215" s="6"/>
+      <c r="M215" s="6"/>
+      <c r="N215" s="6"/>
+      <c r="O215" s="6"/>
+      <c r="P215" s="6"/>
+      <c r="Q215" s="6"/>
+      <c r="R215" s="6"/>
+      <c r="S215" s="6"/>
+      <c r="T215" s="7"/>
+      <c r="U215" s="7"/>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
+      <c r="M216" s="6"/>
+      <c r="N216" s="6"/>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
+      <c r="Q216" s="6"/>
+      <c r="R216" s="6"/>
+      <c r="S216" s="6"/>
+      <c r="T216" s="7"/>
+      <c r="U216" s="7"/>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
+      <c r="M217" s="6"/>
+      <c r="N217" s="6"/>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
+      <c r="R217" s="6"/>
+      <c r="S217" s="6"/>
+      <c r="T217" s="7"/>
+      <c r="U217" s="7"/>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="6"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
+      <c r="M218" s="6"/>
+      <c r="N218" s="6"/>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
+      <c r="R218" s="6"/>
+      <c r="S218" s="6"/>
+      <c r="T218" s="7"/>
+      <c r="U218" s="7"/>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
+      <c r="M219" s="6"/>
+      <c r="N219" s="6"/>
+      <c r="O219" s="6"/>
+      <c r="P219" s="6"/>
+      <c r="Q219" s="6"/>
+      <c r="R219" s="6"/>
+      <c r="S219" s="6"/>
+      <c r="T219" s="7"/>
+      <c r="U219" s="7"/>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="6"/>
+      <c r="K220" s="6"/>
+      <c r="L220" s="6"/>
+      <c r="M220" s="6"/>
+      <c r="N220" s="6"/>
+      <c r="O220" s="6"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="6"/>
+      <c r="R220" s="6"/>
+      <c r="S220" s="6"/>
+      <c r="T220" s="7"/>
+      <c r="U220" s="7"/>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+      <c r="I221" s="6"/>
+      <c r="J221" s="6"/>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6"/>
+      <c r="M221" s="6"/>
+      <c r="N221" s="6"/>
+      <c r="O221" s="6"/>
+      <c r="P221" s="6"/>
+      <c r="Q221" s="6"/>
+      <c r="R221" s="6"/>
+      <c r="S221" s="6"/>
+      <c r="T221" s="7"/>
+      <c r="U221" s="7"/>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+      <c r="I222" s="6"/>
+      <c r="J222" s="6"/>
+      <c r="K222" s="6"/>
+      <c r="L222" s="6"/>
+      <c r="M222" s="6"/>
+      <c r="N222" s="6"/>
+      <c r="O222" s="6"/>
+      <c r="P222" s="6"/>
+      <c r="Q222" s="6"/>
+      <c r="R222" s="6"/>
+      <c r="S222" s="6"/>
+      <c r="T222" s="7"/>
+      <c r="U222" s="7"/>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+      <c r="I223" s="6"/>
+      <c r="J223" s="6"/>
+      <c r="K223" s="6"/>
+      <c r="L223" s="6"/>
+      <c r="M223" s="6"/>
+      <c r="N223" s="6"/>
+      <c r="O223" s="6"/>
+      <c r="P223" s="6"/>
+      <c r="Q223" s="6"/>
+      <c r="R223" s="6"/>
+      <c r="S223" s="6"/>
+      <c r="T223" s="7"/>
+      <c r="U223" s="7"/>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+      <c r="I224" s="6"/>
+      <c r="J224" s="6"/>
+      <c r="K224" s="6"/>
+      <c r="L224" s="6"/>
+      <c r="M224" s="6"/>
+      <c r="N224" s="6"/>
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
+      <c r="Q224" s="6"/>
+      <c r="R224" s="6"/>
+      <c r="S224" s="6"/>
+      <c r="T224" s="7"/>
+      <c r="U224" s="7"/>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
+      <c r="I225" s="6"/>
+      <c r="J225" s="6"/>
+      <c r="K225" s="6"/>
+      <c r="L225" s="6"/>
+      <c r="M225" s="6"/>
+      <c r="N225" s="6"/>
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
+      <c r="Q225" s="6"/>
+      <c r="R225" s="6"/>
+      <c r="S225" s="6"/>
+      <c r="T225" s="7"/>
+      <c r="U225" s="7"/>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+      <c r="I226" s="6"/>
+      <c r="J226" s="6"/>
+      <c r="K226" s="6"/>
+      <c r="L226" s="6"/>
+      <c r="M226" s="6"/>
+      <c r="N226" s="6"/>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
+      <c r="Q226" s="6"/>
+      <c r="R226" s="6"/>
+      <c r="S226" s="6"/>
+      <c r="T226" s="7"/>
+      <c r="U226" s="7"/>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
+      <c r="I227" s="6"/>
+      <c r="J227" s="6"/>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+      <c r="M227" s="6"/>
+      <c r="N227" s="6"/>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6"/>
+      <c r="Q227" s="6"/>
+      <c r="R227" s="6"/>
+      <c r="S227" s="6"/>
+      <c r="T227" s="7"/>
+      <c r="U227" s="7"/>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+      <c r="I228" s="6"/>
+      <c r="J228" s="6"/>
+      <c r="K228" s="6"/>
+      <c r="L228" s="6"/>
+      <c r="M228" s="6"/>
+      <c r="N228" s="6"/>
+      <c r="O228" s="6"/>
+      <c r="P228" s="6"/>
+      <c r="Q228" s="6"/>
+      <c r="R228" s="6"/>
+      <c r="S228" s="6"/>
+      <c r="T228" s="7"/>
+      <c r="U228" s="7"/>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+      <c r="I229" s="6"/>
+      <c r="J229" s="6"/>
+      <c r="K229" s="6"/>
+      <c r="L229" s="6"/>
+      <c r="M229" s="6"/>
+      <c r="N229" s="6"/>
+      <c r="O229" s="6"/>
+      <c r="P229" s="6"/>
+      <c r="Q229" s="6"/>
+      <c r="R229" s="6"/>
+      <c r="S229" s="6"/>
+      <c r="T229" s="7"/>
+      <c r="U229" s="7"/>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A230" s="8"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
+      <c r="I230" s="6"/>
+      <c r="J230" s="6"/>
+      <c r="K230" s="6"/>
+      <c r="L230" s="6"/>
+      <c r="M230" s="6"/>
+      <c r="N230" s="6"/>
+      <c r="O230" s="6"/>
+      <c r="P230" s="6"/>
+      <c r="Q230" s="6"/>
+      <c r="R230" s="6"/>
+      <c r="S230" s="6"/>
+      <c r="T230" s="7"/>
+      <c r="U230" s="7"/>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A231" s="8"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="10"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="10"/>
+      <c r="K231" s="10"/>
+      <c r="L231" s="10"/>
+      <c r="M231" s="10"/>
+      <c r="N231" s="10"/>
+      <c r="O231" s="10"/>
+      <c r="P231" s="10"/>
+      <c r="Q231" s="10"/>
+      <c r="R231" s="10"/>
+      <c r="S231" s="10"/>
+      <c r="T231" s="11"/>
+      <c r="U231" s="7"/>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A232" s="8"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+      <c r="I232" s="6"/>
+      <c r="J232" s="6"/>
+      <c r="K232" s="6"/>
+      <c r="L232" s="6"/>
+      <c r="M232" s="6"/>
+      <c r="N232" s="6"/>
+      <c r="O232" s="6"/>
+      <c r="P232" s="6"/>
+      <c r="Q232" s="6"/>
+      <c r="R232" s="6"/>
+      <c r="S232" s="6"/>
+      <c r="T232" s="6"/>
+      <c r="U232" s="7"/>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A233" s="8"/>
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+      <c r="I233" s="6"/>
+      <c r="J233" s="6"/>
+      <c r="K233" s="6"/>
+      <c r="L233" s="6"/>
+      <c r="M233" s="6"/>
+      <c r="N233" s="6"/>
+      <c r="O233" s="6"/>
+      <c r="P233" s="6"/>
+      <c r="Q233" s="6"/>
+      <c r="R233" s="6"/>
+      <c r="S233" s="6"/>
+      <c r="T233" s="6"/>
+      <c r="U233" s="7"/>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A234" s="8"/>
+      <c r="B234" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
+      <c r="M234" s="3"/>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3"/>
+      <c r="Q234" s="3"/>
+      <c r="R234" s="4"/>
+      <c r="S234" s="6"/>
+      <c r="T234" s="6"/>
+      <c r="U234" s="7"/>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="6"/>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+      <c r="M235" s="6"/>
+      <c r="N235" s="6"/>
+      <c r="O235" s="6"/>
+      <c r="P235" s="6"/>
+      <c r="Q235" s="6"/>
+      <c r="R235" s="7"/>
+      <c r="S235" s="6"/>
+      <c r="T235" s="6"/>
+      <c r="U235" s="7"/>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+      <c r="M236" s="6"/>
+      <c r="N236" s="6"/>
+      <c r="O236" s="6"/>
+      <c r="P236" s="6"/>
+      <c r="Q236" s="6"/>
+      <c r="R236" s="7"/>
+      <c r="S236" s="6"/>
+      <c r="T236" s="6"/>
+      <c r="U236" s="7"/>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+      <c r="M237" s="6"/>
+      <c r="N237" s="6"/>
+      <c r="O237" s="6"/>
+      <c r="P237" s="6"/>
+      <c r="Q237" s="6"/>
+      <c r="R237" s="7"/>
+      <c r="S237" s="6"/>
+      <c r="T237" s="6"/>
+      <c r="U237" s="7"/>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+      <c r="M238" s="6"/>
+      <c r="N238" s="6"/>
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
+      <c r="Q238" s="6"/>
+      <c r="R238" s="7"/>
+      <c r="S238" s="6"/>
+      <c r="T238" s="6"/>
+      <c r="U238" s="7"/>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+      <c r="M239" s="6"/>
+      <c r="N239" s="6"/>
+      <c r="O239" s="6"/>
+      <c r="P239" s="6"/>
+      <c r="Q239" s="6"/>
+      <c r="R239" s="7"/>
+      <c r="S239" s="6"/>
+      <c r="T239" s="6"/>
+      <c r="U239" s="7"/>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A240" s="8"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+      <c r="M240" s="6"/>
+      <c r="N240" s="6"/>
+      <c r="O240" s="6"/>
+      <c r="P240" s="6"/>
+      <c r="Q240" s="6"/>
+      <c r="R240" s="7"/>
+      <c r="S240" s="6"/>
+      <c r="T240" s="6"/>
+      <c r="U240" s="7"/>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+      <c r="M241" s="6"/>
+      <c r="N241" s="6"/>
+      <c r="O241" s="6"/>
+      <c r="P241" s="6"/>
+      <c r="Q241" s="6"/>
+      <c r="R241" s="7"/>
+      <c r="S241" s="6"/>
+      <c r="T241" s="6"/>
+      <c r="U241" s="7"/>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+      <c r="I242" s="6"/>
+      <c r="J242" s="6"/>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+      <c r="M242" s="6"/>
+      <c r="N242" s="6"/>
+      <c r="O242" s="6"/>
+      <c r="P242" s="6"/>
+      <c r="Q242" s="6"/>
+      <c r="R242" s="7"/>
+      <c r="S242" s="6"/>
+      <c r="T242" s="6"/>
+      <c r="U242" s="7"/>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6"/>
+      <c r="K243" s="6"/>
+      <c r="L243" s="6"/>
+      <c r="M243" s="6"/>
+      <c r="N243" s="6"/>
+      <c r="O243" s="6"/>
+      <c r="P243" s="6"/>
+      <c r="Q243" s="6"/>
+      <c r="R243" s="7"/>
+      <c r="S243" s="6"/>
+      <c r="T243" s="6"/>
+      <c r="U243" s="7"/>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A244" s="8"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+      <c r="I244" s="6"/>
+      <c r="J244" s="6"/>
+      <c r="K244" s="6"/>
+      <c r="L244" s="6"/>
+      <c r="M244" s="6"/>
+      <c r="N244" s="6"/>
+      <c r="O244" s="6"/>
+      <c r="P244" s="6"/>
+      <c r="Q244" s="6"/>
+      <c r="R244" s="7"/>
+      <c r="S244" s="6"/>
+      <c r="T244" s="6"/>
+      <c r="U244" s="7"/>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6"/>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+      <c r="M245" s="6"/>
+      <c r="N245" s="6"/>
+      <c r="O245" s="6"/>
+      <c r="P245" s="6"/>
+      <c r="Q245" s="6"/>
+      <c r="R245" s="7"/>
+      <c r="S245" s="6"/>
+      <c r="T245" s="6"/>
+      <c r="U245" s="7"/>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6"/>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+      <c r="M246" s="6"/>
+      <c r="N246" s="6"/>
+      <c r="O246" s="6"/>
+      <c r="P246" s="6"/>
+      <c r="Q246" s="6"/>
+      <c r="R246" s="7"/>
+      <c r="S246" s="6"/>
+      <c r="T246" s="6"/>
+      <c r="U246" s="7"/>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A247" s="8"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="6"/>
+      <c r="J247" s="6"/>
+      <c r="K247" s="6"/>
+      <c r="L247" s="6"/>
+      <c r="M247" s="6"/>
+      <c r="N247" s="6"/>
+      <c r="O247" s="6"/>
+      <c r="P247" s="6"/>
+      <c r="Q247" s="6"/>
+      <c r="R247" s="7"/>
+      <c r="S247" s="6"/>
+      <c r="T247" s="6"/>
+      <c r="U247" s="7"/>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A248" s="8"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+      <c r="I248" s="6"/>
+      <c r="J248" s="6"/>
+      <c r="K248" s="6"/>
+      <c r="L248" s="6"/>
+      <c r="M248" s="6"/>
+      <c r="N248" s="6"/>
+      <c r="O248" s="6"/>
+      <c r="P248" s="6"/>
+      <c r="Q248" s="6"/>
+      <c r="R248" s="7"/>
+      <c r="S248" s="6"/>
+      <c r="T248" s="6"/>
+      <c r="U248" s="7"/>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A249" s="8"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6"/>
+      <c r="K249" s="6"/>
+      <c r="L249" s="6"/>
+      <c r="M249" s="6"/>
+      <c r="N249" s="6"/>
+      <c r="O249" s="6"/>
+      <c r="P249" s="6"/>
+      <c r="Q249" s="6"/>
+      <c r="R249" s="7"/>
+      <c r="S249" s="6"/>
+      <c r="T249" s="6"/>
+      <c r="U249" s="7"/>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A250" s="8"/>
+      <c r="B250" s="9"/>
+      <c r="C250" s="10"/>
+      <c r="D250" s="10"/>
+      <c r="E250" s="10"/>
+      <c r="F250" s="10"/>
+      <c r="G250" s="10"/>
+      <c r="H250" s="10"/>
+      <c r="I250" s="10"/>
+      <c r="J250" s="10"/>
+      <c r="K250" s="10"/>
+      <c r="L250" s="10"/>
+      <c r="M250" s="10"/>
+      <c r="N250" s="10"/>
+      <c r="O250" s="10"/>
+      <c r="P250" s="10"/>
+      <c r="Q250" s="10"/>
+      <c r="R250" s="11"/>
+      <c r="S250" s="6"/>
+      <c r="T250" s="6"/>
+      <c r="U250" s="7"/>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A251" s="9"/>
+      <c r="B251" s="10"/>
+      <c r="C251" s="10"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="10"/>
+      <c r="F251" s="10"/>
+      <c r="G251" s="10"/>
+      <c r="H251" s="10"/>
+      <c r="I251" s="10"/>
+      <c r="J251" s="10"/>
+      <c r="K251" s="10"/>
+      <c r="L251" s="10"/>
+      <c r="M251" s="10"/>
+      <c r="N251" s="10"/>
+      <c r="O251" s="10"/>
+      <c r="P251" s="10"/>
+      <c r="Q251" s="10"/>
+      <c r="R251" s="10"/>
+      <c r="S251" s="10"/>
+      <c r="T251" s="10"/>
+      <c r="U251" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/4.api-key-authentication.xlsx
+++ b/me/4.create-a-restful-api/4.api-key-authentication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95605698-2347-47CD-B2A6-E0E475F7E480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53071DB-33C0-41E0-AB49-EDF8948BAC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create user table" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="bootstrap file and Auth class" sheetId="7" r:id="rId7"/>
     <sheet name="Add a foreign key relationship " sheetId="8" r:id="rId8"/>
     <sheet name="Retrieve ID of athenticate user" sheetId="9" r:id="rId9"/>
+    <sheet name="Restrict auth user's tasks" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="415">
   <si>
     <t>Create a table to store user account data</t>
   </si>
@@ -890,6 +891,518 @@
   <si>
     <t>làm được việc này thì ban đầu dựa vào api key được gửi đến mình sẽ lấy được giá trị id của user đó</t>
   </si>
+  <si>
+    <t>Restrict the tasks index endpoint to only show the authenticated user's tasks</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\src\TaskGateway.php</t>
+  </si>
+  <si>
+    <t>class TaskGateway</t>
+  </si>
+  <si>
+    <t>                FROM task</t>
+  </si>
+  <si>
+    <t>                WHERE user_id = :user_id</t>
+  </si>
+  <si>
+    <t>                ORDER BY name";</t>
+  </si>
+  <si>
+    <t>        $stmt-&gt;bindValue(":user_id", $user_id, PDO::PARAM_INT);</t>
+  </si>
+  <si>
+    <t>        $data = [];</t>
+  </si>
+  <si>
+    <t>        while ($row = $stmt-&gt;fetch(PDO::FETCH_ASSOC)) {</t>
+  </si>
+  <si>
+    <t>            $row['is_completed'] = (bool) $row['is_completed'];</t>
+  </si>
+  <si>
+    <t>            $data[] = $row;</t>
+  </si>
+  <si>
+    <t>    public function get(string $id): array</t>
+  </si>
+  <si>
+    <t>                WHERE id = :id";</t>
+  </si>
+  <si>
+    <t>        $stmt-&gt;bindValue(":id", $id, PDO::PARAM_INT);</t>
+  </si>
+  <si>
+    <t>        if ($data !== false) {</t>
+  </si>
+  <si>
+    <t>            $data['is_completed'] = (bool) $data['is_completed'];</t>
+  </si>
+  <si>
+    <t>        } else {</t>
+  </si>
+  <si>
+    <t>    public function create(array $data): string</t>
+  </si>
+  <si>
+    <t>        $sql = "INSERT INTO task (name, priority, is_completed)</t>
+  </si>
+  <si>
+    <t>                VALUES (:name, :priority, :is_completed)";</t>
+  </si>
+  <si>
+    <t>        $stmt-&gt;bindValue(":name", $data["name"], PDO::PARAM_STR);</t>
+  </si>
+  <si>
+    <t>        if (empty($data["priority"])) {</t>
+  </si>
+  <si>
+    <t>            $stmt-&gt;bindValue(":priority", null, PDO::PARAM_NULL);</t>
+  </si>
+  <si>
+    <t>            $stmt-&gt;bindValue(":priority", $data["priority"], PDO::PARAM_INT);</t>
+  </si>
+  <si>
+    <t>        $stmt-&gt;bindValue(</t>
+  </si>
+  <si>
+    <t>            ":is_completed",</t>
+  </si>
+  <si>
+    <t>            $data["is_completed"] ?? false,</t>
+  </si>
+  <si>
+    <t>            PDO::PARAM_BOOL</t>
+  </si>
+  <si>
+    <t>        );</t>
+  </si>
+  <si>
+    <t>        return $this-&gt;conn-&gt;lastInsertId();</t>
+  </si>
+  <si>
+    <t>    public function update(string $id, array $data): int</t>
+  </si>
+  <si>
+    <t>        $fields = [];</t>
+  </si>
+  <si>
+    <t>        if (!empty($data["name"])) {</t>
+  </si>
+  <si>
+    <t>            $fields["name"] = [</t>
+  </si>
+  <si>
+    <t>                $data["name"],</t>
+  </si>
+  <si>
+    <t>                PDO::PARAM_STR</t>
+  </si>
+  <si>
+    <t>            ];</t>
+  </si>
+  <si>
+    <t>        if (array_key_exists("priority", $data)) {</t>
+  </si>
+  <si>
+    <t>            $fields["priority"] = [</t>
+  </si>
+  <si>
+    <t>                $data["priority"],</t>
+  </si>
+  <si>
+    <t>                $data["priority"] === null ? PDO::PARAM_NULL : PDO::PARAM_INT</t>
+  </si>
+  <si>
+    <t>        if (array_key_exists("is_completed", $data)) {</t>
+  </si>
+  <si>
+    <t>            $fields["is_completed"] = [</t>
+  </si>
+  <si>
+    <t>                $data["is_completed"],</t>
+  </si>
+  <si>
+    <t>                PDO::PARAM_BOOL</t>
+  </si>
+  <si>
+    <t>        if (empty($fields)) {</t>
+  </si>
+  <si>
+    <t>            return 0;</t>
+  </si>
+  <si>
+    <t>            $sets = array_map(function ($value) {</t>
+  </si>
+  <si>
+    <t>                return "$value = :$value";</t>
+  </si>
+  <si>
+    <t>            }, array_keys($fields));</t>
+  </si>
+  <si>
+    <t>            $sql = "UPDATE task"</t>
+  </si>
+  <si>
+    <t>                . " SET " . implode(", ", $sets)</t>
+  </si>
+  <si>
+    <t>                . " WHERE id = :id";</t>
+  </si>
+  <si>
+    <t>            $stmt = $this-&gt;conn-&gt;prepare($sql);</t>
+  </si>
+  <si>
+    <t>            $stmt-&gt;bindValue(":id", $id, PDO::PARAM_INT);</t>
+  </si>
+  <si>
+    <t>            foreach ($fields as $name =&gt; $values) {</t>
+  </si>
+  <si>
+    <t>                $stmt-&gt;bindValue(":$name", $values[0], $values[1]);</t>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <t>            $stmt-&gt;execute();</t>
+  </si>
+  <si>
+    <t>            return $stmt-&gt;rowCount();</t>
+  </si>
+  <si>
+    <t>    public function delete(string $id): int</t>
+  </si>
+  <si>
+    <t>        $sql = "DELETE FROM task</t>
+  </si>
+  <si>
+    <t>        return $stmt-&gt;rowCount();</t>
+  </si>
+  <si>
+    <r>
+      <t>    public function getAll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ForUser(int $user_id)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        $stmt = $this-&gt;conn-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prepare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>($sql);</t>
+    </r>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\src\TaskController.php</t>
+  </si>
+  <si>
+    <t>class TaskController</t>
+  </si>
+  <si>
+    <t>    private $gateway;</t>
+  </si>
+  <si>
+    <t>        $this-&gt;gateway = $gateway;</t>
+  </si>
+  <si>
+    <t>        $this-&gt;user_id = $user_id;</t>
+  </si>
+  <si>
+    <t>    public function processRequest(string $method, ?string $id): void</t>
+  </si>
+  <si>
+    <t>        if ($id === null) {</t>
+  </si>
+  <si>
+    <t>            if ($method == "GET") {</t>
+  </si>
+  <si>
+    <t>            } elseif ($method == "POST") {</t>
+  </si>
+  <si>
+    <t>                $data = (array) json_decode(file_get_contents("php://input"), true);</t>
+  </si>
+  <si>
+    <t>                $errors = $this-&gt;getValidationErrors($data);</t>
+  </si>
+  <si>
+    <t>                if (!empty($errors)) {</t>
+  </si>
+  <si>
+    <t>                    $this-&gt;respondUnprocessableEntity($errors);</t>
+  </si>
+  <si>
+    <t>                    return;</t>
+  </si>
+  <si>
+    <t>                }</t>
+  </si>
+  <si>
+    <t>                $id = $this-&gt;gateway-&gt;create($data);</t>
+  </si>
+  <si>
+    <t>                $this-&gt;respondCreated($id);</t>
+  </si>
+  <si>
+    <t>            } else {</t>
+  </si>
+  <si>
+    <t>                $this-&gt;respondMethodNotAllowed("GET, POST");</t>
+  </si>
+  <si>
+    <t>            $task = $this-&gt;gateway-&gt;get($id);</t>
+  </si>
+  <si>
+    <t>            if ($task === []) {</t>
+  </si>
+  <si>
+    <t>                $this-&gt;respondNotFound($id);</t>
+  </si>
+  <si>
+    <t>                return;</t>
+  </si>
+  <si>
+    <t>            switch ($method) {</t>
+  </si>
+  <si>
+    <t>                case "GET":</t>
+  </si>
+  <si>
+    <t>                    echo json_encode($task);</t>
+  </si>
+  <si>
+    <t>                    break;</t>
+  </si>
+  <si>
+    <t>                case "PATCH":</t>
+  </si>
+  <si>
+    <t>                    $data = (array) json_decode(file_get_contents("php://input"), true);</t>
+  </si>
+  <si>
+    <t>                    $errors = $this-&gt;getValidationErrors($data, false);</t>
+  </si>
+  <si>
+    <t>                    if (!empty($errors)) {</t>
+  </si>
+  <si>
+    <t>                        $this-&gt;respondUnprocessableEntity($errors);</t>
+  </si>
+  <si>
+    <t>                        return;</t>
+  </si>
+  <si>
+    <t>                    }</t>
+  </si>
+  <si>
+    <t>                    $rows = $this-&gt;gateway-&gt;update($id, $data);</t>
+  </si>
+  <si>
+    <t>                    echo json_encode(["message" =&gt; "Task updated", "rows" =&gt; $rows]);</t>
+  </si>
+  <si>
+    <t>                case "DELETE":</t>
+  </si>
+  <si>
+    <t>                    $rows = $this-&gt;gateway-&gt;delete($id);</t>
+  </si>
+  <si>
+    <t>                    echo json_encode(["message" =&gt; "Task deleted", "rows" =&gt; $rows]);</t>
+  </si>
+  <si>
+    <t>                default:</t>
+  </si>
+  <si>
+    <t>                    $this-&gt;respondMethodNotAllowed("GET, PATCH, DELETE");</t>
+  </si>
+  <si>
+    <t>    private function respondUnprocessableEntity(array $errors): void</t>
+  </si>
+  <si>
+    <t>        http_response_code(422);</t>
+  </si>
+  <si>
+    <t>        echo json_encode(["errors" =&gt; $errors]);</t>
+  </si>
+  <si>
+    <t>    private function respondMethodNotAllowed(string $allowed_methods): void</t>
+  </si>
+  <si>
+    <t>        http_response_code(405);</t>
+  </si>
+  <si>
+    <t>        header("Allow: $allowed_methods");</t>
+  </si>
+  <si>
+    <t>    private function respondNotFound(string $id): void</t>
+  </si>
+  <si>
+    <t>        http_response_code(404);</t>
+  </si>
+  <si>
+    <t>        echo json_encode(["message" =&gt; "Task with ID $id not found"]);</t>
+  </si>
+  <si>
+    <t>    private function respondCreated(string $id): void</t>
+  </si>
+  <si>
+    <t>        http_response_code(201);</t>
+  </si>
+  <si>
+    <t>        echo json_encode(["message" =&gt; "Task created", "id" =&gt; $id]);</t>
+  </si>
+  <si>
+    <t>    private function getValidationErrors(array $data, bool $is_new = true): array</t>
+  </si>
+  <si>
+    <t>        $errors = [];</t>
+  </si>
+  <si>
+    <t>        if ($is_new &amp;&amp; empty($data["name"])) {</t>
+  </si>
+  <si>
+    <t>            $errors[] = "name is required";</t>
+  </si>
+  <si>
+    <t>        if (!empty($data["priority"])) {</t>
+  </si>
+  <si>
+    <t>            if (filter_var($data["priority"], FILTER_VALIDATE_INT) === false) {</t>
+  </si>
+  <si>
+    <t>                $errors[] = "priority must be an integer";</t>
+  </si>
+  <si>
+    <t>        return $errors;</t>
+  </si>
+  <si>
+    <r>
+      <t>    public function __construct(TaskGateway $gateway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, int $user_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                echo json_encode($this-&gt;gateway-&gt;getAll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ForUser($this-&gt;user_id)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>$controller = new TaskController($task_gateway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, $user_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>Mình đã lấy được giá trị id trong bảng user dựa vào giá trị key api được truyền đến, giá vào giá trị này mình có thể ràng buộc các task trong bảng task dựa vào user_id</t>
+  </si>
+  <si>
+    <t>Bảng user đang có user với id là 1 và 3</t>
+  </si>
+  <si>
+    <t>Tất cả các task trong bảng task đều đang có user_id=1</t>
+  </si>
+  <si>
+    <t>Sử dụng api key của user id = 1 để call api /tasks, kết quả trả về ta nhận được danh sách tất cả các task trong bảng task</t>
+  </si>
+  <si>
+    <t>Ngược lại sử dụng api key của user id = 1 để call api /tasks, kết quả trả về ta nhận được danh sách rỗng nghĩa là ko get được bất cứ task nào</t>
+  </si>
 </sst>
 </file>
 
@@ -1111,7 +1624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1157,6 +1670,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1315,6 +1829,637 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>360324</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>37436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985272CF-700A-FFDF-0372-A9289EE8BDFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="64827150"/>
+          <a:ext cx="13009524" cy="5314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF9ED35-CFE3-1C51-B6E0-ED40F4560292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4048125" y="68799075"/>
+          <a:ext cx="16106775" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>255549</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>27934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A96E4C-E7C6-28AA-595C-288C8105B577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753225" y="7858125"/>
+          <a:ext cx="13009524" cy="5123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>303178</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>37507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC18187E-0378-B6DC-ACE3-2E0196BFF399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="38728650"/>
+          <a:ext cx="12971428" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD304EE9-BE7F-6D35-B710-16C60DA89B0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="9896475"/>
+          <a:ext cx="1371600" cy="32261175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10058F54-1280-A04D-CEA4-967B8F54048E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3657600" y="39985950"/>
+          <a:ext cx="409575" cy="29813250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>151561</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>28173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3204F1-20E5-7DA0-B2A8-3E47F41EBCED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="71294625"/>
+          <a:ext cx="6714286" cy="3219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>446874</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>56674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B905DB3B-198D-681E-3511-EEC07D091062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="75495150"/>
+          <a:ext cx="6409524" cy="3809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>341646</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>161248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032EE136-5528-9B69-CF49-2DBEF07AF0A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="80086200"/>
+          <a:ext cx="10028571" cy="5419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABD868F-E8A7-537D-EDDB-5605986A28E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4352925" y="74028300"/>
+          <a:ext cx="600075" cy="7277100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>453</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>379742</xdr:colOff>
+      <xdr:row>469</xdr:row>
+      <xdr:rowOff>18679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0ED068-2B1C-D650-420C-67726359A6C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="86391750"/>
+          <a:ext cx="10066667" cy="2971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F5DB92-37F4-0039-8BE9-44752ED25B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4438650" y="74180700"/>
+          <a:ext cx="714375" cy="13468350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>467</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D7A356-616B-AA41-0EB7-552F95B6194A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1285875" y="86258400"/>
+          <a:ext cx="5114925" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7335,6 +8480,7714 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872D303F-9D02-481D-96AC-88DF200E8ED1}">
+  <dimension ref="A2:AJ470"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="29"/>
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="29"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="29"/>
+      <c r="K31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="29"/>
+      <c r="K32" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="29"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="4"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="7"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="7"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="7"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="7"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="7"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="7"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="7"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="7"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="7"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="7"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="7"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="7"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="7"/>
+    </row>
+    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="7"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="7"/>
+    </row>
+    <row r="50" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="7"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="7"/>
+    </row>
+    <row r="51" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B51" s="8"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="7"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="7"/>
+    </row>
+    <row r="52" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="7"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="7"/>
+    </row>
+    <row r="53" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="7"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="7"/>
+    </row>
+    <row r="54" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="7"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="7"/>
+    </row>
+    <row r="55" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="7"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="7"/>
+    </row>
+    <row r="56" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B56" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="7"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="7"/>
+    </row>
+    <row r="57" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="7"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="7"/>
+    </row>
+    <row r="58" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="7"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="7"/>
+    </row>
+    <row r="59" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="7"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="7"/>
+    </row>
+    <row r="60" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="7"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="7"/>
+    </row>
+    <row r="61" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B61" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="7"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="7"/>
+    </row>
+    <row r="62" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B62" s="35"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="7"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
+      <c r="AF62" s="6"/>
+      <c r="AG62" s="7"/>
+    </row>
+    <row r="63" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B63" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="7"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="6"/>
+      <c r="AG63" s="7"/>
+    </row>
+    <row r="64" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="7"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="7"/>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="7"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="7"/>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B66" s="8"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="7"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="7"/>
+    </row>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="7"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="7"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B68" s="8"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="7"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="6"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="6"/>
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="6"/>
+      <c r="AF68" s="6"/>
+      <c r="AG68" s="7"/>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="7"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
+      <c r="AG69" s="11"/>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B73" s="8"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B80" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="8"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="8"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="7"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="8"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="8"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="7"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="7"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="7"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="7"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="7"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="7"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="8"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="7"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="8"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="7"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="7"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="7"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="7"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="8"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="8"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="8"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="7"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="7"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="8"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="7"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="7"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="8"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="7"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="7"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="8"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="7"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="7"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="8"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="8"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="7"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="7"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="8"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="7"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="7"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="7"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="7"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="8"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="7"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="7"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="8"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="7"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="7"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="7"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="7"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="8"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="7"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="7"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="8"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="7"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="7"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="7"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="7"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="7"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="7"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="8"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="7"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="7"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="8"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="7"/>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="7"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="7"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="7"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="7"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="7"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="8"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="7"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="7"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="8"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="7"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="7"/>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="7"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="8"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="7"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="7"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="8"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="7"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="7"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="7"/>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="8"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="7"/>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="7"/>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="7"/>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="7"/>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="8"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="7"/>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="7"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="8"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="7"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="7"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="8"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="7"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="7"/>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="8"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="7"/>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="7"/>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="7"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="8"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="7"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="7"/>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="8"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="7"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="7"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="7"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="7"/>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="8"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="7"/>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B186" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="7"/>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="7"/>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B188" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="7"/>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B189" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="7"/>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B190" s="8"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="7"/>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B191" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="7"/>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B192" s="8"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="7"/>
+    </row>
+    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B193" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="7"/>
+    </row>
+    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B194" s="8"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="7"/>
+    </row>
+    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B195" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="7"/>
+    </row>
+    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B196" s="8"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="7"/>
+    </row>
+    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B197" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="7"/>
+    </row>
+    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B198" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="7"/>
+    </row>
+    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B199" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="11"/>
+    </row>
+    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B203" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="4"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
+      <c r="Q203" s="3"/>
+      <c r="R203" s="3"/>
+      <c r="S203" s="3"/>
+      <c r="T203" s="4"/>
+      <c r="U203" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="V203" s="3"/>
+      <c r="W203" s="3"/>
+      <c r="X203" s="3"/>
+      <c r="Y203" s="3"/>
+      <c r="Z203" s="3"/>
+      <c r="AA203" s="3"/>
+      <c r="AB203" s="3"/>
+      <c r="AC203" s="3"/>
+      <c r="AD203" s="3"/>
+      <c r="AE203" s="3"/>
+      <c r="AF203" s="3"/>
+      <c r="AG203" s="4"/>
+    </row>
+    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B204" s="8"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="7"/>
+      <c r="L204" s="8"/>
+      <c r="M204" s="6"/>
+      <c r="N204" s="6"/>
+      <c r="O204" s="6"/>
+      <c r="P204" s="6"/>
+      <c r="Q204" s="6"/>
+      <c r="R204" s="6"/>
+      <c r="S204" s="6"/>
+      <c r="T204" s="7"/>
+      <c r="U204" s="8"/>
+      <c r="V204" s="6"/>
+      <c r="W204" s="6"/>
+      <c r="X204" s="6"/>
+      <c r="Y204" s="6"/>
+      <c r="Z204" s="6"/>
+      <c r="AA204" s="6"/>
+      <c r="AB204" s="6"/>
+      <c r="AC204" s="6"/>
+      <c r="AD204" s="6"/>
+      <c r="AE204" s="6"/>
+      <c r="AF204" s="6"/>
+      <c r="AG204" s="7"/>
+    </row>
+    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B205" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="7"/>
+      <c r="L205" s="8"/>
+      <c r="M205" s="6"/>
+      <c r="N205" s="6"/>
+      <c r="O205" s="6"/>
+      <c r="P205" s="6"/>
+      <c r="Q205" s="6"/>
+      <c r="R205" s="6"/>
+      <c r="S205" s="6"/>
+      <c r="T205" s="7"/>
+      <c r="U205" s="8"/>
+      <c r="V205" s="6"/>
+      <c r="W205" s="6"/>
+      <c r="X205" s="6"/>
+      <c r="Y205" s="6"/>
+      <c r="Z205" s="6"/>
+      <c r="AA205" s="6"/>
+      <c r="AB205" s="6"/>
+      <c r="AC205" s="6"/>
+      <c r="AD205" s="6"/>
+      <c r="AE205" s="6"/>
+      <c r="AF205" s="6"/>
+      <c r="AG205" s="7"/>
+    </row>
+    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B206" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="7"/>
+      <c r="L206" s="8"/>
+      <c r="M206" s="6"/>
+      <c r="N206" s="6"/>
+      <c r="O206" s="6"/>
+      <c r="P206" s="6"/>
+      <c r="Q206" s="6"/>
+      <c r="R206" s="6"/>
+      <c r="S206" s="6"/>
+      <c r="T206" s="7"/>
+      <c r="U206" s="8"/>
+      <c r="V206" s="6"/>
+      <c r="W206" s="6"/>
+      <c r="X206" s="6"/>
+      <c r="Y206" s="6"/>
+      <c r="Z206" s="6"/>
+      <c r="AA206" s="6"/>
+      <c r="AB206" s="6"/>
+      <c r="AC206" s="6"/>
+      <c r="AD206" s="6"/>
+      <c r="AE206" s="6"/>
+      <c r="AF206" s="6"/>
+      <c r="AG206" s="7"/>
+    </row>
+    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B207" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="7"/>
+      <c r="L207" s="8"/>
+      <c r="M207" s="6"/>
+      <c r="N207" s="6"/>
+      <c r="O207" s="6"/>
+      <c r="P207" s="6"/>
+      <c r="Q207" s="6"/>
+      <c r="R207" s="6"/>
+      <c r="S207" s="6"/>
+      <c r="T207" s="7"/>
+      <c r="U207" s="8"/>
+      <c r="V207" s="6"/>
+      <c r="W207" s="6"/>
+      <c r="X207" s="6"/>
+      <c r="Y207" s="6"/>
+      <c r="Z207" s="6"/>
+      <c r="AA207" s="6"/>
+      <c r="AB207" s="6"/>
+      <c r="AC207" s="6"/>
+      <c r="AD207" s="6"/>
+      <c r="AE207" s="6"/>
+      <c r="AF207" s="6"/>
+      <c r="AG207" s="7"/>
+    </row>
+    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B208" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="7"/>
+      <c r="L208" s="8"/>
+      <c r="M208" s="6"/>
+      <c r="N208" s="6"/>
+      <c r="O208" s="6"/>
+      <c r="P208" s="6"/>
+      <c r="Q208" s="6"/>
+      <c r="R208" s="6"/>
+      <c r="S208" s="6"/>
+      <c r="T208" s="7"/>
+      <c r="U208" s="8"/>
+      <c r="V208" s="6"/>
+      <c r="W208" s="6"/>
+      <c r="X208" s="6"/>
+      <c r="Y208" s="6"/>
+      <c r="Z208" s="6"/>
+      <c r="AA208" s="6"/>
+      <c r="AB208" s="6"/>
+      <c r="AC208" s="6"/>
+      <c r="AD208" s="6"/>
+      <c r="AE208" s="6"/>
+      <c r="AF208" s="6"/>
+      <c r="AG208" s="7"/>
+    </row>
+    <row r="209" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B209" s="8"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="7"/>
+      <c r="L209" s="8"/>
+      <c r="M209" s="6"/>
+      <c r="N209" s="6"/>
+      <c r="O209" s="6"/>
+      <c r="P209" s="6"/>
+      <c r="Q209" s="6"/>
+      <c r="R209" s="6"/>
+      <c r="S209" s="6"/>
+      <c r="T209" s="7"/>
+      <c r="U209" s="8"/>
+      <c r="V209" s="6"/>
+      <c r="W209" s="6"/>
+      <c r="X209" s="6"/>
+      <c r="Y209" s="6"/>
+      <c r="Z209" s="6"/>
+      <c r="AA209" s="6"/>
+      <c r="AB209" s="6"/>
+      <c r="AC209" s="6"/>
+      <c r="AD209" s="6"/>
+      <c r="AE209" s="6"/>
+      <c r="AF209" s="6"/>
+      <c r="AG209" s="7"/>
+    </row>
+    <row r="210" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B210" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="7"/>
+      <c r="L210" s="8"/>
+      <c r="M210" s="6"/>
+      <c r="N210" s="6"/>
+      <c r="O210" s="6"/>
+      <c r="P210" s="6"/>
+      <c r="Q210" s="6"/>
+      <c r="R210" s="6"/>
+      <c r="S210" s="6"/>
+      <c r="T210" s="7"/>
+      <c r="U210" s="8"/>
+      <c r="V210" s="6"/>
+      <c r="W210" s="6"/>
+      <c r="X210" s="6"/>
+      <c r="Y210" s="6"/>
+      <c r="Z210" s="6"/>
+      <c r="AA210" s="6"/>
+      <c r="AB210" s="6"/>
+      <c r="AC210" s="6"/>
+      <c r="AD210" s="6"/>
+      <c r="AE210" s="6"/>
+      <c r="AF210" s="6"/>
+      <c r="AG210" s="7"/>
+    </row>
+    <row r="211" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B211" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="7"/>
+      <c r="L211" s="8"/>
+      <c r="M211" s="6"/>
+      <c r="N211" s="6"/>
+      <c r="O211" s="6"/>
+      <c r="P211" s="6"/>
+      <c r="Q211" s="6"/>
+      <c r="R211" s="6"/>
+      <c r="S211" s="6"/>
+      <c r="T211" s="7"/>
+      <c r="U211" s="8"/>
+      <c r="V211" s="6"/>
+      <c r="W211" s="6"/>
+      <c r="X211" s="6"/>
+      <c r="Y211" s="6"/>
+      <c r="Z211" s="6"/>
+      <c r="AA211" s="6"/>
+      <c r="AB211" s="6"/>
+      <c r="AC211" s="6"/>
+      <c r="AD211" s="6"/>
+      <c r="AE211" s="6"/>
+      <c r="AF211" s="6"/>
+      <c r="AG211" s="7"/>
+    </row>
+    <row r="212" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B212" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="7"/>
+      <c r="L212" s="8"/>
+      <c r="M212" s="6"/>
+      <c r="N212" s="6"/>
+      <c r="O212" s="6"/>
+      <c r="P212" s="6"/>
+      <c r="Q212" s="6"/>
+      <c r="R212" s="6"/>
+      <c r="S212" s="6"/>
+      <c r="T212" s="7"/>
+      <c r="U212" s="8"/>
+      <c r="V212" s="6"/>
+      <c r="W212" s="6"/>
+      <c r="X212" s="6"/>
+      <c r="Y212" s="6"/>
+      <c r="Z212" s="6"/>
+      <c r="AA212" s="6"/>
+      <c r="AB212" s="6"/>
+      <c r="AC212" s="6"/>
+      <c r="AD212" s="6"/>
+      <c r="AE212" s="6"/>
+      <c r="AF212" s="6"/>
+      <c r="AG212" s="7"/>
+    </row>
+    <row r="213" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B213" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+      <c r="I213" s="7"/>
+      <c r="L213" s="8"/>
+      <c r="M213" s="6"/>
+      <c r="N213" s="6"/>
+      <c r="O213" s="6"/>
+      <c r="P213" s="6"/>
+      <c r="Q213" s="6"/>
+      <c r="R213" s="6"/>
+      <c r="S213" s="6"/>
+      <c r="T213" s="7"/>
+      <c r="U213" s="8"/>
+      <c r="V213" s="6"/>
+      <c r="W213" s="6"/>
+      <c r="X213" s="6"/>
+      <c r="Y213" s="6"/>
+      <c r="Z213" s="6"/>
+      <c r="AA213" s="6"/>
+      <c r="AB213" s="6"/>
+      <c r="AC213" s="6"/>
+      <c r="AD213" s="6"/>
+      <c r="AE213" s="6"/>
+      <c r="AF213" s="6"/>
+      <c r="AG213" s="7"/>
+    </row>
+    <row r="214" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B214" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
+      <c r="I214" s="7"/>
+      <c r="L214" s="8"/>
+      <c r="M214" s="6"/>
+      <c r="N214" s="6"/>
+      <c r="O214" s="6"/>
+      <c r="P214" s="6"/>
+      <c r="Q214" s="6"/>
+      <c r="R214" s="6"/>
+      <c r="S214" s="6"/>
+      <c r="T214" s="7"/>
+      <c r="U214" s="8"/>
+      <c r="V214" s="6"/>
+      <c r="W214" s="6"/>
+      <c r="X214" s="6"/>
+      <c r="Y214" s="6"/>
+      <c r="Z214" s="6"/>
+      <c r="AA214" s="6"/>
+      <c r="AB214" s="6"/>
+      <c r="AC214" s="6"/>
+      <c r="AD214" s="6"/>
+      <c r="AE214" s="6"/>
+      <c r="AF214" s="6"/>
+      <c r="AG214" s="7"/>
+    </row>
+    <row r="215" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B215" s="8"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="7"/>
+      <c r="L215" s="8"/>
+      <c r="M215" s="6"/>
+      <c r="N215" s="6"/>
+      <c r="O215" s="6"/>
+      <c r="P215" s="6"/>
+      <c r="Q215" s="6"/>
+      <c r="R215" s="6"/>
+      <c r="S215" s="6"/>
+      <c r="T215" s="7"/>
+      <c r="U215" s="8"/>
+      <c r="V215" s="6"/>
+      <c r="W215" s="6"/>
+      <c r="X215" s="6"/>
+      <c r="Y215" s="6"/>
+      <c r="Z215" s="6"/>
+      <c r="AA215" s="6"/>
+      <c r="AB215" s="6"/>
+      <c r="AC215" s="6"/>
+      <c r="AD215" s="6"/>
+      <c r="AE215" s="6"/>
+      <c r="AF215" s="6"/>
+      <c r="AG215" s="7"/>
+    </row>
+    <row r="216" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B216" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+      <c r="I216" s="7"/>
+      <c r="L216" s="8"/>
+      <c r="M216" s="6"/>
+      <c r="N216" s="6"/>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
+      <c r="Q216" s="6"/>
+      <c r="R216" s="6"/>
+      <c r="S216" s="6"/>
+      <c r="T216" s="7"/>
+      <c r="U216" s="8"/>
+      <c r="V216" s="6"/>
+      <c r="W216" s="6"/>
+      <c r="X216" s="6"/>
+      <c r="Y216" s="6"/>
+      <c r="Z216" s="6"/>
+      <c r="AA216" s="6"/>
+      <c r="AB216" s="6"/>
+      <c r="AC216" s="6"/>
+      <c r="AD216" s="6"/>
+      <c r="AE216" s="6"/>
+      <c r="AF216" s="6"/>
+      <c r="AG216" s="7"/>
+    </row>
+    <row r="217" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B217" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+      <c r="I217" s="7"/>
+      <c r="L217" s="8"/>
+      <c r="M217" s="6"/>
+      <c r="N217" s="6"/>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
+      <c r="R217" s="6"/>
+      <c r="S217" s="6"/>
+      <c r="T217" s="7"/>
+      <c r="U217" s="8"/>
+      <c r="V217" s="6"/>
+      <c r="W217" s="6"/>
+      <c r="X217" s="6"/>
+      <c r="Y217" s="6"/>
+      <c r="Z217" s="6"/>
+      <c r="AA217" s="6"/>
+      <c r="AB217" s="6"/>
+      <c r="AC217" s="6"/>
+      <c r="AD217" s="6"/>
+      <c r="AE217" s="6"/>
+      <c r="AF217" s="6"/>
+      <c r="AG217" s="7"/>
+    </row>
+    <row r="218" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B218" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+      <c r="I218" s="7"/>
+      <c r="L218" s="8"/>
+      <c r="M218" s="6"/>
+      <c r="N218" s="6"/>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
+      <c r="R218" s="6"/>
+      <c r="S218" s="6"/>
+      <c r="T218" s="7"/>
+      <c r="U218" s="8"/>
+      <c r="V218" s="6"/>
+      <c r="W218" s="6"/>
+      <c r="X218" s="6"/>
+      <c r="Y218" s="6"/>
+      <c r="Z218" s="6"/>
+      <c r="AA218" s="6"/>
+      <c r="AB218" s="6"/>
+      <c r="AC218" s="6"/>
+      <c r="AD218" s="6"/>
+      <c r="AE218" s="6"/>
+      <c r="AF218" s="6"/>
+      <c r="AG218" s="7"/>
+    </row>
+    <row r="219" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B219" s="8"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
+      <c r="I219" s="7"/>
+      <c r="L219" s="8"/>
+      <c r="M219" s="6"/>
+      <c r="N219" s="6"/>
+      <c r="O219" s="6"/>
+      <c r="P219" s="6"/>
+      <c r="Q219" s="6"/>
+      <c r="R219" s="6"/>
+      <c r="S219" s="6"/>
+      <c r="T219" s="7"/>
+      <c r="U219" s="8"/>
+      <c r="V219" s="6"/>
+      <c r="W219" s="6"/>
+      <c r="X219" s="6"/>
+      <c r="Y219" s="6"/>
+      <c r="Z219" s="6"/>
+      <c r="AA219" s="6"/>
+      <c r="AB219" s="6"/>
+      <c r="AC219" s="6"/>
+      <c r="AD219" s="6"/>
+      <c r="AE219" s="6"/>
+      <c r="AF219" s="6"/>
+      <c r="AG219" s="7"/>
+    </row>
+    <row r="220" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B220" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="7"/>
+      <c r="L220" s="8"/>
+      <c r="M220" s="6"/>
+      <c r="N220" s="6"/>
+      <c r="O220" s="6"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="6"/>
+      <c r="R220" s="6"/>
+      <c r="S220" s="6"/>
+      <c r="T220" s="7"/>
+      <c r="U220" s="8"/>
+      <c r="V220" s="6"/>
+      <c r="W220" s="6"/>
+      <c r="X220" s="6"/>
+      <c r="Y220" s="6"/>
+      <c r="Z220" s="6"/>
+      <c r="AA220" s="6"/>
+      <c r="AB220" s="6"/>
+      <c r="AC220" s="6"/>
+      <c r="AD220" s="6"/>
+      <c r="AE220" s="6"/>
+      <c r="AF220" s="6"/>
+      <c r="AG220" s="7"/>
+    </row>
+    <row r="221" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B221" s="8"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+      <c r="I221" s="7"/>
+      <c r="L221" s="8"/>
+      <c r="M221" s="6"/>
+      <c r="N221" s="6"/>
+      <c r="O221" s="6"/>
+      <c r="P221" s="6"/>
+      <c r="Q221" s="6"/>
+      <c r="R221" s="6"/>
+      <c r="S221" s="6"/>
+      <c r="T221" s="7"/>
+      <c r="U221" s="8"/>
+      <c r="V221" s="6"/>
+      <c r="W221" s="6"/>
+      <c r="X221" s="6"/>
+      <c r="Y221" s="6"/>
+      <c r="Z221" s="6"/>
+      <c r="AA221" s="6"/>
+      <c r="AB221" s="6"/>
+      <c r="AC221" s="6"/>
+      <c r="AD221" s="6"/>
+      <c r="AE221" s="6"/>
+      <c r="AF221" s="6"/>
+      <c r="AG221" s="7"/>
+    </row>
+    <row r="222" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B222" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+      <c r="I222" s="7"/>
+      <c r="L222" s="8"/>
+      <c r="M222" s="6"/>
+      <c r="N222" s="6"/>
+      <c r="O222" s="6"/>
+      <c r="P222" s="6"/>
+      <c r="Q222" s="6"/>
+      <c r="R222" s="6"/>
+      <c r="S222" s="6"/>
+      <c r="T222" s="7"/>
+      <c r="U222" s="8"/>
+      <c r="V222" s="6"/>
+      <c r="W222" s="6"/>
+      <c r="X222" s="6"/>
+      <c r="Y222" s="6"/>
+      <c r="Z222" s="6"/>
+      <c r="AA222" s="6"/>
+      <c r="AB222" s="6"/>
+      <c r="AC222" s="6"/>
+      <c r="AD222" s="6"/>
+      <c r="AE222" s="6"/>
+      <c r="AF222" s="6"/>
+      <c r="AG222" s="7"/>
+    </row>
+    <row r="223" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B223" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+      <c r="I223" s="7"/>
+      <c r="L223" s="8"/>
+      <c r="M223" s="6"/>
+      <c r="N223" s="6"/>
+      <c r="O223" s="6"/>
+      <c r="P223" s="6"/>
+      <c r="Q223" s="6"/>
+      <c r="R223" s="6"/>
+      <c r="S223" s="6"/>
+      <c r="T223" s="7"/>
+      <c r="U223" s="8"/>
+      <c r="V223" s="6"/>
+      <c r="W223" s="6"/>
+      <c r="X223" s="6"/>
+      <c r="Y223" s="6"/>
+      <c r="Z223" s="6"/>
+      <c r="AA223" s="6"/>
+      <c r="AB223" s="6"/>
+      <c r="AC223" s="6"/>
+      <c r="AD223" s="6"/>
+      <c r="AE223" s="6"/>
+      <c r="AF223" s="6"/>
+      <c r="AG223" s="7"/>
+    </row>
+    <row r="224" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B224" s="8"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+      <c r="I224" s="7"/>
+      <c r="L224" s="8"/>
+      <c r="M224" s="6"/>
+      <c r="N224" s="6"/>
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
+      <c r="Q224" s="6"/>
+      <c r="R224" s="6"/>
+      <c r="S224" s="6"/>
+      <c r="T224" s="7"/>
+      <c r="U224" s="8"/>
+      <c r="V224" s="6"/>
+      <c r="W224" s="6"/>
+      <c r="X224" s="6"/>
+      <c r="Y224" s="6"/>
+      <c r="Z224" s="6"/>
+      <c r="AA224" s="6"/>
+      <c r="AB224" s="6"/>
+      <c r="AC224" s="6"/>
+      <c r="AD224" s="6"/>
+      <c r="AE224" s="6"/>
+      <c r="AF224" s="6"/>
+      <c r="AG224" s="7"/>
+    </row>
+    <row r="225" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B225" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
+      <c r="I225" s="7"/>
+      <c r="L225" s="8"/>
+      <c r="M225" s="6"/>
+      <c r="N225" s="6"/>
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
+      <c r="Q225" s="6"/>
+      <c r="R225" s="6"/>
+      <c r="S225" s="6"/>
+      <c r="T225" s="7"/>
+      <c r="U225" s="8"/>
+      <c r="V225" s="6"/>
+      <c r="W225" s="6"/>
+      <c r="X225" s="6"/>
+      <c r="Y225" s="6"/>
+      <c r="Z225" s="6"/>
+      <c r="AA225" s="6"/>
+      <c r="AB225" s="6"/>
+      <c r="AC225" s="6"/>
+      <c r="AD225" s="6"/>
+      <c r="AE225" s="6"/>
+      <c r="AF225" s="6"/>
+      <c r="AG225" s="7"/>
+    </row>
+    <row r="226" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B226" s="8"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+      <c r="I226" s="7"/>
+      <c r="L226" s="8"/>
+      <c r="M226" s="6"/>
+      <c r="N226" s="6"/>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
+      <c r="Q226" s="6"/>
+      <c r="R226" s="6"/>
+      <c r="S226" s="6"/>
+      <c r="T226" s="7"/>
+      <c r="U226" s="8"/>
+      <c r="V226" s="6"/>
+      <c r="W226" s="6"/>
+      <c r="X226" s="6"/>
+      <c r="Y226" s="6"/>
+      <c r="Z226" s="6"/>
+      <c r="AA226" s="6"/>
+      <c r="AB226" s="6"/>
+      <c r="AC226" s="6"/>
+      <c r="AD226" s="6"/>
+      <c r="AE226" s="6"/>
+      <c r="AF226" s="6"/>
+      <c r="AG226" s="7"/>
+    </row>
+    <row r="227" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B227" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
+      <c r="I227" s="7"/>
+      <c r="L227" s="8"/>
+      <c r="M227" s="6"/>
+      <c r="N227" s="6"/>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6"/>
+      <c r="Q227" s="6"/>
+      <c r="R227" s="6"/>
+      <c r="S227" s="6"/>
+      <c r="T227" s="7"/>
+      <c r="U227" s="8"/>
+      <c r="V227" s="6"/>
+      <c r="W227" s="6"/>
+      <c r="X227" s="6"/>
+      <c r="Y227" s="6"/>
+      <c r="Z227" s="6"/>
+      <c r="AA227" s="6"/>
+      <c r="AB227" s="6"/>
+      <c r="AC227" s="6"/>
+      <c r="AD227" s="6"/>
+      <c r="AE227" s="6"/>
+      <c r="AF227" s="6"/>
+      <c r="AG227" s="7"/>
+    </row>
+    <row r="228" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B228" s="8"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+      <c r="I228" s="7"/>
+      <c r="L228" s="8"/>
+      <c r="M228" s="6"/>
+      <c r="N228" s="6"/>
+      <c r="O228" s="6"/>
+      <c r="P228" s="6"/>
+      <c r="Q228" s="6"/>
+      <c r="R228" s="6"/>
+      <c r="S228" s="6"/>
+      <c r="T228" s="7"/>
+      <c r="U228" s="8"/>
+      <c r="V228" s="6"/>
+      <c r="W228" s="6"/>
+      <c r="X228" s="6"/>
+      <c r="Y228" s="6"/>
+      <c r="Z228" s="6"/>
+      <c r="AA228" s="6"/>
+      <c r="AB228" s="6"/>
+      <c r="AC228" s="6"/>
+      <c r="AD228" s="6"/>
+      <c r="AE228" s="6"/>
+      <c r="AF228" s="6"/>
+      <c r="AG228" s="7"/>
+    </row>
+    <row r="229" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B229" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+      <c r="I229" s="7"/>
+      <c r="L229" s="9"/>
+      <c r="M229" s="10"/>
+      <c r="N229" s="10"/>
+      <c r="O229" s="10"/>
+      <c r="P229" s="10"/>
+      <c r="Q229" s="10"/>
+      <c r="R229" s="10"/>
+      <c r="S229" s="10"/>
+      <c r="T229" s="11"/>
+      <c r="U229" s="9"/>
+      <c r="V229" s="10"/>
+      <c r="W229" s="10"/>
+      <c r="X229" s="10"/>
+      <c r="Y229" s="10"/>
+      <c r="Z229" s="10"/>
+      <c r="AA229" s="10"/>
+      <c r="AB229" s="10"/>
+      <c r="AC229" s="10"/>
+      <c r="AD229" s="10"/>
+      <c r="AE229" s="10"/>
+      <c r="AF229" s="10"/>
+      <c r="AG229" s="11"/>
+    </row>
+    <row r="230" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B230" s="8"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
+      <c r="I230" s="7"/>
+    </row>
+    <row r="231" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B231" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="6"/>
+      <c r="I231" s="7"/>
+    </row>
+    <row r="232" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B232" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+      <c r="I232" s="7"/>
+    </row>
+    <row r="233" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B233" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+      <c r="I233" s="7"/>
+    </row>
+    <row r="234" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B234" s="8"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+      <c r="I234" s="7"/>
+    </row>
+    <row r="235" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B235" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="7"/>
+    </row>
+    <row r="236" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B236" s="8"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+      <c r="I236" s="7"/>
+    </row>
+    <row r="237" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B237" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+      <c r="I237" s="7"/>
+    </row>
+    <row r="238" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B238" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="7"/>
+    </row>
+    <row r="239" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B239" s="8"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+      <c r="I239" s="7"/>
+    </row>
+    <row r="240" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B240" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+      <c r="I240" s="7"/>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B241" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+      <c r="I241" s="7"/>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B242" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+      <c r="I242" s="7"/>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B243" s="8"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+      <c r="I243" s="7"/>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B244" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+      <c r="I244" s="7"/>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B245" s="8"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+      <c r="I245" s="7"/>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B246" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+      <c r="I246" s="7"/>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B247" s="8"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="7"/>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B248" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+      <c r="I248" s="7"/>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B249" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+      <c r="I249" s="7"/>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B250" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6"/>
+      <c r="I250" s="7"/>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B251" s="8"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
+      <c r="I251" s="7"/>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B252" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+      <c r="I252" s="7"/>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B253" s="8"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+      <c r="I253" s="7"/>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B254" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="7"/>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B255" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="7"/>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B256" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+      <c r="I256" s="7"/>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B257" s="8"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="7"/>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B258" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C258" s="6"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+      <c r="I258" s="7"/>
+    </row>
+    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B259" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="7"/>
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B260" s="8"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+      <c r="I260" s="7"/>
+    </row>
+    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B261" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+      <c r="I261" s="7"/>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B262" s="8"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+      <c r="I262" s="7"/>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B263" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
+      <c r="I263" s="7"/>
+    </row>
+    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B264" s="8"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+      <c r="I264" s="7"/>
+    </row>
+    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B265" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C265" s="6"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+      <c r="I265" s="7"/>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B266" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
+      <c r="H266" s="6"/>
+      <c r="I266" s="7"/>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B267" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C267" s="6"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="6"/>
+      <c r="I267" s="7"/>
+    </row>
+    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B268" s="8"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+      <c r="I268" s="7"/>
+    </row>
+    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B269" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C269" s="6"/>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
+      <c r="I269" s="7"/>
+    </row>
+    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B270" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C270" s="6"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
+      <c r="I270" s="7"/>
+    </row>
+    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B271" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C271" s="6"/>
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="6"/>
+      <c r="I271" s="7"/>
+    </row>
+    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B272" s="8"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+      <c r="I272" s="7"/>
+    </row>
+    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B273" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C273" s="6"/>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+      <c r="I273" s="7"/>
+    </row>
+    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B274" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C274" s="6"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+      <c r="I274" s="7"/>
+    </row>
+    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B275" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C275" s="6"/>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="7"/>
+    </row>
+    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B276" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+      <c r="I276" s="7"/>
+    </row>
+    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B277" s="8"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+      <c r="I277" s="7"/>
+    </row>
+    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B278" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+      <c r="I278" s="7"/>
+    </row>
+    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B279" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+      <c r="I279" s="7"/>
+    </row>
+    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B280" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="I280" s="7"/>
+    </row>
+    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B281" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+      <c r="I281" s="7"/>
+    </row>
+    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B282" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+      <c r="I282" s="7"/>
+    </row>
+    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B283" s="8"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+      <c r="I283" s="7"/>
+    </row>
+    <row r="284" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B284" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C284" s="6"/>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+      <c r="I284" s="7"/>
+    </row>
+    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B285" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
+      <c r="I285" s="7"/>
+    </row>
+    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B286" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C286" s="6"/>
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="6"/>
+      <c r="I286" s="7"/>
+    </row>
+    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B287" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C287" s="6"/>
+      <c r="D287" s="6"/>
+      <c r="E287" s="6"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
+      <c r="H287" s="6"/>
+      <c r="I287" s="7"/>
+    </row>
+    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B288" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C288" s="6"/>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
+      <c r="G288" s="6"/>
+      <c r="H288" s="6"/>
+      <c r="I288" s="7"/>
+    </row>
+    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B289" s="8"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="6"/>
+      <c r="I289" s="7"/>
+    </row>
+    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B290" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C290" s="6"/>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
+      <c r="G290" s="6"/>
+      <c r="H290" s="6"/>
+      <c r="I290" s="7"/>
+    </row>
+    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B291" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C291" s="6"/>
+      <c r="D291" s="6"/>
+      <c r="E291" s="6"/>
+      <c r="F291" s="6"/>
+      <c r="G291" s="6"/>
+      <c r="H291" s="6"/>
+      <c r="I291" s="7"/>
+    </row>
+    <row r="292" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B292" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C292" s="6"/>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
+      <c r="F292" s="6"/>
+      <c r="G292" s="6"/>
+      <c r="H292" s="6"/>
+      <c r="I292" s="7"/>
+    </row>
+    <row r="293" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B293" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C293" s="6"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="6"/>
+      <c r="H293" s="6"/>
+      <c r="I293" s="7"/>
+    </row>
+    <row r="294" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B294" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C294" s="6"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
+      <c r="G294" s="6"/>
+      <c r="H294" s="6"/>
+      <c r="I294" s="7"/>
+    </row>
+    <row r="295" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B295" s="8"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
+      <c r="F295" s="6"/>
+      <c r="G295" s="6"/>
+      <c r="H295" s="6"/>
+      <c r="I295" s="7"/>
+    </row>
+    <row r="296" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B296" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C296" s="6"/>
+      <c r="D296" s="6"/>
+      <c r="E296" s="6"/>
+      <c r="F296" s="6"/>
+      <c r="G296" s="6"/>
+      <c r="H296" s="6"/>
+      <c r="I296" s="7"/>
+    </row>
+    <row r="297" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B297" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C297" s="6"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="6"/>
+      <c r="F297" s="6"/>
+      <c r="G297" s="6"/>
+      <c r="H297" s="6"/>
+      <c r="I297" s="7"/>
+    </row>
+    <row r="298" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B298" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C298" s="6"/>
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
+      <c r="F298" s="6"/>
+      <c r="G298" s="6"/>
+      <c r="H298" s="6"/>
+      <c r="I298" s="7"/>
+    </row>
+    <row r="299" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B299" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C299" s="6"/>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+      <c r="F299" s="6"/>
+      <c r="G299" s="6"/>
+      <c r="H299" s="6"/>
+      <c r="I299" s="7"/>
+    </row>
+    <row r="300" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B300" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C300" s="6"/>
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
+      <c r="F300" s="6"/>
+      <c r="G300" s="6"/>
+      <c r="H300" s="6"/>
+      <c r="I300" s="7"/>
+    </row>
+    <row r="301" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B301" s="8"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="6"/>
+      <c r="E301" s="6"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="6"/>
+      <c r="I301" s="7"/>
+    </row>
+    <row r="302" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B302" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C302" s="6"/>
+      <c r="D302" s="6"/>
+      <c r="E302" s="6"/>
+      <c r="F302" s="6"/>
+      <c r="G302" s="6"/>
+      <c r="H302" s="6"/>
+      <c r="I302" s="7"/>
+    </row>
+    <row r="303" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B303" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C303" s="6"/>
+      <c r="D303" s="6"/>
+      <c r="E303" s="6"/>
+      <c r="F303" s="6"/>
+      <c r="G303" s="6"/>
+      <c r="H303" s="6"/>
+      <c r="I303" s="7"/>
+    </row>
+    <row r="304" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B304" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C304" s="6"/>
+      <c r="D304" s="6"/>
+      <c r="E304" s="6"/>
+      <c r="F304" s="6"/>
+      <c r="G304" s="6"/>
+      <c r="H304" s="6"/>
+      <c r="I304" s="7"/>
+    </row>
+    <row r="305" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B305" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C305" s="6"/>
+      <c r="D305" s="6"/>
+      <c r="E305" s="6"/>
+      <c r="F305" s="6"/>
+      <c r="G305" s="6"/>
+      <c r="H305" s="6"/>
+      <c r="I305" s="7"/>
+    </row>
+    <row r="306" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B306" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C306" s="6"/>
+      <c r="D306" s="6"/>
+      <c r="E306" s="6"/>
+      <c r="F306" s="6"/>
+      <c r="G306" s="6"/>
+      <c r="H306" s="6"/>
+      <c r="I306" s="7"/>
+    </row>
+    <row r="307" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B307" s="8"/>
+      <c r="C307" s="6"/>
+      <c r="D307" s="6"/>
+      <c r="E307" s="6"/>
+      <c r="F307" s="6"/>
+      <c r="G307" s="6"/>
+      <c r="H307" s="6"/>
+      <c r="I307" s="7"/>
+    </row>
+    <row r="308" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B308" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C308" s="6"/>
+      <c r="D308" s="6"/>
+      <c r="E308" s="6"/>
+      <c r="F308" s="6"/>
+      <c r="G308" s="6"/>
+      <c r="H308" s="6"/>
+      <c r="I308" s="7"/>
+    </row>
+    <row r="309" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B309" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C309" s="6"/>
+      <c r="D309" s="6"/>
+      <c r="E309" s="6"/>
+      <c r="F309" s="6"/>
+      <c r="G309" s="6"/>
+      <c r="H309" s="6"/>
+      <c r="I309" s="7"/>
+    </row>
+    <row r="310" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B310" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C310" s="6"/>
+      <c r="D310" s="6"/>
+      <c r="E310" s="6"/>
+      <c r="F310" s="6"/>
+      <c r="G310" s="6"/>
+      <c r="H310" s="6"/>
+      <c r="I310" s="7"/>
+    </row>
+    <row r="311" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B311" s="8"/>
+      <c r="C311" s="6"/>
+      <c r="D311" s="6"/>
+      <c r="E311" s="6"/>
+      <c r="F311" s="6"/>
+      <c r="G311" s="6"/>
+      <c r="H311" s="6"/>
+      <c r="I311" s="7"/>
+    </row>
+    <row r="312" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B312" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C312" s="6"/>
+      <c r="D312" s="6"/>
+      <c r="E312" s="6"/>
+      <c r="F312" s="6"/>
+      <c r="G312" s="6"/>
+      <c r="H312" s="6"/>
+      <c r="I312" s="7"/>
+    </row>
+    <row r="313" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B313" s="8"/>
+      <c r="C313" s="6"/>
+      <c r="D313" s="6"/>
+      <c r="E313" s="6"/>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6"/>
+      <c r="H313" s="6"/>
+      <c r="I313" s="7"/>
+    </row>
+    <row r="314" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B314" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C314" s="6"/>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
+      <c r="F314" s="6"/>
+      <c r="G314" s="6"/>
+      <c r="H314" s="6"/>
+      <c r="I314" s="7"/>
+    </row>
+    <row r="315" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B315" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C315" s="6"/>
+      <c r="D315" s="6"/>
+      <c r="E315" s="6"/>
+      <c r="F315" s="6"/>
+      <c r="G315" s="6"/>
+      <c r="H315" s="6"/>
+      <c r="I315" s="7"/>
+    </row>
+    <row r="316" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B316" s="8"/>
+      <c r="C316" s="6"/>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
+      <c r="H316" s="6"/>
+      <c r="I316" s="7"/>
+    </row>
+    <row r="317" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B317" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C317" s="6"/>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6"/>
+      <c r="H317" s="6"/>
+      <c r="I317" s="7"/>
+    </row>
+    <row r="318" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B318" s="8"/>
+      <c r="C318" s="6"/>
+      <c r="D318" s="6"/>
+      <c r="E318" s="6"/>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6"/>
+      <c r="H318" s="6"/>
+      <c r="I318" s="7"/>
+    </row>
+    <row r="319" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B319" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C319" s="6"/>
+      <c r="D319" s="6"/>
+      <c r="E319" s="6"/>
+      <c r="F319" s="6"/>
+      <c r="G319" s="6"/>
+      <c r="H319" s="6"/>
+      <c r="I319" s="7"/>
+    </row>
+    <row r="320" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B320" s="8"/>
+      <c r="C320" s="6"/>
+      <c r="D320" s="6"/>
+      <c r="E320" s="6"/>
+      <c r="F320" s="6"/>
+      <c r="G320" s="6"/>
+      <c r="H320" s="6"/>
+      <c r="I320" s="7"/>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B321" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C321" s="6"/>
+      <c r="D321" s="6"/>
+      <c r="E321" s="6"/>
+      <c r="F321" s="6"/>
+      <c r="G321" s="6"/>
+      <c r="H321" s="6"/>
+      <c r="I321" s="7"/>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B322" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C322" s="6"/>
+      <c r="D322" s="6"/>
+      <c r="E322" s="6"/>
+      <c r="F322" s="6"/>
+      <c r="G322" s="6"/>
+      <c r="H322" s="6"/>
+      <c r="I322" s="7"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B323" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C323" s="6"/>
+      <c r="D323" s="6"/>
+      <c r="E323" s="6"/>
+      <c r="F323" s="6"/>
+      <c r="G323" s="6"/>
+      <c r="H323" s="6"/>
+      <c r="I323" s="7"/>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B324" s="8"/>
+      <c r="C324" s="6"/>
+      <c r="D324" s="6"/>
+      <c r="E324" s="6"/>
+      <c r="F324" s="6"/>
+      <c r="G324" s="6"/>
+      <c r="H324" s="6"/>
+      <c r="I324" s="7"/>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B325" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C325" s="6"/>
+      <c r="D325" s="6"/>
+      <c r="E325" s="6"/>
+      <c r="F325" s="6"/>
+      <c r="G325" s="6"/>
+      <c r="H325" s="6"/>
+      <c r="I325" s="7"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B326" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C326" s="6"/>
+      <c r="D326" s="6"/>
+      <c r="E326" s="6"/>
+      <c r="F326" s="6"/>
+      <c r="G326" s="6"/>
+      <c r="H326" s="6"/>
+      <c r="I326" s="7"/>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B327" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C327" s="10"/>
+      <c r="D327" s="10"/>
+      <c r="E327" s="10"/>
+      <c r="F327" s="10"/>
+      <c r="G327" s="10"/>
+      <c r="H327" s="10"/>
+      <c r="I327" s="11"/>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B331" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C331" s="3"/>
+      <c r="D331" s="3"/>
+      <c r="E331" s="3"/>
+      <c r="F331" s="3"/>
+      <c r="G331" s="3"/>
+      <c r="H331" s="3"/>
+      <c r="I331" s="3"/>
+      <c r="J331" s="3"/>
+      <c r="K331" s="3"/>
+      <c r="L331" s="4"/>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B332" s="8"/>
+      <c r="C332" s="6"/>
+      <c r="D332" s="6"/>
+      <c r="E332" s="6"/>
+      <c r="F332" s="6"/>
+      <c r="G332" s="6"/>
+      <c r="H332" s="6"/>
+      <c r="I332" s="6"/>
+      <c r="J332" s="6"/>
+      <c r="K332" s="6"/>
+      <c r="L332" s="7"/>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B333" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C333" s="6"/>
+      <c r="D333" s="6"/>
+      <c r="E333" s="6"/>
+      <c r="F333" s="6"/>
+      <c r="G333" s="6"/>
+      <c r="H333" s="6"/>
+      <c r="I333" s="6"/>
+      <c r="J333" s="6"/>
+      <c r="K333" s="6"/>
+      <c r="L333" s="7"/>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B334" s="8"/>
+      <c r="C334" s="6"/>
+      <c r="D334" s="6"/>
+      <c r="E334" s="6"/>
+      <c r="F334" s="6"/>
+      <c r="G334" s="6"/>
+      <c r="H334" s="6"/>
+      <c r="I334" s="6"/>
+      <c r="J334" s="6"/>
+      <c r="K334" s="6"/>
+      <c r="L334" s="7"/>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B335" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C335" s="6"/>
+      <c r="D335" s="6"/>
+      <c r="E335" s="6"/>
+      <c r="F335" s="6"/>
+      <c r="G335" s="6"/>
+      <c r="H335" s="6"/>
+      <c r="I335" s="6"/>
+      <c r="J335" s="6"/>
+      <c r="K335" s="6"/>
+      <c r="L335" s="7"/>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B336" s="8"/>
+      <c r="C336" s="6"/>
+      <c r="D336" s="6"/>
+      <c r="E336" s="6"/>
+      <c r="F336" s="6"/>
+      <c r="G336" s="6"/>
+      <c r="H336" s="6"/>
+      <c r="I336" s="6"/>
+      <c r="J336" s="6"/>
+      <c r="K336" s="6"/>
+      <c r="L336" s="7"/>
+    </row>
+    <row r="337" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B337" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C337" s="6"/>
+      <c r="D337" s="6"/>
+      <c r="E337" s="6"/>
+      <c r="F337" s="6"/>
+      <c r="G337" s="6"/>
+      <c r="H337" s="6"/>
+      <c r="I337" s="6"/>
+      <c r="J337" s="6"/>
+      <c r="K337" s="6"/>
+      <c r="L337" s="7"/>
+    </row>
+    <row r="338" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B338" s="8"/>
+      <c r="C338" s="6"/>
+      <c r="D338" s="6"/>
+      <c r="E338" s="6"/>
+      <c r="F338" s="6"/>
+      <c r="G338" s="6"/>
+      <c r="H338" s="6"/>
+      <c r="I338" s="6"/>
+      <c r="J338" s="6"/>
+      <c r="K338" s="6"/>
+      <c r="L338" s="7"/>
+    </row>
+    <row r="339" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B339" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C339" s="6"/>
+      <c r="D339" s="6"/>
+      <c r="E339" s="6"/>
+      <c r="F339" s="6"/>
+      <c r="G339" s="6"/>
+      <c r="H339" s="6"/>
+      <c r="I339" s="6"/>
+      <c r="J339" s="6"/>
+      <c r="K339" s="6"/>
+      <c r="L339" s="7"/>
+    </row>
+    <row r="340" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B340" s="8"/>
+      <c r="C340" s="6"/>
+      <c r="D340" s="6"/>
+      <c r="E340" s="6"/>
+      <c r="F340" s="6"/>
+      <c r="G340" s="6"/>
+      <c r="H340" s="6"/>
+      <c r="I340" s="6"/>
+      <c r="J340" s="6"/>
+      <c r="K340" s="6"/>
+      <c r="L340" s="7"/>
+      <c r="O340" s="12"/>
+      <c r="P340" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q340" s="3"/>
+      <c r="R340" s="3"/>
+      <c r="S340" s="3"/>
+      <c r="T340" s="3"/>
+      <c r="U340" s="3"/>
+      <c r="V340" s="3"/>
+      <c r="W340" s="3"/>
+      <c r="X340" s="3"/>
+      <c r="Y340" s="4"/>
+      <c r="Z340" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA340" s="3"/>
+      <c r="AB340" s="3"/>
+      <c r="AC340" s="3"/>
+      <c r="AD340" s="3"/>
+      <c r="AE340" s="3"/>
+      <c r="AF340" s="3"/>
+      <c r="AG340" s="3"/>
+      <c r="AH340" s="3"/>
+      <c r="AI340" s="3"/>
+      <c r="AJ340" s="4"/>
+    </row>
+    <row r="341" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B341" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C341" s="6"/>
+      <c r="D341" s="6"/>
+      <c r="E341" s="6"/>
+      <c r="F341" s="6"/>
+      <c r="G341" s="6"/>
+      <c r="H341" s="6"/>
+      <c r="I341" s="6"/>
+      <c r="J341" s="6"/>
+      <c r="K341" s="6"/>
+      <c r="L341" s="7"/>
+      <c r="O341" s="8"/>
+      <c r="P341" s="6"/>
+      <c r="Q341" s="6"/>
+      <c r="R341" s="6"/>
+      <c r="S341" s="6"/>
+      <c r="T341" s="6"/>
+      <c r="U341" s="6"/>
+      <c r="V341" s="6"/>
+      <c r="W341" s="6"/>
+      <c r="X341" s="6"/>
+      <c r="Y341" s="7"/>
+      <c r="Z341" s="8"/>
+      <c r="AA341" s="6"/>
+      <c r="AB341" s="6"/>
+      <c r="AC341" s="6"/>
+      <c r="AD341" s="6"/>
+      <c r="AE341" s="6"/>
+      <c r="AF341" s="6"/>
+      <c r="AG341" s="6"/>
+      <c r="AH341" s="6"/>
+      <c r="AI341" s="6"/>
+      <c r="AJ341" s="7"/>
+    </row>
+    <row r="342" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B342" s="8"/>
+      <c r="C342" s="6"/>
+      <c r="D342" s="6"/>
+      <c r="E342" s="6"/>
+      <c r="F342" s="6"/>
+      <c r="G342" s="6"/>
+      <c r="H342" s="6"/>
+      <c r="I342" s="6"/>
+      <c r="J342" s="6"/>
+      <c r="K342" s="6"/>
+      <c r="L342" s="7"/>
+      <c r="O342" s="8"/>
+      <c r="P342" s="6"/>
+      <c r="Q342" s="6"/>
+      <c r="R342" s="6"/>
+      <c r="S342" s="6"/>
+      <c r="T342" s="6"/>
+      <c r="U342" s="6"/>
+      <c r="V342" s="6"/>
+      <c r="W342" s="6"/>
+      <c r="X342" s="6"/>
+      <c r="Y342" s="7"/>
+      <c r="Z342" s="8"/>
+      <c r="AA342" s="6"/>
+      <c r="AB342" s="6"/>
+      <c r="AC342" s="6"/>
+      <c r="AD342" s="6"/>
+      <c r="AE342" s="6"/>
+      <c r="AF342" s="6"/>
+      <c r="AG342" s="6"/>
+      <c r="AH342" s="6"/>
+      <c r="AI342" s="6"/>
+      <c r="AJ342" s="7"/>
+    </row>
+    <row r="343" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B343" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C343" s="6"/>
+      <c r="D343" s="6"/>
+      <c r="E343" s="6"/>
+      <c r="F343" s="6"/>
+      <c r="G343" s="6"/>
+      <c r="H343" s="6"/>
+      <c r="I343" s="6"/>
+      <c r="J343" s="6"/>
+      <c r="K343" s="6"/>
+      <c r="L343" s="7"/>
+      <c r="O343" s="8"/>
+      <c r="P343" s="6"/>
+      <c r="Q343" s="6"/>
+      <c r="R343" s="6"/>
+      <c r="S343" s="6"/>
+      <c r="T343" s="6"/>
+      <c r="U343" s="6"/>
+      <c r="V343" s="6"/>
+      <c r="W343" s="6"/>
+      <c r="X343" s="6"/>
+      <c r="Y343" s="7"/>
+      <c r="Z343" s="8"/>
+      <c r="AA343" s="6"/>
+      <c r="AB343" s="6"/>
+      <c r="AC343" s="6"/>
+      <c r="AD343" s="6"/>
+      <c r="AE343" s="6"/>
+      <c r="AF343" s="6"/>
+      <c r="AG343" s="6"/>
+      <c r="AH343" s="6"/>
+      <c r="AI343" s="6"/>
+      <c r="AJ343" s="7"/>
+    </row>
+    <row r="344" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B344" s="8"/>
+      <c r="C344" s="6"/>
+      <c r="D344" s="6"/>
+      <c r="E344" s="6"/>
+      <c r="F344" s="6"/>
+      <c r="G344" s="6"/>
+      <c r="H344" s="6"/>
+      <c r="I344" s="6"/>
+      <c r="J344" s="6"/>
+      <c r="K344" s="6"/>
+      <c r="L344" s="7"/>
+      <c r="O344" s="8"/>
+      <c r="P344" s="6"/>
+      <c r="Q344" s="6"/>
+      <c r="R344" s="6"/>
+      <c r="S344" s="6"/>
+      <c r="T344" s="6"/>
+      <c r="U344" s="6"/>
+      <c r="V344" s="6"/>
+      <c r="W344" s="6"/>
+      <c r="X344" s="6"/>
+      <c r="Y344" s="7"/>
+      <c r="Z344" s="8"/>
+      <c r="AA344" s="6"/>
+      <c r="AB344" s="6"/>
+      <c r="AC344" s="6"/>
+      <c r="AD344" s="6"/>
+      <c r="AE344" s="6"/>
+      <c r="AF344" s="6"/>
+      <c r="AG344" s="6"/>
+      <c r="AH344" s="6"/>
+      <c r="AI344" s="6"/>
+      <c r="AJ344" s="7"/>
+    </row>
+    <row r="345" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B345" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C345" s="6"/>
+      <c r="D345" s="6"/>
+      <c r="E345" s="6"/>
+      <c r="F345" s="6"/>
+      <c r="G345" s="6"/>
+      <c r="H345" s="6"/>
+      <c r="I345" s="6"/>
+      <c r="J345" s="6"/>
+      <c r="K345" s="6"/>
+      <c r="L345" s="7"/>
+      <c r="O345" s="8"/>
+      <c r="P345" s="6"/>
+      <c r="Q345" s="6"/>
+      <c r="R345" s="6"/>
+      <c r="S345" s="6"/>
+      <c r="T345" s="6"/>
+      <c r="U345" s="6"/>
+      <c r="V345" s="6"/>
+      <c r="W345" s="6"/>
+      <c r="X345" s="6"/>
+      <c r="Y345" s="7"/>
+      <c r="Z345" s="8"/>
+      <c r="AA345" s="6"/>
+      <c r="AB345" s="6"/>
+      <c r="AC345" s="6"/>
+      <c r="AD345" s="6"/>
+      <c r="AE345" s="6"/>
+      <c r="AF345" s="6"/>
+      <c r="AG345" s="6"/>
+      <c r="AH345" s="6"/>
+      <c r="AI345" s="6"/>
+      <c r="AJ345" s="7"/>
+    </row>
+    <row r="346" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B346" s="8"/>
+      <c r="C346" s="6"/>
+      <c r="D346" s="6"/>
+      <c r="E346" s="6"/>
+      <c r="F346" s="6"/>
+      <c r="G346" s="6"/>
+      <c r="H346" s="6"/>
+      <c r="I346" s="6"/>
+      <c r="J346" s="6"/>
+      <c r="K346" s="6"/>
+      <c r="L346" s="7"/>
+      <c r="O346" s="8"/>
+      <c r="P346" s="6"/>
+      <c r="Q346" s="6"/>
+      <c r="R346" s="6"/>
+      <c r="S346" s="6"/>
+      <c r="T346" s="6"/>
+      <c r="U346" s="6"/>
+      <c r="V346" s="6"/>
+      <c r="W346" s="6"/>
+      <c r="X346" s="6"/>
+      <c r="Y346" s="7"/>
+      <c r="Z346" s="8"/>
+      <c r="AA346" s="6"/>
+      <c r="AB346" s="6"/>
+      <c r="AC346" s="6"/>
+      <c r="AD346" s="6"/>
+      <c r="AE346" s="6"/>
+      <c r="AF346" s="6"/>
+      <c r="AG346" s="6"/>
+      <c r="AH346" s="6"/>
+      <c r="AI346" s="6"/>
+      <c r="AJ346" s="7"/>
+    </row>
+    <row r="347" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B347" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C347" s="6"/>
+      <c r="D347" s="6"/>
+      <c r="E347" s="6"/>
+      <c r="F347" s="6"/>
+      <c r="G347" s="6"/>
+      <c r="H347" s="6"/>
+      <c r="I347" s="6"/>
+      <c r="J347" s="6"/>
+      <c r="K347" s="6"/>
+      <c r="L347" s="7"/>
+      <c r="O347" s="8"/>
+      <c r="P347" s="6"/>
+      <c r="Q347" s="6"/>
+      <c r="R347" s="6"/>
+      <c r="S347" s="6"/>
+      <c r="T347" s="6"/>
+      <c r="U347" s="6"/>
+      <c r="V347" s="6"/>
+      <c r="W347" s="6"/>
+      <c r="X347" s="6"/>
+      <c r="Y347" s="7"/>
+      <c r="Z347" s="8"/>
+      <c r="AA347" s="6"/>
+      <c r="AB347" s="6"/>
+      <c r="AC347" s="6"/>
+      <c r="AD347" s="6"/>
+      <c r="AE347" s="6"/>
+      <c r="AF347" s="6"/>
+      <c r="AG347" s="6"/>
+      <c r="AH347" s="6"/>
+      <c r="AI347" s="6"/>
+      <c r="AJ347" s="7"/>
+    </row>
+    <row r="348" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B348" s="8"/>
+      <c r="C348" s="6"/>
+      <c r="D348" s="6"/>
+      <c r="E348" s="6"/>
+      <c r="F348" s="6"/>
+      <c r="G348" s="6"/>
+      <c r="H348" s="6"/>
+      <c r="I348" s="6"/>
+      <c r="J348" s="6"/>
+      <c r="K348" s="6"/>
+      <c r="L348" s="7"/>
+      <c r="O348" s="8"/>
+      <c r="P348" s="6"/>
+      <c r="Q348" s="6"/>
+      <c r="R348" s="6"/>
+      <c r="S348" s="6"/>
+      <c r="T348" s="6"/>
+      <c r="U348" s="6"/>
+      <c r="V348" s="6"/>
+      <c r="W348" s="6"/>
+      <c r="X348" s="6"/>
+      <c r="Y348" s="7"/>
+      <c r="Z348" s="8"/>
+      <c r="AA348" s="6"/>
+      <c r="AB348" s="6"/>
+      <c r="AC348" s="6"/>
+      <c r="AD348" s="6"/>
+      <c r="AE348" s="6"/>
+      <c r="AF348" s="6"/>
+      <c r="AG348" s="6"/>
+      <c r="AH348" s="6"/>
+      <c r="AI348" s="6"/>
+      <c r="AJ348" s="7"/>
+    </row>
+    <row r="349" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B349" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C349" s="6"/>
+      <c r="D349" s="6"/>
+      <c r="E349" s="6"/>
+      <c r="F349" s="6"/>
+      <c r="G349" s="6"/>
+      <c r="H349" s="6"/>
+      <c r="I349" s="6"/>
+      <c r="J349" s="6"/>
+      <c r="K349" s="6"/>
+      <c r="L349" s="7"/>
+      <c r="O349" s="8"/>
+      <c r="P349" s="6"/>
+      <c r="Q349" s="6"/>
+      <c r="R349" s="6"/>
+      <c r="S349" s="6"/>
+      <c r="T349" s="6"/>
+      <c r="U349" s="6"/>
+      <c r="V349" s="6"/>
+      <c r="W349" s="6"/>
+      <c r="X349" s="6"/>
+      <c r="Y349" s="7"/>
+      <c r="Z349" s="8"/>
+      <c r="AA349" s="6"/>
+      <c r="AB349" s="6"/>
+      <c r="AC349" s="6"/>
+      <c r="AD349" s="6"/>
+      <c r="AE349" s="6"/>
+      <c r="AF349" s="6"/>
+      <c r="AG349" s="6"/>
+      <c r="AH349" s="6"/>
+      <c r="AI349" s="6"/>
+      <c r="AJ349" s="7"/>
+    </row>
+    <row r="350" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B350" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C350" s="6"/>
+      <c r="D350" s="6"/>
+      <c r="E350" s="6"/>
+      <c r="F350" s="6"/>
+      <c r="G350" s="6"/>
+      <c r="H350" s="6"/>
+      <c r="I350" s="6"/>
+      <c r="J350" s="6"/>
+      <c r="K350" s="6"/>
+      <c r="L350" s="7"/>
+      <c r="O350" s="8"/>
+      <c r="P350" s="6"/>
+      <c r="Q350" s="6"/>
+      <c r="R350" s="6"/>
+      <c r="S350" s="6"/>
+      <c r="T350" s="6"/>
+      <c r="U350" s="6"/>
+      <c r="V350" s="6"/>
+      <c r="W350" s="6"/>
+      <c r="X350" s="6"/>
+      <c r="Y350" s="7"/>
+      <c r="Z350" s="8"/>
+      <c r="AA350" s="6"/>
+      <c r="AB350" s="6"/>
+      <c r="AC350" s="6"/>
+      <c r="AD350" s="6"/>
+      <c r="AE350" s="6"/>
+      <c r="AF350" s="6"/>
+      <c r="AG350" s="6"/>
+      <c r="AH350" s="6"/>
+      <c r="AI350" s="6"/>
+      <c r="AJ350" s="7"/>
+    </row>
+    <row r="351" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B351" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C351" s="6"/>
+      <c r="D351" s="6"/>
+      <c r="E351" s="6"/>
+      <c r="F351" s="6"/>
+      <c r="G351" s="6"/>
+      <c r="H351" s="6"/>
+      <c r="I351" s="6"/>
+      <c r="J351" s="6"/>
+      <c r="K351" s="6"/>
+      <c r="L351" s="7"/>
+      <c r="O351" s="8"/>
+      <c r="P351" s="6"/>
+      <c r="Q351" s="6"/>
+      <c r="R351" s="6"/>
+      <c r="S351" s="6"/>
+      <c r="T351" s="6"/>
+      <c r="U351" s="6"/>
+      <c r="V351" s="6"/>
+      <c r="W351" s="6"/>
+      <c r="X351" s="6"/>
+      <c r="Y351" s="7"/>
+      <c r="Z351" s="8"/>
+      <c r="AA351" s="6"/>
+      <c r="AB351" s="6"/>
+      <c r="AC351" s="6"/>
+      <c r="AD351" s="6"/>
+      <c r="AE351" s="6"/>
+      <c r="AF351" s="6"/>
+      <c r="AG351" s="6"/>
+      <c r="AH351" s="6"/>
+      <c r="AI351" s="6"/>
+      <c r="AJ351" s="7"/>
+    </row>
+    <row r="352" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B352" s="8"/>
+      <c r="C352" s="6"/>
+      <c r="D352" s="6"/>
+      <c r="E352" s="6"/>
+      <c r="F352" s="6"/>
+      <c r="G352" s="6"/>
+      <c r="H352" s="6"/>
+      <c r="I352" s="6"/>
+      <c r="J352" s="6"/>
+      <c r="K352" s="6"/>
+      <c r="L352" s="7"/>
+      <c r="O352" s="8"/>
+      <c r="P352" s="6"/>
+      <c r="Q352" s="6"/>
+      <c r="R352" s="6"/>
+      <c r="S352" s="6"/>
+      <c r="T352" s="6"/>
+      <c r="U352" s="6"/>
+      <c r="V352" s="6"/>
+      <c r="W352" s="6"/>
+      <c r="X352" s="6"/>
+      <c r="Y352" s="7"/>
+      <c r="Z352" s="8"/>
+      <c r="AA352" s="6"/>
+      <c r="AB352" s="6"/>
+      <c r="AC352" s="6"/>
+      <c r="AD352" s="6"/>
+      <c r="AE352" s="6"/>
+      <c r="AF352" s="6"/>
+      <c r="AG352" s="6"/>
+      <c r="AH352" s="6"/>
+      <c r="AI352" s="6"/>
+      <c r="AJ352" s="7"/>
+    </row>
+    <row r="353" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B353" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C353" s="6"/>
+      <c r="D353" s="6"/>
+      <c r="E353" s="6"/>
+      <c r="F353" s="6"/>
+      <c r="G353" s="6"/>
+      <c r="H353" s="6"/>
+      <c r="I353" s="6"/>
+      <c r="J353" s="6"/>
+      <c r="K353" s="6"/>
+      <c r="L353" s="7"/>
+      <c r="O353" s="8"/>
+      <c r="P353" s="6"/>
+      <c r="Q353" s="6"/>
+      <c r="R353" s="6"/>
+      <c r="S353" s="6"/>
+      <c r="T353" s="6"/>
+      <c r="U353" s="6"/>
+      <c r="V353" s="6"/>
+      <c r="W353" s="6"/>
+      <c r="X353" s="6"/>
+      <c r="Y353" s="7"/>
+      <c r="Z353" s="8"/>
+      <c r="AA353" s="6"/>
+      <c r="AB353" s="6"/>
+      <c r="AC353" s="6"/>
+      <c r="AD353" s="6"/>
+      <c r="AE353" s="6"/>
+      <c r="AF353" s="6"/>
+      <c r="AG353" s="6"/>
+      <c r="AH353" s="6"/>
+      <c r="AI353" s="6"/>
+      <c r="AJ353" s="7"/>
+    </row>
+    <row r="354" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B354" s="8"/>
+      <c r="C354" s="6"/>
+      <c r="D354" s="6"/>
+      <c r="E354" s="6"/>
+      <c r="F354" s="6"/>
+      <c r="G354" s="6"/>
+      <c r="H354" s="6"/>
+      <c r="I354" s="6"/>
+      <c r="J354" s="6"/>
+      <c r="K354" s="6"/>
+      <c r="L354" s="7"/>
+      <c r="O354" s="8"/>
+      <c r="P354" s="6"/>
+      <c r="Q354" s="6"/>
+      <c r="R354" s="6"/>
+      <c r="S354" s="6"/>
+      <c r="T354" s="6"/>
+      <c r="U354" s="6"/>
+      <c r="V354" s="6"/>
+      <c r="W354" s="6"/>
+      <c r="X354" s="6"/>
+      <c r="Y354" s="7"/>
+      <c r="Z354" s="8"/>
+      <c r="AA354" s="6"/>
+      <c r="AB354" s="6"/>
+      <c r="AC354" s="6"/>
+      <c r="AD354" s="6"/>
+      <c r="AE354" s="6"/>
+      <c r="AF354" s="6"/>
+      <c r="AG354" s="6"/>
+      <c r="AH354" s="6"/>
+      <c r="AI354" s="6"/>
+      <c r="AJ354" s="7"/>
+    </row>
+    <row r="355" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B355" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C355" s="6"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+      <c r="F355" s="6"/>
+      <c r="G355" s="6"/>
+      <c r="H355" s="6"/>
+      <c r="I355" s="6"/>
+      <c r="J355" s="6"/>
+      <c r="K355" s="6"/>
+      <c r="L355" s="7"/>
+      <c r="O355" s="8"/>
+      <c r="P355" s="6"/>
+      <c r="Q355" s="6"/>
+      <c r="R355" s="6"/>
+      <c r="S355" s="6"/>
+      <c r="T355" s="6"/>
+      <c r="U355" s="6"/>
+      <c r="V355" s="6"/>
+      <c r="W355" s="6"/>
+      <c r="X355" s="6"/>
+      <c r="Y355" s="7"/>
+      <c r="Z355" s="8"/>
+      <c r="AA355" s="6"/>
+      <c r="AB355" s="6"/>
+      <c r="AC355" s="6"/>
+      <c r="AD355" s="6"/>
+      <c r="AE355" s="6"/>
+      <c r="AF355" s="6"/>
+      <c r="AG355" s="6"/>
+      <c r="AH355" s="6"/>
+      <c r="AI355" s="6"/>
+      <c r="AJ355" s="7"/>
+    </row>
+    <row r="356" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B356" s="8"/>
+      <c r="C356" s="6"/>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
+      <c r="F356" s="6"/>
+      <c r="G356" s="6"/>
+      <c r="H356" s="6"/>
+      <c r="I356" s="6"/>
+      <c r="J356" s="6"/>
+      <c r="K356" s="6"/>
+      <c r="L356" s="7"/>
+      <c r="O356" s="8"/>
+      <c r="P356" s="6"/>
+      <c r="Q356" s="6"/>
+      <c r="R356" s="6"/>
+      <c r="S356" s="6"/>
+      <c r="T356" s="6"/>
+      <c r="U356" s="6"/>
+      <c r="V356" s="6"/>
+      <c r="W356" s="6"/>
+      <c r="X356" s="6"/>
+      <c r="Y356" s="7"/>
+      <c r="Z356" s="8"/>
+      <c r="AA356" s="6"/>
+      <c r="AB356" s="6"/>
+      <c r="AC356" s="6"/>
+      <c r="AD356" s="6"/>
+      <c r="AE356" s="6"/>
+      <c r="AF356" s="6"/>
+      <c r="AG356" s="6"/>
+      <c r="AH356" s="6"/>
+      <c r="AI356" s="6"/>
+      <c r="AJ356" s="7"/>
+    </row>
+    <row r="357" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B357" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C357" s="6"/>
+      <c r="D357" s="6"/>
+      <c r="E357" s="6"/>
+      <c r="F357" s="6"/>
+      <c r="G357" s="6"/>
+      <c r="H357" s="6"/>
+      <c r="I357" s="6"/>
+      <c r="J357" s="6"/>
+      <c r="K357" s="6"/>
+      <c r="L357" s="7"/>
+      <c r="O357" s="8"/>
+      <c r="P357" s="6"/>
+      <c r="Q357" s="6"/>
+      <c r="R357" s="6"/>
+      <c r="S357" s="6"/>
+      <c r="T357" s="6"/>
+      <c r="U357" s="6"/>
+      <c r="V357" s="6"/>
+      <c r="W357" s="6"/>
+      <c r="X357" s="6"/>
+      <c r="Y357" s="7"/>
+      <c r="Z357" s="8"/>
+      <c r="AA357" s="6"/>
+      <c r="AB357" s="6"/>
+      <c r="AC357" s="6"/>
+      <c r="AD357" s="6"/>
+      <c r="AE357" s="6"/>
+      <c r="AF357" s="6"/>
+      <c r="AG357" s="6"/>
+      <c r="AH357" s="6"/>
+      <c r="AI357" s="6"/>
+      <c r="AJ357" s="7"/>
+    </row>
+    <row r="358" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B358" s="8"/>
+      <c r="C358" s="6"/>
+      <c r="D358" s="6"/>
+      <c r="E358" s="6"/>
+      <c r="F358" s="6"/>
+      <c r="G358" s="6"/>
+      <c r="H358" s="6"/>
+      <c r="I358" s="6"/>
+      <c r="J358" s="6"/>
+      <c r="K358" s="6"/>
+      <c r="L358" s="7"/>
+      <c r="O358" s="8"/>
+      <c r="P358" s="6"/>
+      <c r="Q358" s="6"/>
+      <c r="R358" s="6"/>
+      <c r="S358" s="6"/>
+      <c r="T358" s="6"/>
+      <c r="U358" s="6"/>
+      <c r="V358" s="6"/>
+      <c r="W358" s="6"/>
+      <c r="X358" s="6"/>
+      <c r="Y358" s="7"/>
+      <c r="Z358" s="8"/>
+      <c r="AA358" s="6"/>
+      <c r="AB358" s="6"/>
+      <c r="AC358" s="6"/>
+      <c r="AD358" s="6"/>
+      <c r="AE358" s="6"/>
+      <c r="AF358" s="6"/>
+      <c r="AG358" s="6"/>
+      <c r="AH358" s="6"/>
+      <c r="AI358" s="6"/>
+      <c r="AJ358" s="7"/>
+    </row>
+    <row r="359" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B359" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C359" s="6"/>
+      <c r="D359" s="6"/>
+      <c r="E359" s="6"/>
+      <c r="F359" s="6"/>
+      <c r="G359" s="6"/>
+      <c r="H359" s="6"/>
+      <c r="I359" s="6"/>
+      <c r="J359" s="6"/>
+      <c r="K359" s="6"/>
+      <c r="L359" s="7"/>
+      <c r="O359" s="8"/>
+      <c r="P359" s="6"/>
+      <c r="Q359" s="6"/>
+      <c r="R359" s="6"/>
+      <c r="S359" s="6"/>
+      <c r="T359" s="6"/>
+      <c r="U359" s="6"/>
+      <c r="V359" s="6"/>
+      <c r="W359" s="6"/>
+      <c r="X359" s="6"/>
+      <c r="Y359" s="7"/>
+      <c r="Z359" s="8"/>
+      <c r="AA359" s="6"/>
+      <c r="AB359" s="6"/>
+      <c r="AC359" s="6"/>
+      <c r="AD359" s="6"/>
+      <c r="AE359" s="6"/>
+      <c r="AF359" s="6"/>
+      <c r="AG359" s="6"/>
+      <c r="AH359" s="6"/>
+      <c r="AI359" s="6"/>
+      <c r="AJ359" s="7"/>
+    </row>
+    <row r="360" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B360" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C360" s="6"/>
+      <c r="D360" s="6"/>
+      <c r="E360" s="6"/>
+      <c r="F360" s="6"/>
+      <c r="G360" s="6"/>
+      <c r="H360" s="6"/>
+      <c r="I360" s="6"/>
+      <c r="J360" s="6"/>
+      <c r="K360" s="6"/>
+      <c r="L360" s="7"/>
+      <c r="O360" s="8"/>
+      <c r="P360" s="6"/>
+      <c r="Q360" s="6"/>
+      <c r="R360" s="6"/>
+      <c r="S360" s="6"/>
+      <c r="T360" s="6"/>
+      <c r="U360" s="6"/>
+      <c r="V360" s="6"/>
+      <c r="W360" s="6"/>
+      <c r="X360" s="6"/>
+      <c r="Y360" s="7"/>
+      <c r="Z360" s="8"/>
+      <c r="AA360" s="6"/>
+      <c r="AB360" s="6"/>
+      <c r="AC360" s="6"/>
+      <c r="AD360" s="6"/>
+      <c r="AE360" s="6"/>
+      <c r="AF360" s="6"/>
+      <c r="AG360" s="6"/>
+      <c r="AH360" s="6"/>
+      <c r="AI360" s="6"/>
+      <c r="AJ360" s="7"/>
+    </row>
+    <row r="361" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B361" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C361" s="6"/>
+      <c r="D361" s="6"/>
+      <c r="E361" s="6"/>
+      <c r="F361" s="6"/>
+      <c r="G361" s="6"/>
+      <c r="H361" s="6"/>
+      <c r="I361" s="6"/>
+      <c r="J361" s="6"/>
+      <c r="K361" s="6"/>
+      <c r="L361" s="7"/>
+      <c r="O361" s="8"/>
+      <c r="P361" s="6"/>
+      <c r="Q361" s="6"/>
+      <c r="R361" s="6"/>
+      <c r="S361" s="6"/>
+      <c r="T361" s="6"/>
+      <c r="U361" s="6"/>
+      <c r="V361" s="6"/>
+      <c r="W361" s="6"/>
+      <c r="X361" s="6"/>
+      <c r="Y361" s="7"/>
+      <c r="Z361" s="8"/>
+      <c r="AA361" s="6"/>
+      <c r="AB361" s="6"/>
+      <c r="AC361" s="6"/>
+      <c r="AD361" s="6"/>
+      <c r="AE361" s="6"/>
+      <c r="AF361" s="6"/>
+      <c r="AG361" s="6"/>
+      <c r="AH361" s="6"/>
+      <c r="AI361" s="6"/>
+      <c r="AJ361" s="7"/>
+    </row>
+    <row r="362" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B362" s="8"/>
+      <c r="C362" s="6"/>
+      <c r="D362" s="6"/>
+      <c r="E362" s="6"/>
+      <c r="F362" s="6"/>
+      <c r="G362" s="6"/>
+      <c r="H362" s="6"/>
+      <c r="I362" s="6"/>
+      <c r="J362" s="6"/>
+      <c r="K362" s="6"/>
+      <c r="L362" s="7"/>
+      <c r="O362" s="8"/>
+      <c r="P362" s="6"/>
+      <c r="Q362" s="6"/>
+      <c r="R362" s="6"/>
+      <c r="S362" s="6"/>
+      <c r="T362" s="6"/>
+      <c r="U362" s="6"/>
+      <c r="V362" s="6"/>
+      <c r="W362" s="6"/>
+      <c r="X362" s="6"/>
+      <c r="Y362" s="7"/>
+      <c r="Z362" s="8"/>
+      <c r="AA362" s="6"/>
+      <c r="AB362" s="6"/>
+      <c r="AC362" s="6"/>
+      <c r="AD362" s="6"/>
+      <c r="AE362" s="6"/>
+      <c r="AF362" s="6"/>
+      <c r="AG362" s="6"/>
+      <c r="AH362" s="6"/>
+      <c r="AI362" s="6"/>
+      <c r="AJ362" s="7"/>
+    </row>
+    <row r="363" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B363" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C363" s="6"/>
+      <c r="D363" s="6"/>
+      <c r="E363" s="6"/>
+      <c r="F363" s="6"/>
+      <c r="G363" s="6"/>
+      <c r="H363" s="6"/>
+      <c r="I363" s="6"/>
+      <c r="J363" s="6"/>
+      <c r="K363" s="6"/>
+      <c r="L363" s="7"/>
+      <c r="O363" s="8"/>
+      <c r="P363" s="6"/>
+      <c r="Q363" s="6"/>
+      <c r="R363" s="6"/>
+      <c r="S363" s="6"/>
+      <c r="T363" s="6"/>
+      <c r="U363" s="6"/>
+      <c r="V363" s="6"/>
+      <c r="W363" s="6"/>
+      <c r="X363" s="6"/>
+      <c r="Y363" s="7"/>
+      <c r="Z363" s="8"/>
+      <c r="AA363" s="6"/>
+      <c r="AB363" s="6"/>
+      <c r="AC363" s="6"/>
+      <c r="AD363" s="6"/>
+      <c r="AE363" s="6"/>
+      <c r="AF363" s="6"/>
+      <c r="AG363" s="6"/>
+      <c r="AH363" s="6"/>
+      <c r="AI363" s="6"/>
+      <c r="AJ363" s="7"/>
+    </row>
+    <row r="364" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B364" s="8"/>
+      <c r="C364" s="6"/>
+      <c r="D364" s="6"/>
+      <c r="E364" s="6"/>
+      <c r="F364" s="6"/>
+      <c r="G364" s="6"/>
+      <c r="H364" s="6"/>
+      <c r="I364" s="6"/>
+      <c r="J364" s="6"/>
+      <c r="K364" s="6"/>
+      <c r="L364" s="7"/>
+      <c r="O364" s="8"/>
+      <c r="P364" s="6"/>
+      <c r="Q364" s="6"/>
+      <c r="R364" s="6"/>
+      <c r="S364" s="6"/>
+      <c r="T364" s="6"/>
+      <c r="U364" s="6"/>
+      <c r="V364" s="6"/>
+      <c r="W364" s="6"/>
+      <c r="X364" s="6"/>
+      <c r="Y364" s="7"/>
+      <c r="Z364" s="8"/>
+      <c r="AA364" s="6"/>
+      <c r="AB364" s="6"/>
+      <c r="AC364" s="6"/>
+      <c r="AD364" s="6"/>
+      <c r="AE364" s="6"/>
+      <c r="AF364" s="6"/>
+      <c r="AG364" s="6"/>
+      <c r="AH364" s="6"/>
+      <c r="AI364" s="6"/>
+      <c r="AJ364" s="7"/>
+    </row>
+    <row r="365" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B365" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C365" s="6"/>
+      <c r="D365" s="6"/>
+      <c r="E365" s="6"/>
+      <c r="F365" s="6"/>
+      <c r="G365" s="6"/>
+      <c r="H365" s="6"/>
+      <c r="I365" s="6"/>
+      <c r="J365" s="6"/>
+      <c r="K365" s="6"/>
+      <c r="L365" s="7"/>
+      <c r="O365" s="8"/>
+      <c r="P365" s="6"/>
+      <c r="Q365" s="6"/>
+      <c r="R365" s="6"/>
+      <c r="S365" s="6"/>
+      <c r="T365" s="6"/>
+      <c r="U365" s="6"/>
+      <c r="V365" s="6"/>
+      <c r="W365" s="6"/>
+      <c r="X365" s="6"/>
+      <c r="Y365" s="7"/>
+      <c r="Z365" s="8"/>
+      <c r="AA365" s="6"/>
+      <c r="AB365" s="6"/>
+      <c r="AC365" s="6"/>
+      <c r="AD365" s="6"/>
+      <c r="AE365" s="6"/>
+      <c r="AF365" s="6"/>
+      <c r="AG365" s="6"/>
+      <c r="AH365" s="6"/>
+      <c r="AI365" s="6"/>
+      <c r="AJ365" s="7"/>
+    </row>
+    <row r="366" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B366" s="8"/>
+      <c r="C366" s="6"/>
+      <c r="D366" s="6"/>
+      <c r="E366" s="6"/>
+      <c r="F366" s="6"/>
+      <c r="G366" s="6"/>
+      <c r="H366" s="6"/>
+      <c r="I366" s="6"/>
+      <c r="J366" s="6"/>
+      <c r="K366" s="6"/>
+      <c r="L366" s="7"/>
+      <c r="O366" s="8"/>
+      <c r="P366" s="6"/>
+      <c r="Q366" s="6"/>
+      <c r="R366" s="6"/>
+      <c r="S366" s="6"/>
+      <c r="T366" s="6"/>
+      <c r="U366" s="6"/>
+      <c r="V366" s="6"/>
+      <c r="W366" s="6"/>
+      <c r="X366" s="6"/>
+      <c r="Y366" s="7"/>
+      <c r="Z366" s="8"/>
+      <c r="AA366" s="6"/>
+      <c r="AB366" s="6"/>
+      <c r="AC366" s="6"/>
+      <c r="AD366" s="6"/>
+      <c r="AE366" s="6"/>
+      <c r="AF366" s="6"/>
+      <c r="AG366" s="6"/>
+      <c r="AH366" s="6"/>
+      <c r="AI366" s="6"/>
+      <c r="AJ366" s="7"/>
+    </row>
+    <row r="367" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B367" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C367" s="6"/>
+      <c r="D367" s="6"/>
+      <c r="E367" s="6"/>
+      <c r="F367" s="6"/>
+      <c r="G367" s="6"/>
+      <c r="H367" s="6"/>
+      <c r="I367" s="6"/>
+      <c r="J367" s="6"/>
+      <c r="K367" s="6"/>
+      <c r="L367" s="7"/>
+      <c r="O367" s="8"/>
+      <c r="P367" s="6"/>
+      <c r="Q367" s="6"/>
+      <c r="R367" s="6"/>
+      <c r="S367" s="6"/>
+      <c r="T367" s="6"/>
+      <c r="U367" s="6"/>
+      <c r="V367" s="6"/>
+      <c r="W367" s="6"/>
+      <c r="X367" s="6"/>
+      <c r="Y367" s="7"/>
+      <c r="Z367" s="8"/>
+      <c r="AA367" s="6"/>
+      <c r="AB367" s="6"/>
+      <c r="AC367" s="6"/>
+      <c r="AD367" s="6"/>
+      <c r="AE367" s="6"/>
+      <c r="AF367" s="6"/>
+      <c r="AG367" s="6"/>
+      <c r="AH367" s="6"/>
+      <c r="AI367" s="6"/>
+      <c r="AJ367" s="7"/>
+    </row>
+    <row r="368" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B368" s="8"/>
+      <c r="C368" s="6"/>
+      <c r="D368" s="6"/>
+      <c r="E368" s="6"/>
+      <c r="F368" s="6"/>
+      <c r="G368" s="6"/>
+      <c r="H368" s="6"/>
+      <c r="I368" s="6"/>
+      <c r="J368" s="6"/>
+      <c r="K368" s="6"/>
+      <c r="L368" s="7"/>
+      <c r="O368" s="8"/>
+      <c r="P368" s="6"/>
+      <c r="Q368" s="6"/>
+      <c r="R368" s="6"/>
+      <c r="S368" s="6"/>
+      <c r="T368" s="6"/>
+      <c r="U368" s="6"/>
+      <c r="V368" s="6"/>
+      <c r="W368" s="6"/>
+      <c r="X368" s="6"/>
+      <c r="Y368" s="7"/>
+      <c r="Z368" s="8"/>
+      <c r="AA368" s="6"/>
+      <c r="AB368" s="6"/>
+      <c r="AC368" s="6"/>
+      <c r="AD368" s="6"/>
+      <c r="AE368" s="6"/>
+      <c r="AF368" s="6"/>
+      <c r="AG368" s="6"/>
+      <c r="AH368" s="6"/>
+      <c r="AI368" s="6"/>
+      <c r="AJ368" s="7"/>
+    </row>
+    <row r="369" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B369" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C369" s="10"/>
+      <c r="D369" s="10"/>
+      <c r="E369" s="10"/>
+      <c r="F369" s="10"/>
+      <c r="G369" s="10"/>
+      <c r="H369" s="10"/>
+      <c r="I369" s="10"/>
+      <c r="J369" s="10"/>
+      <c r="K369" s="10"/>
+      <c r="L369" s="11"/>
+      <c r="O369" s="9"/>
+      <c r="P369" s="10"/>
+      <c r="Q369" s="10"/>
+      <c r="R369" s="10"/>
+      <c r="S369" s="10"/>
+      <c r="T369" s="10"/>
+      <c r="U369" s="10"/>
+      <c r="V369" s="10"/>
+      <c r="W369" s="10"/>
+      <c r="X369" s="10"/>
+      <c r="Y369" s="11"/>
+      <c r="Z369" s="9"/>
+      <c r="AA369" s="10"/>
+      <c r="AB369" s="10"/>
+      <c r="AC369" s="10"/>
+      <c r="AD369" s="10"/>
+      <c r="AE369" s="10"/>
+      <c r="AF369" s="10"/>
+      <c r="AG369" s="10"/>
+      <c r="AH369" s="10"/>
+      <c r="AI369" s="10"/>
+      <c r="AJ369" s="11"/>
+    </row>
+    <row r="372" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="374" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B374" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C374" s="3"/>
+      <c r="D374" s="3"/>
+      <c r="E374" s="3"/>
+      <c r="F374" s="3"/>
+      <c r="G374" s="3"/>
+      <c r="H374" s="3"/>
+      <c r="I374" s="3"/>
+      <c r="J374" s="3"/>
+      <c r="K374" s="3"/>
+      <c r="L374" s="3"/>
+      <c r="M374" s="4"/>
+    </row>
+    <row r="375" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B375" s="8"/>
+      <c r="C375" s="6"/>
+      <c r="D375" s="6"/>
+      <c r="E375" s="6"/>
+      <c r="F375" s="6"/>
+      <c r="G375" s="6"/>
+      <c r="H375" s="6"/>
+      <c r="I375" s="6"/>
+      <c r="J375" s="6"/>
+      <c r="K375" s="6"/>
+      <c r="L375" s="6"/>
+      <c r="M375" s="7"/>
+    </row>
+    <row r="376" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B376" s="8"/>
+      <c r="C376" s="6"/>
+      <c r="D376" s="6"/>
+      <c r="E376" s="6"/>
+      <c r="F376" s="6"/>
+      <c r="G376" s="6"/>
+      <c r="H376" s="6"/>
+      <c r="I376" s="6"/>
+      <c r="J376" s="6"/>
+      <c r="K376" s="6"/>
+      <c r="L376" s="6"/>
+      <c r="M376" s="7"/>
+    </row>
+    <row r="377" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B377" s="8"/>
+      <c r="C377" s="6"/>
+      <c r="D377" s="6"/>
+      <c r="E377" s="6"/>
+      <c r="F377" s="6"/>
+      <c r="G377" s="6"/>
+      <c r="H377" s="6"/>
+      <c r="I377" s="6"/>
+      <c r="J377" s="6"/>
+      <c r="K377" s="6"/>
+      <c r="L377" s="6"/>
+      <c r="M377" s="7"/>
+    </row>
+    <row r="378" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B378" s="8"/>
+      <c r="C378" s="6"/>
+      <c r="D378" s="6"/>
+      <c r="E378" s="6"/>
+      <c r="F378" s="6"/>
+      <c r="G378" s="6"/>
+      <c r="H378" s="6"/>
+      <c r="I378" s="6"/>
+      <c r="J378" s="6"/>
+      <c r="K378" s="6"/>
+      <c r="L378" s="6"/>
+      <c r="M378" s="7"/>
+    </row>
+    <row r="379" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B379" s="8"/>
+      <c r="C379" s="6"/>
+      <c r="D379" s="6"/>
+      <c r="E379" s="6"/>
+      <c r="F379" s="6"/>
+      <c r="G379" s="6"/>
+      <c r="H379" s="6"/>
+      <c r="I379" s="6"/>
+      <c r="J379" s="6"/>
+      <c r="K379" s="6"/>
+      <c r="L379" s="6"/>
+      <c r="M379" s="7"/>
+    </row>
+    <row r="380" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B380" s="8"/>
+      <c r="C380" s="6"/>
+      <c r="D380" s="6"/>
+      <c r="E380" s="6"/>
+      <c r="F380" s="6"/>
+      <c r="G380" s="6"/>
+      <c r="H380" s="6"/>
+      <c r="I380" s="6"/>
+      <c r="J380" s="6"/>
+      <c r="K380" s="6"/>
+      <c r="L380" s="6"/>
+      <c r="M380" s="7"/>
+    </row>
+    <row r="381" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B381" s="8"/>
+      <c r="C381" s="6"/>
+      <c r="D381" s="6"/>
+      <c r="E381" s="6"/>
+      <c r="F381" s="6"/>
+      <c r="G381" s="6"/>
+      <c r="H381" s="6"/>
+      <c r="I381" s="6"/>
+      <c r="J381" s="6"/>
+      <c r="K381" s="6"/>
+      <c r="L381" s="6"/>
+      <c r="M381" s="7"/>
+    </row>
+    <row r="382" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B382" s="8"/>
+      <c r="C382" s="6"/>
+      <c r="D382" s="6"/>
+      <c r="E382" s="6"/>
+      <c r="F382" s="6"/>
+      <c r="G382" s="6"/>
+      <c r="H382" s="6"/>
+      <c r="I382" s="6"/>
+      <c r="J382" s="6"/>
+      <c r="K382" s="6"/>
+      <c r="L382" s="6"/>
+      <c r="M382" s="7"/>
+    </row>
+    <row r="383" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B383" s="8"/>
+      <c r="C383" s="6"/>
+      <c r="D383" s="6"/>
+      <c r="E383" s="6"/>
+      <c r="F383" s="6"/>
+      <c r="G383" s="6"/>
+      <c r="H383" s="6"/>
+      <c r="I383" s="6"/>
+      <c r="J383" s="6"/>
+      <c r="K383" s="6"/>
+      <c r="L383" s="6"/>
+      <c r="M383" s="7"/>
+    </row>
+    <row r="384" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B384" s="8"/>
+      <c r="C384" s="6"/>
+      <c r="D384" s="6"/>
+      <c r="E384" s="6"/>
+      <c r="F384" s="6"/>
+      <c r="G384" s="6"/>
+      <c r="H384" s="6"/>
+      <c r="I384" s="6"/>
+      <c r="J384" s="6"/>
+      <c r="K384" s="6"/>
+      <c r="L384" s="6"/>
+      <c r="M384" s="7"/>
+    </row>
+    <row r="385" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B385" s="8"/>
+      <c r="C385" s="6"/>
+      <c r="D385" s="6"/>
+      <c r="E385" s="6"/>
+      <c r="F385" s="6"/>
+      <c r="G385" s="6"/>
+      <c r="H385" s="6"/>
+      <c r="I385" s="6"/>
+      <c r="J385" s="6"/>
+      <c r="K385" s="6"/>
+      <c r="L385" s="6"/>
+      <c r="M385" s="7"/>
+    </row>
+    <row r="386" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B386" s="8"/>
+      <c r="C386" s="6"/>
+      <c r="D386" s="6"/>
+      <c r="E386" s="6"/>
+      <c r="F386" s="6"/>
+      <c r="G386" s="6"/>
+      <c r="H386" s="6"/>
+      <c r="I386" s="6"/>
+      <c r="J386" s="6"/>
+      <c r="K386" s="6"/>
+      <c r="L386" s="6"/>
+      <c r="M386" s="7"/>
+    </row>
+    <row r="387" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B387" s="8"/>
+      <c r="C387" s="6"/>
+      <c r="D387" s="6"/>
+      <c r="E387" s="6"/>
+      <c r="F387" s="6"/>
+      <c r="G387" s="6"/>
+      <c r="H387" s="6"/>
+      <c r="I387" s="6"/>
+      <c r="J387" s="6"/>
+      <c r="K387" s="6"/>
+      <c r="L387" s="6"/>
+      <c r="M387" s="7"/>
+    </row>
+    <row r="388" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B388" s="8"/>
+      <c r="C388" s="6"/>
+      <c r="D388" s="6"/>
+      <c r="E388" s="6"/>
+      <c r="F388" s="6"/>
+      <c r="G388" s="6"/>
+      <c r="H388" s="6"/>
+      <c r="I388" s="6"/>
+      <c r="J388" s="6"/>
+      <c r="K388" s="6"/>
+      <c r="L388" s="6"/>
+      <c r="M388" s="7"/>
+    </row>
+    <row r="389" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B389" s="8"/>
+      <c r="C389" s="6"/>
+      <c r="D389" s="6"/>
+      <c r="E389" s="6"/>
+      <c r="F389" s="6"/>
+      <c r="G389" s="6"/>
+      <c r="H389" s="6"/>
+      <c r="I389" s="6"/>
+      <c r="J389" s="6"/>
+      <c r="K389" s="6"/>
+      <c r="L389" s="6"/>
+      <c r="M389" s="7"/>
+    </row>
+    <row r="390" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B390" s="8"/>
+      <c r="C390" s="6"/>
+      <c r="D390" s="6"/>
+      <c r="E390" s="6"/>
+      <c r="F390" s="6"/>
+      <c r="G390" s="6"/>
+      <c r="H390" s="6"/>
+      <c r="I390" s="6"/>
+      <c r="J390" s="6"/>
+      <c r="K390" s="6"/>
+      <c r="L390" s="6"/>
+      <c r="M390" s="7"/>
+    </row>
+    <row r="391" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B391" s="8"/>
+      <c r="C391" s="6"/>
+      <c r="D391" s="6"/>
+      <c r="E391" s="6"/>
+      <c r="F391" s="6"/>
+      <c r="G391" s="6"/>
+      <c r="H391" s="6"/>
+      <c r="I391" s="6"/>
+      <c r="J391" s="6"/>
+      <c r="K391" s="6"/>
+      <c r="L391" s="6"/>
+      <c r="M391" s="7"/>
+    </row>
+    <row r="392" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B392" s="8"/>
+      <c r="C392" s="6"/>
+      <c r="D392" s="6"/>
+      <c r="E392" s="6"/>
+      <c r="F392" s="6"/>
+      <c r="G392" s="6"/>
+      <c r="H392" s="6"/>
+      <c r="I392" s="6"/>
+      <c r="J392" s="6"/>
+      <c r="K392" s="6"/>
+      <c r="L392" s="6"/>
+      <c r="M392" s="7"/>
+    </row>
+    <row r="393" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B393" s="9"/>
+      <c r="C393" s="10"/>
+      <c r="D393" s="10"/>
+      <c r="E393" s="10"/>
+      <c r="F393" s="10"/>
+      <c r="G393" s="10"/>
+      <c r="H393" s="10"/>
+      <c r="I393" s="10"/>
+      <c r="J393" s="10"/>
+      <c r="K393" s="10"/>
+      <c r="L393" s="10"/>
+      <c r="M393" s="11"/>
+    </row>
+    <row r="396" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B396" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C396" s="3"/>
+      <c r="D396" s="3"/>
+      <c r="E396" s="3"/>
+      <c r="F396" s="3"/>
+      <c r="G396" s="3"/>
+      <c r="H396" s="3"/>
+      <c r="I396" s="3"/>
+      <c r="J396" s="3"/>
+      <c r="K396" s="3"/>
+      <c r="L396" s="4"/>
+    </row>
+    <row r="397" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B397" s="8"/>
+      <c r="C397" s="6"/>
+      <c r="D397" s="6"/>
+      <c r="E397" s="6"/>
+      <c r="F397" s="6"/>
+      <c r="G397" s="6"/>
+      <c r="H397" s="6"/>
+      <c r="I397" s="6"/>
+      <c r="J397" s="6"/>
+      <c r="K397" s="6"/>
+      <c r="L397" s="7"/>
+    </row>
+    <row r="398" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B398" s="8"/>
+      <c r="C398" s="6"/>
+      <c r="D398" s="6"/>
+      <c r="E398" s="6"/>
+      <c r="F398" s="6"/>
+      <c r="G398" s="6"/>
+      <c r="H398" s="6"/>
+      <c r="I398" s="6"/>
+      <c r="J398" s="6"/>
+      <c r="K398" s="6"/>
+      <c r="L398" s="7"/>
+    </row>
+    <row r="399" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B399" s="8"/>
+      <c r="C399" s="6"/>
+      <c r="D399" s="6"/>
+      <c r="E399" s="6"/>
+      <c r="F399" s="6"/>
+      <c r="G399" s="6"/>
+      <c r="H399" s="6"/>
+      <c r="I399" s="6"/>
+      <c r="J399" s="6"/>
+      <c r="K399" s="6"/>
+      <c r="L399" s="7"/>
+    </row>
+    <row r="400" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B400" s="8"/>
+      <c r="C400" s="6"/>
+      <c r="D400" s="6"/>
+      <c r="E400" s="6"/>
+      <c r="F400" s="6"/>
+      <c r="G400" s="6"/>
+      <c r="H400" s="6"/>
+      <c r="I400" s="6"/>
+      <c r="J400" s="6"/>
+      <c r="K400" s="6"/>
+      <c r="L400" s="7"/>
+    </row>
+    <row r="401" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B401" s="8"/>
+      <c r="C401" s="6"/>
+      <c r="D401" s="6"/>
+      <c r="E401" s="6"/>
+      <c r="F401" s="6"/>
+      <c r="G401" s="6"/>
+      <c r="H401" s="6"/>
+      <c r="I401" s="6"/>
+      <c r="J401" s="6"/>
+      <c r="K401" s="6"/>
+      <c r="L401" s="7"/>
+    </row>
+    <row r="402" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B402" s="8"/>
+      <c r="C402" s="6"/>
+      <c r="D402" s="6"/>
+      <c r="E402" s="6"/>
+      <c r="F402" s="6"/>
+      <c r="G402" s="6"/>
+      <c r="H402" s="6"/>
+      <c r="I402" s="6"/>
+      <c r="J402" s="6"/>
+      <c r="K402" s="6"/>
+      <c r="L402" s="7"/>
+    </row>
+    <row r="403" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B403" s="8"/>
+      <c r="C403" s="6"/>
+      <c r="D403" s="6"/>
+      <c r="E403" s="6"/>
+      <c r="F403" s="6"/>
+      <c r="G403" s="6"/>
+      <c r="H403" s="6"/>
+      <c r="I403" s="6"/>
+      <c r="J403" s="6"/>
+      <c r="K403" s="6"/>
+      <c r="L403" s="7"/>
+    </row>
+    <row r="404" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B404" s="8"/>
+      <c r="C404" s="6"/>
+      <c r="D404" s="6"/>
+      <c r="E404" s="6"/>
+      <c r="F404" s="6"/>
+      <c r="G404" s="6"/>
+      <c r="H404" s="6"/>
+      <c r="I404" s="6"/>
+      <c r="J404" s="6"/>
+      <c r="K404" s="6"/>
+      <c r="L404" s="7"/>
+    </row>
+    <row r="405" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B405" s="8"/>
+      <c r="C405" s="6"/>
+      <c r="D405" s="6"/>
+      <c r="E405" s="6"/>
+      <c r="F405" s="6"/>
+      <c r="G405" s="6"/>
+      <c r="H405" s="6"/>
+      <c r="I405" s="6"/>
+      <c r="J405" s="6"/>
+      <c r="K405" s="6"/>
+      <c r="L405" s="7"/>
+    </row>
+    <row r="406" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B406" s="8"/>
+      <c r="C406" s="6"/>
+      <c r="D406" s="6"/>
+      <c r="E406" s="6"/>
+      <c r="F406" s="6"/>
+      <c r="G406" s="6"/>
+      <c r="H406" s="6"/>
+      <c r="I406" s="6"/>
+      <c r="J406" s="6"/>
+      <c r="K406" s="6"/>
+      <c r="L406" s="7"/>
+    </row>
+    <row r="407" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B407" s="8"/>
+      <c r="C407" s="6"/>
+      <c r="D407" s="6"/>
+      <c r="E407" s="6"/>
+      <c r="F407" s="6"/>
+      <c r="G407" s="6"/>
+      <c r="H407" s="6"/>
+      <c r="I407" s="6"/>
+      <c r="J407" s="6"/>
+      <c r="K407" s="6"/>
+      <c r="L407" s="7"/>
+    </row>
+    <row r="408" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B408" s="8"/>
+      <c r="C408" s="6"/>
+      <c r="D408" s="6"/>
+      <c r="E408" s="6"/>
+      <c r="F408" s="6"/>
+      <c r="G408" s="6"/>
+      <c r="H408" s="6"/>
+      <c r="I408" s="6"/>
+      <c r="J408" s="6"/>
+      <c r="K408" s="6"/>
+      <c r="L408" s="7"/>
+    </row>
+    <row r="409" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B409" s="8"/>
+      <c r="C409" s="6"/>
+      <c r="D409" s="6"/>
+      <c r="E409" s="6"/>
+      <c r="F409" s="6"/>
+      <c r="G409" s="6"/>
+      <c r="H409" s="6"/>
+      <c r="I409" s="6"/>
+      <c r="J409" s="6"/>
+      <c r="K409" s="6"/>
+      <c r="L409" s="7"/>
+    </row>
+    <row r="410" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B410" s="8"/>
+      <c r="C410" s="6"/>
+      <c r="D410" s="6"/>
+      <c r="E410" s="6"/>
+      <c r="F410" s="6"/>
+      <c r="G410" s="6"/>
+      <c r="H410" s="6"/>
+      <c r="I410" s="6"/>
+      <c r="J410" s="6"/>
+      <c r="K410" s="6"/>
+      <c r="L410" s="7"/>
+    </row>
+    <row r="411" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B411" s="8"/>
+      <c r="C411" s="6"/>
+      <c r="D411" s="6"/>
+      <c r="E411" s="6"/>
+      <c r="F411" s="6"/>
+      <c r="G411" s="6"/>
+      <c r="H411" s="6"/>
+      <c r="I411" s="6"/>
+      <c r="J411" s="6"/>
+      <c r="K411" s="6"/>
+      <c r="L411" s="7"/>
+    </row>
+    <row r="412" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B412" s="8"/>
+      <c r="C412" s="6"/>
+      <c r="D412" s="6"/>
+      <c r="E412" s="6"/>
+      <c r="F412" s="6"/>
+      <c r="G412" s="6"/>
+      <c r="H412" s="6"/>
+      <c r="I412" s="6"/>
+      <c r="J412" s="6"/>
+      <c r="K412" s="6"/>
+      <c r="L412" s="7"/>
+    </row>
+    <row r="413" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B413" s="8"/>
+      <c r="C413" s="6"/>
+      <c r="D413" s="6"/>
+      <c r="E413" s="6"/>
+      <c r="F413" s="6"/>
+      <c r="G413" s="6"/>
+      <c r="H413" s="6"/>
+      <c r="I413" s="6"/>
+      <c r="J413" s="6"/>
+      <c r="K413" s="6"/>
+      <c r="L413" s="7"/>
+    </row>
+    <row r="414" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B414" s="8"/>
+      <c r="C414" s="6"/>
+      <c r="D414" s="6"/>
+      <c r="E414" s="6"/>
+      <c r="F414" s="6"/>
+      <c r="G414" s="6"/>
+      <c r="H414" s="6"/>
+      <c r="I414" s="6"/>
+      <c r="J414" s="6"/>
+      <c r="K414" s="6"/>
+      <c r="L414" s="7"/>
+    </row>
+    <row r="415" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B415" s="8"/>
+      <c r="C415" s="6"/>
+      <c r="D415" s="6"/>
+      <c r="E415" s="6"/>
+      <c r="F415" s="6"/>
+      <c r="G415" s="6"/>
+      <c r="H415" s="6"/>
+      <c r="I415" s="6"/>
+      <c r="J415" s="6"/>
+      <c r="K415" s="6"/>
+      <c r="L415" s="7"/>
+    </row>
+    <row r="416" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B416" s="8"/>
+      <c r="C416" s="6"/>
+      <c r="D416" s="6"/>
+      <c r="E416" s="6"/>
+      <c r="F416" s="6"/>
+      <c r="G416" s="6"/>
+      <c r="H416" s="6"/>
+      <c r="I416" s="6"/>
+      <c r="J416" s="6"/>
+      <c r="K416" s="6"/>
+      <c r="L416" s="7"/>
+    </row>
+    <row r="417" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B417" s="9"/>
+      <c r="C417" s="10"/>
+      <c r="D417" s="10"/>
+      <c r="E417" s="10"/>
+      <c r="F417" s="10"/>
+      <c r="G417" s="10"/>
+      <c r="H417" s="10"/>
+      <c r="I417" s="10"/>
+      <c r="J417" s="10"/>
+      <c r="K417" s="10"/>
+      <c r="L417" s="11"/>
+    </row>
+    <row r="420" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B420" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C420" s="3"/>
+      <c r="D420" s="3"/>
+      <c r="E420" s="3"/>
+      <c r="F420" s="3"/>
+      <c r="G420" s="3"/>
+      <c r="H420" s="3"/>
+      <c r="I420" s="3"/>
+      <c r="J420" s="3"/>
+      <c r="K420" s="3"/>
+      <c r="L420" s="3"/>
+      <c r="M420" s="3"/>
+      <c r="N420" s="3"/>
+      <c r="O420" s="3"/>
+      <c r="P420" s="3"/>
+      <c r="Q420" s="3"/>
+      <c r="R420" s="4"/>
+    </row>
+    <row r="421" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B421" s="8"/>
+      <c r="C421" s="6"/>
+      <c r="D421" s="6"/>
+      <c r="E421" s="6"/>
+      <c r="F421" s="6"/>
+      <c r="G421" s="6"/>
+      <c r="H421" s="6"/>
+      <c r="I421" s="6"/>
+      <c r="J421" s="6"/>
+      <c r="K421" s="6"/>
+      <c r="L421" s="6"/>
+      <c r="M421" s="6"/>
+      <c r="N421" s="6"/>
+      <c r="O421" s="6"/>
+      <c r="P421" s="6"/>
+      <c r="Q421" s="6"/>
+      <c r="R421" s="7"/>
+    </row>
+    <row r="422" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B422" s="8"/>
+      <c r="C422" s="6"/>
+      <c r="D422" s="6"/>
+      <c r="E422" s="6"/>
+      <c r="F422" s="6"/>
+      <c r="G422" s="6"/>
+      <c r="H422" s="6"/>
+      <c r="I422" s="6"/>
+      <c r="J422" s="6"/>
+      <c r="K422" s="6"/>
+      <c r="L422" s="6"/>
+      <c r="M422" s="6"/>
+      <c r="N422" s="6"/>
+      <c r="O422" s="6"/>
+      <c r="P422" s="6"/>
+      <c r="Q422" s="6"/>
+      <c r="R422" s="7"/>
+    </row>
+    <row r="423" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B423" s="8"/>
+      <c r="C423" s="6"/>
+      <c r="D423" s="6"/>
+      <c r="E423" s="6"/>
+      <c r="F423" s="6"/>
+      <c r="G423" s="6"/>
+      <c r="H423" s="6"/>
+      <c r="I423" s="6"/>
+      <c r="J423" s="6"/>
+      <c r="K423" s="6"/>
+      <c r="L423" s="6"/>
+      <c r="M423" s="6"/>
+      <c r="N423" s="6"/>
+      <c r="O423" s="6"/>
+      <c r="P423" s="6"/>
+      <c r="Q423" s="6"/>
+      <c r="R423" s="7"/>
+    </row>
+    <row r="424" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B424" s="8"/>
+      <c r="C424" s="6"/>
+      <c r="D424" s="6"/>
+      <c r="E424" s="6"/>
+      <c r="F424" s="6"/>
+      <c r="G424" s="6"/>
+      <c r="H424" s="6"/>
+      <c r="I424" s="6"/>
+      <c r="J424" s="6"/>
+      <c r="K424" s="6"/>
+      <c r="L424" s="6"/>
+      <c r="M424" s="6"/>
+      <c r="N424" s="6"/>
+      <c r="O424" s="6"/>
+      <c r="P424" s="6"/>
+      <c r="Q424" s="6"/>
+      <c r="R424" s="7"/>
+    </row>
+    <row r="425" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B425" s="8"/>
+      <c r="C425" s="6"/>
+      <c r="D425" s="6"/>
+      <c r="E425" s="6"/>
+      <c r="F425" s="6"/>
+      <c r="G425" s="6"/>
+      <c r="H425" s="6"/>
+      <c r="I425" s="6"/>
+      <c r="J425" s="6"/>
+      <c r="K425" s="6"/>
+      <c r="L425" s="6"/>
+      <c r="M425" s="6"/>
+      <c r="N425" s="6"/>
+      <c r="O425" s="6"/>
+      <c r="P425" s="6"/>
+      <c r="Q425" s="6"/>
+      <c r="R425" s="7"/>
+    </row>
+    <row r="426" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B426" s="8"/>
+      <c r="C426" s="6"/>
+      <c r="D426" s="6"/>
+      <c r="E426" s="6"/>
+      <c r="F426" s="6"/>
+      <c r="G426" s="6"/>
+      <c r="H426" s="6"/>
+      <c r="I426" s="6"/>
+      <c r="J426" s="6"/>
+      <c r="K426" s="6"/>
+      <c r="L426" s="6"/>
+      <c r="M426" s="6"/>
+      <c r="N426" s="6"/>
+      <c r="O426" s="6"/>
+      <c r="P426" s="6"/>
+      <c r="Q426" s="6"/>
+      <c r="R426" s="7"/>
+    </row>
+    <row r="427" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B427" s="8"/>
+      <c r="C427" s="6"/>
+      <c r="D427" s="6"/>
+      <c r="E427" s="6"/>
+      <c r="F427" s="6"/>
+      <c r="G427" s="6"/>
+      <c r="H427" s="6"/>
+      <c r="I427" s="6"/>
+      <c r="J427" s="6"/>
+      <c r="K427" s="6"/>
+      <c r="L427" s="6"/>
+      <c r="M427" s="6"/>
+      <c r="N427" s="6"/>
+      <c r="O427" s="6"/>
+      <c r="P427" s="6"/>
+      <c r="Q427" s="6"/>
+      <c r="R427" s="7"/>
+    </row>
+    <row r="428" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B428" s="8"/>
+      <c r="C428" s="6"/>
+      <c r="D428" s="6"/>
+      <c r="E428" s="6"/>
+      <c r="F428" s="6"/>
+      <c r="G428" s="6"/>
+      <c r="H428" s="6"/>
+      <c r="I428" s="6"/>
+      <c r="J428" s="6"/>
+      <c r="K428" s="6"/>
+      <c r="L428" s="6"/>
+      <c r="M428" s="6"/>
+      <c r="N428" s="6"/>
+      <c r="O428" s="6"/>
+      <c r="P428" s="6"/>
+      <c r="Q428" s="6"/>
+      <c r="R428" s="7"/>
+    </row>
+    <row r="429" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B429" s="8"/>
+      <c r="C429" s="6"/>
+      <c r="D429" s="6"/>
+      <c r="E429" s="6"/>
+      <c r="F429" s="6"/>
+      <c r="G429" s="6"/>
+      <c r="H429" s="6"/>
+      <c r="I429" s="6"/>
+      <c r="J429" s="6"/>
+      <c r="K429" s="6"/>
+      <c r="L429" s="6"/>
+      <c r="M429" s="6"/>
+      <c r="N429" s="6"/>
+      <c r="O429" s="6"/>
+      <c r="P429" s="6"/>
+      <c r="Q429" s="6"/>
+      <c r="R429" s="7"/>
+    </row>
+    <row r="430" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B430" s="8"/>
+      <c r="C430" s="6"/>
+      <c r="D430" s="6"/>
+      <c r="E430" s="6"/>
+      <c r="F430" s="6"/>
+      <c r="G430" s="6"/>
+      <c r="H430" s="6"/>
+      <c r="I430" s="6"/>
+      <c r="J430" s="6"/>
+      <c r="K430" s="6"/>
+      <c r="L430" s="6"/>
+      <c r="M430" s="6"/>
+      <c r="N430" s="6"/>
+      <c r="O430" s="6"/>
+      <c r="P430" s="6"/>
+      <c r="Q430" s="6"/>
+      <c r="R430" s="7"/>
+    </row>
+    <row r="431" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B431" s="8"/>
+      <c r="C431" s="6"/>
+      <c r="D431" s="6"/>
+      <c r="E431" s="6"/>
+      <c r="F431" s="6"/>
+      <c r="G431" s="6"/>
+      <c r="H431" s="6"/>
+      <c r="I431" s="6"/>
+      <c r="J431" s="6"/>
+      <c r="K431" s="6"/>
+      <c r="L431" s="6"/>
+      <c r="M431" s="6"/>
+      <c r="N431" s="6"/>
+      <c r="O431" s="6"/>
+      <c r="P431" s="6"/>
+      <c r="Q431" s="6"/>
+      <c r="R431" s="7"/>
+    </row>
+    <row r="432" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B432" s="8"/>
+      <c r="C432" s="6"/>
+      <c r="D432" s="6"/>
+      <c r="E432" s="6"/>
+      <c r="F432" s="6"/>
+      <c r="G432" s="6"/>
+      <c r="H432" s="6"/>
+      <c r="I432" s="6"/>
+      <c r="J432" s="6"/>
+      <c r="K432" s="6"/>
+      <c r="L432" s="6"/>
+      <c r="M432" s="6"/>
+      <c r="N432" s="6"/>
+      <c r="O432" s="6"/>
+      <c r="P432" s="6"/>
+      <c r="Q432" s="6"/>
+      <c r="R432" s="7"/>
+    </row>
+    <row r="433" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B433" s="8"/>
+      <c r="C433" s="6"/>
+      <c r="D433" s="6"/>
+      <c r="E433" s="6"/>
+      <c r="F433" s="6"/>
+      <c r="G433" s="6"/>
+      <c r="H433" s="6"/>
+      <c r="I433" s="6"/>
+      <c r="J433" s="6"/>
+      <c r="K433" s="6"/>
+      <c r="L433" s="6"/>
+      <c r="M433" s="6"/>
+      <c r="N433" s="6"/>
+      <c r="O433" s="6"/>
+      <c r="P433" s="6"/>
+      <c r="Q433" s="6"/>
+      <c r="R433" s="7"/>
+    </row>
+    <row r="434" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B434" s="8"/>
+      <c r="C434" s="6"/>
+      <c r="D434" s="6"/>
+      <c r="E434" s="6"/>
+      <c r="F434" s="6"/>
+      <c r="G434" s="6"/>
+      <c r="H434" s="6"/>
+      <c r="I434" s="6"/>
+      <c r="J434" s="6"/>
+      <c r="K434" s="6"/>
+      <c r="L434" s="6"/>
+      <c r="M434" s="6"/>
+      <c r="N434" s="6"/>
+      <c r="O434" s="6"/>
+      <c r="P434" s="6"/>
+      <c r="Q434" s="6"/>
+      <c r="R434" s="7"/>
+    </row>
+    <row r="435" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B435" s="8"/>
+      <c r="C435" s="6"/>
+      <c r="D435" s="6"/>
+      <c r="E435" s="6"/>
+      <c r="F435" s="6"/>
+      <c r="G435" s="6"/>
+      <c r="H435" s="6"/>
+      <c r="I435" s="6"/>
+      <c r="J435" s="6"/>
+      <c r="K435" s="6"/>
+      <c r="L435" s="6"/>
+      <c r="M435" s="6"/>
+      <c r="N435" s="6"/>
+      <c r="O435" s="6"/>
+      <c r="P435" s="6"/>
+      <c r="Q435" s="6"/>
+      <c r="R435" s="7"/>
+    </row>
+    <row r="436" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B436" s="8"/>
+      <c r="C436" s="6"/>
+      <c r="D436" s="6"/>
+      <c r="E436" s="6"/>
+      <c r="F436" s="6"/>
+      <c r="G436" s="6"/>
+      <c r="H436" s="6"/>
+      <c r="I436" s="6"/>
+      <c r="J436" s="6"/>
+      <c r="K436" s="6"/>
+      <c r="L436" s="6"/>
+      <c r="M436" s="6"/>
+      <c r="N436" s="6"/>
+      <c r="O436" s="6"/>
+      <c r="P436" s="6"/>
+      <c r="Q436" s="6"/>
+      <c r="R436" s="7"/>
+    </row>
+    <row r="437" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B437" s="8"/>
+      <c r="C437" s="6"/>
+      <c r="D437" s="6"/>
+      <c r="E437" s="6"/>
+      <c r="F437" s="6"/>
+      <c r="G437" s="6"/>
+      <c r="H437" s="6"/>
+      <c r="I437" s="6"/>
+      <c r="J437" s="6"/>
+      <c r="K437" s="6"/>
+      <c r="L437" s="6"/>
+      <c r="M437" s="6"/>
+      <c r="N437" s="6"/>
+      <c r="O437" s="6"/>
+      <c r="P437" s="6"/>
+      <c r="Q437" s="6"/>
+      <c r="R437" s="7"/>
+    </row>
+    <row r="438" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B438" s="8"/>
+      <c r="C438" s="6"/>
+      <c r="D438" s="6"/>
+      <c r="E438" s="6"/>
+      <c r="F438" s="6"/>
+      <c r="G438" s="6"/>
+      <c r="H438" s="6"/>
+      <c r="I438" s="6"/>
+      <c r="J438" s="6"/>
+      <c r="K438" s="6"/>
+      <c r="L438" s="6"/>
+      <c r="M438" s="6"/>
+      <c r="N438" s="6"/>
+      <c r="O438" s="6"/>
+      <c r="P438" s="6"/>
+      <c r="Q438" s="6"/>
+      <c r="R438" s="7"/>
+    </row>
+    <row r="439" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B439" s="8"/>
+      <c r="C439" s="6"/>
+      <c r="D439" s="6"/>
+      <c r="E439" s="6"/>
+      <c r="F439" s="6"/>
+      <c r="G439" s="6"/>
+      <c r="H439" s="6"/>
+      <c r="I439" s="6"/>
+      <c r="J439" s="6"/>
+      <c r="K439" s="6"/>
+      <c r="L439" s="6"/>
+      <c r="M439" s="6"/>
+      <c r="N439" s="6"/>
+      <c r="O439" s="6"/>
+      <c r="P439" s="6"/>
+      <c r="Q439" s="6"/>
+      <c r="R439" s="7"/>
+    </row>
+    <row r="440" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B440" s="8"/>
+      <c r="C440" s="6"/>
+      <c r="D440" s="6"/>
+      <c r="E440" s="6"/>
+      <c r="F440" s="6"/>
+      <c r="G440" s="6"/>
+      <c r="H440" s="6"/>
+      <c r="I440" s="6"/>
+      <c r="J440" s="6"/>
+      <c r="K440" s="6"/>
+      <c r="L440" s="6"/>
+      <c r="M440" s="6"/>
+      <c r="N440" s="6"/>
+      <c r="O440" s="6"/>
+      <c r="P440" s="6"/>
+      <c r="Q440" s="6"/>
+      <c r="R440" s="7"/>
+    </row>
+    <row r="441" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B441" s="8"/>
+      <c r="C441" s="6"/>
+      <c r="D441" s="6"/>
+      <c r="E441" s="6"/>
+      <c r="F441" s="6"/>
+      <c r="G441" s="6"/>
+      <c r="H441" s="6"/>
+      <c r="I441" s="6"/>
+      <c r="J441" s="6"/>
+      <c r="K441" s="6"/>
+      <c r="L441" s="6"/>
+      <c r="M441" s="6"/>
+      <c r="N441" s="6"/>
+      <c r="O441" s="6"/>
+      <c r="P441" s="6"/>
+      <c r="Q441" s="6"/>
+      <c r="R441" s="7"/>
+    </row>
+    <row r="442" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B442" s="8"/>
+      <c r="C442" s="6"/>
+      <c r="D442" s="6"/>
+      <c r="E442" s="6"/>
+      <c r="F442" s="6"/>
+      <c r="G442" s="6"/>
+      <c r="H442" s="6"/>
+      <c r="I442" s="6"/>
+      <c r="J442" s="6"/>
+      <c r="K442" s="6"/>
+      <c r="L442" s="6"/>
+      <c r="M442" s="6"/>
+      <c r="N442" s="6"/>
+      <c r="O442" s="6"/>
+      <c r="P442" s="6"/>
+      <c r="Q442" s="6"/>
+      <c r="R442" s="7"/>
+    </row>
+    <row r="443" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B443" s="8"/>
+      <c r="C443" s="6"/>
+      <c r="D443" s="6"/>
+      <c r="E443" s="6"/>
+      <c r="F443" s="6"/>
+      <c r="G443" s="6"/>
+      <c r="H443" s="6"/>
+      <c r="I443" s="6"/>
+      <c r="J443" s="6"/>
+      <c r="K443" s="6"/>
+      <c r="L443" s="6"/>
+      <c r="M443" s="6"/>
+      <c r="N443" s="6"/>
+      <c r="O443" s="6"/>
+      <c r="P443" s="6"/>
+      <c r="Q443" s="6"/>
+      <c r="R443" s="7"/>
+    </row>
+    <row r="444" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B444" s="8"/>
+      <c r="C444" s="6"/>
+      <c r="D444" s="6"/>
+      <c r="E444" s="6"/>
+      <c r="F444" s="6"/>
+      <c r="G444" s="6"/>
+      <c r="H444" s="6"/>
+      <c r="I444" s="6"/>
+      <c r="J444" s="6"/>
+      <c r="K444" s="6"/>
+      <c r="L444" s="6"/>
+      <c r="M444" s="6"/>
+      <c r="N444" s="6"/>
+      <c r="O444" s="6"/>
+      <c r="P444" s="6"/>
+      <c r="Q444" s="6"/>
+      <c r="R444" s="7"/>
+    </row>
+    <row r="445" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B445" s="8"/>
+      <c r="C445" s="6"/>
+      <c r="D445" s="6"/>
+      <c r="E445" s="6"/>
+      <c r="F445" s="6"/>
+      <c r="G445" s="6"/>
+      <c r="H445" s="6"/>
+      <c r="I445" s="6"/>
+      <c r="J445" s="6"/>
+      <c r="K445" s="6"/>
+      <c r="L445" s="6"/>
+      <c r="M445" s="6"/>
+      <c r="N445" s="6"/>
+      <c r="O445" s="6"/>
+      <c r="P445" s="6"/>
+      <c r="Q445" s="6"/>
+      <c r="R445" s="7"/>
+    </row>
+    <row r="446" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B446" s="8"/>
+      <c r="C446" s="6"/>
+      <c r="D446" s="6"/>
+      <c r="E446" s="6"/>
+      <c r="F446" s="6"/>
+      <c r="G446" s="6"/>
+      <c r="H446" s="6"/>
+      <c r="I446" s="6"/>
+      <c r="J446" s="6"/>
+      <c r="K446" s="6"/>
+      <c r="L446" s="6"/>
+      <c r="M446" s="6"/>
+      <c r="N446" s="6"/>
+      <c r="O446" s="6"/>
+      <c r="P446" s="6"/>
+      <c r="Q446" s="6"/>
+      <c r="R446" s="7"/>
+    </row>
+    <row r="447" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B447" s="8"/>
+      <c r="C447" s="6"/>
+      <c r="D447" s="6"/>
+      <c r="E447" s="6"/>
+      <c r="F447" s="6"/>
+      <c r="G447" s="6"/>
+      <c r="H447" s="6"/>
+      <c r="I447" s="6"/>
+      <c r="J447" s="6"/>
+      <c r="K447" s="6"/>
+      <c r="L447" s="6"/>
+      <c r="M447" s="6"/>
+      <c r="N447" s="6"/>
+      <c r="O447" s="6"/>
+      <c r="P447" s="6"/>
+      <c r="Q447" s="6"/>
+      <c r="R447" s="7"/>
+    </row>
+    <row r="448" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B448" s="8"/>
+      <c r="C448" s="6"/>
+      <c r="D448" s="6"/>
+      <c r="E448" s="6"/>
+      <c r="F448" s="6"/>
+      <c r="G448" s="6"/>
+      <c r="H448" s="6"/>
+      <c r="I448" s="6"/>
+      <c r="J448" s="6"/>
+      <c r="K448" s="6"/>
+      <c r="L448" s="6"/>
+      <c r="M448" s="6"/>
+      <c r="N448" s="6"/>
+      <c r="O448" s="6"/>
+      <c r="P448" s="6"/>
+      <c r="Q448" s="6"/>
+      <c r="R448" s="7"/>
+    </row>
+    <row r="449" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B449" s="8"/>
+      <c r="C449" s="6"/>
+      <c r="D449" s="6"/>
+      <c r="E449" s="6"/>
+      <c r="F449" s="6"/>
+      <c r="G449" s="6"/>
+      <c r="H449" s="6"/>
+      <c r="I449" s="6"/>
+      <c r="J449" s="6"/>
+      <c r="K449" s="6"/>
+      <c r="L449" s="6"/>
+      <c r="M449" s="6"/>
+      <c r="N449" s="6"/>
+      <c r="O449" s="6"/>
+      <c r="P449" s="6"/>
+      <c r="Q449" s="6"/>
+      <c r="R449" s="7"/>
+    </row>
+    <row r="450" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B450" s="9"/>
+      <c r="C450" s="10"/>
+      <c r="D450" s="10"/>
+      <c r="E450" s="10"/>
+      <c r="F450" s="10"/>
+      <c r="G450" s="10"/>
+      <c r="H450" s="10"/>
+      <c r="I450" s="10"/>
+      <c r="J450" s="10"/>
+      <c r="K450" s="10"/>
+      <c r="L450" s="10"/>
+      <c r="M450" s="10"/>
+      <c r="N450" s="10"/>
+      <c r="O450" s="10"/>
+      <c r="P450" s="10"/>
+      <c r="Q450" s="10"/>
+      <c r="R450" s="11"/>
+    </row>
+    <row r="453" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B453" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C453" s="3"/>
+      <c r="D453" s="3"/>
+      <c r="E453" s="3"/>
+      <c r="F453" s="3"/>
+      <c r="G453" s="3"/>
+      <c r="H453" s="3"/>
+      <c r="I453" s="3"/>
+      <c r="J453" s="3"/>
+      <c r="K453" s="3"/>
+      <c r="L453" s="3"/>
+      <c r="M453" s="3"/>
+      <c r="N453" s="3"/>
+      <c r="O453" s="3"/>
+      <c r="P453" s="3"/>
+      <c r="Q453" s="3"/>
+      <c r="R453" s="4"/>
+    </row>
+    <row r="454" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B454" s="8"/>
+      <c r="C454" s="6"/>
+      <c r="D454" s="6"/>
+      <c r="E454" s="6"/>
+      <c r="F454" s="6"/>
+      <c r="G454" s="6"/>
+      <c r="H454" s="6"/>
+      <c r="I454" s="6"/>
+      <c r="J454" s="6"/>
+      <c r="K454" s="6"/>
+      <c r="L454" s="6"/>
+      <c r="M454" s="6"/>
+      <c r="N454" s="6"/>
+      <c r="O454" s="6"/>
+      <c r="P454" s="6"/>
+      <c r="Q454" s="6"/>
+      <c r="R454" s="7"/>
+    </row>
+    <row r="455" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B455" s="8"/>
+      <c r="C455" s="6"/>
+      <c r="D455" s="6"/>
+      <c r="E455" s="6"/>
+      <c r="F455" s="6"/>
+      <c r="G455" s="6"/>
+      <c r="H455" s="6"/>
+      <c r="I455" s="6"/>
+      <c r="J455" s="6"/>
+      <c r="K455" s="6"/>
+      <c r="L455" s="6"/>
+      <c r="M455" s="6"/>
+      <c r="N455" s="6"/>
+      <c r="O455" s="6"/>
+      <c r="P455" s="6"/>
+      <c r="Q455" s="6"/>
+      <c r="R455" s="7"/>
+    </row>
+    <row r="456" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B456" s="8"/>
+      <c r="C456" s="6"/>
+      <c r="D456" s="6"/>
+      <c r="E456" s="6"/>
+      <c r="F456" s="6"/>
+      <c r="G456" s="6"/>
+      <c r="H456" s="6"/>
+      <c r="I456" s="6"/>
+      <c r="J456" s="6"/>
+      <c r="K456" s="6"/>
+      <c r="L456" s="6"/>
+      <c r="M456" s="6"/>
+      <c r="N456" s="6"/>
+      <c r="O456" s="6"/>
+      <c r="P456" s="6"/>
+      <c r="Q456" s="6"/>
+      <c r="R456" s="7"/>
+    </row>
+    <row r="457" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B457" s="8"/>
+      <c r="C457" s="6"/>
+      <c r="D457" s="6"/>
+      <c r="E457" s="6"/>
+      <c r="F457" s="6"/>
+      <c r="G457" s="6"/>
+      <c r="H457" s="6"/>
+      <c r="I457" s="6"/>
+      <c r="J457" s="6"/>
+      <c r="K457" s="6"/>
+      <c r="L457" s="6"/>
+      <c r="M457" s="6"/>
+      <c r="N457" s="6"/>
+      <c r="O457" s="6"/>
+      <c r="P457" s="6"/>
+      <c r="Q457" s="6"/>
+      <c r="R457" s="7"/>
+    </row>
+    <row r="458" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B458" s="8"/>
+      <c r="C458" s="6"/>
+      <c r="D458" s="6"/>
+      <c r="E458" s="6"/>
+      <c r="F458" s="6"/>
+      <c r="G458" s="6"/>
+      <c r="H458" s="6"/>
+      <c r="I458" s="6"/>
+      <c r="J458" s="6"/>
+      <c r="K458" s="6"/>
+      <c r="L458" s="6"/>
+      <c r="M458" s="6"/>
+      <c r="N458" s="6"/>
+      <c r="O458" s="6"/>
+      <c r="P458" s="6"/>
+      <c r="Q458" s="6"/>
+      <c r="R458" s="7"/>
+    </row>
+    <row r="459" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B459" s="8"/>
+      <c r="C459" s="6"/>
+      <c r="D459" s="6"/>
+      <c r="E459" s="6"/>
+      <c r="F459" s="6"/>
+      <c r="G459" s="6"/>
+      <c r="H459" s="6"/>
+      <c r="I459" s="6"/>
+      <c r="J459" s="6"/>
+      <c r="K459" s="6"/>
+      <c r="L459" s="6"/>
+      <c r="M459" s="6"/>
+      <c r="N459" s="6"/>
+      <c r="O459" s="6"/>
+      <c r="P459" s="6"/>
+      <c r="Q459" s="6"/>
+      <c r="R459" s="7"/>
+    </row>
+    <row r="460" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B460" s="8"/>
+      <c r="C460" s="6"/>
+      <c r="D460" s="6"/>
+      <c r="E460" s="6"/>
+      <c r="F460" s="6"/>
+      <c r="G460" s="6"/>
+      <c r="H460" s="6"/>
+      <c r="I460" s="6"/>
+      <c r="J460" s="6"/>
+      <c r="K460" s="6"/>
+      <c r="L460" s="6"/>
+      <c r="M460" s="6"/>
+      <c r="N460" s="6"/>
+      <c r="O460" s="6"/>
+      <c r="P460" s="6"/>
+      <c r="Q460" s="6"/>
+      <c r="R460" s="7"/>
+    </row>
+    <row r="461" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B461" s="8"/>
+      <c r="C461" s="6"/>
+      <c r="D461" s="6"/>
+      <c r="E461" s="6"/>
+      <c r="F461" s="6"/>
+      <c r="G461" s="6"/>
+      <c r="H461" s="6"/>
+      <c r="I461" s="6"/>
+      <c r="J461" s="6"/>
+      <c r="K461" s="6"/>
+      <c r="L461" s="6"/>
+      <c r="M461" s="6"/>
+      <c r="N461" s="6"/>
+      <c r="O461" s="6"/>
+      <c r="P461" s="6"/>
+      <c r="Q461" s="6"/>
+      <c r="R461" s="7"/>
+    </row>
+    <row r="462" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B462" s="8"/>
+      <c r="C462" s="6"/>
+      <c r="D462" s="6"/>
+      <c r="E462" s="6"/>
+      <c r="F462" s="6"/>
+      <c r="G462" s="6"/>
+      <c r="H462" s="6"/>
+      <c r="I462" s="6"/>
+      <c r="J462" s="6"/>
+      <c r="K462" s="6"/>
+      <c r="L462" s="6"/>
+      <c r="M462" s="6"/>
+      <c r="N462" s="6"/>
+      <c r="O462" s="6"/>
+      <c r="P462" s="6"/>
+      <c r="Q462" s="6"/>
+      <c r="R462" s="7"/>
+    </row>
+    <row r="463" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B463" s="8"/>
+      <c r="C463" s="6"/>
+      <c r="D463" s="6"/>
+      <c r="E463" s="6"/>
+      <c r="F463" s="6"/>
+      <c r="G463" s="6"/>
+      <c r="H463" s="6"/>
+      <c r="I463" s="6"/>
+      <c r="J463" s="6"/>
+      <c r="K463" s="6"/>
+      <c r="L463" s="6"/>
+      <c r="M463" s="6"/>
+      <c r="N463" s="6"/>
+      <c r="O463" s="6"/>
+      <c r="P463" s="6"/>
+      <c r="Q463" s="6"/>
+      <c r="R463" s="7"/>
+    </row>
+    <row r="464" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B464" s="8"/>
+      <c r="C464" s="6"/>
+      <c r="D464" s="6"/>
+      <c r="E464" s="6"/>
+      <c r="F464" s="6"/>
+      <c r="G464" s="6"/>
+      <c r="H464" s="6"/>
+      <c r="I464" s="6"/>
+      <c r="J464" s="6"/>
+      <c r="K464" s="6"/>
+      <c r="L464" s="6"/>
+      <c r="M464" s="6"/>
+      <c r="N464" s="6"/>
+      <c r="O464" s="6"/>
+      <c r="P464" s="6"/>
+      <c r="Q464" s="6"/>
+      <c r="R464" s="7"/>
+    </row>
+    <row r="465" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B465" s="8"/>
+      <c r="C465" s="6"/>
+      <c r="D465" s="6"/>
+      <c r="E465" s="6"/>
+      <c r="F465" s="6"/>
+      <c r="G465" s="6"/>
+      <c r="H465" s="6"/>
+      <c r="I465" s="6"/>
+      <c r="J465" s="6"/>
+      <c r="K465" s="6"/>
+      <c r="L465" s="6"/>
+      <c r="M465" s="6"/>
+      <c r="N465" s="6"/>
+      <c r="O465" s="6"/>
+      <c r="P465" s="6"/>
+      <c r="Q465" s="6"/>
+      <c r="R465" s="7"/>
+    </row>
+    <row r="466" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B466" s="8"/>
+      <c r="C466" s="6"/>
+      <c r="D466" s="6"/>
+      <c r="E466" s="6"/>
+      <c r="F466" s="6"/>
+      <c r="G466" s="6"/>
+      <c r="H466" s="6"/>
+      <c r="I466" s="6"/>
+      <c r="J466" s="6"/>
+      <c r="K466" s="6"/>
+      <c r="L466" s="6"/>
+      <c r="M466" s="6"/>
+      <c r="N466" s="6"/>
+      <c r="O466" s="6"/>
+      <c r="P466" s="6"/>
+      <c r="Q466" s="6"/>
+      <c r="R466" s="7"/>
+    </row>
+    <row r="467" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B467" s="8"/>
+      <c r="C467" s="6"/>
+      <c r="D467" s="6"/>
+      <c r="E467" s="6"/>
+      <c r="F467" s="6"/>
+      <c r="G467" s="6"/>
+      <c r="H467" s="6"/>
+      <c r="I467" s="6"/>
+      <c r="J467" s="6"/>
+      <c r="K467" s="6"/>
+      <c r="L467" s="6"/>
+      <c r="M467" s="6"/>
+      <c r="N467" s="6"/>
+      <c r="O467" s="6"/>
+      <c r="P467" s="6"/>
+      <c r="Q467" s="6"/>
+      <c r="R467" s="7"/>
+    </row>
+    <row r="468" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B468" s="8"/>
+      <c r="C468" s="6"/>
+      <c r="D468" s="6"/>
+      <c r="E468" s="6"/>
+      <c r="F468" s="6"/>
+      <c r="G468" s="6"/>
+      <c r="H468" s="6"/>
+      <c r="I468" s="6"/>
+      <c r="J468" s="6"/>
+      <c r="K468" s="6"/>
+      <c r="L468" s="6"/>
+      <c r="M468" s="6"/>
+      <c r="N468" s="6"/>
+      <c r="O468" s="6"/>
+      <c r="P468" s="6"/>
+      <c r="Q468" s="6"/>
+      <c r="R468" s="7"/>
+    </row>
+    <row r="469" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B469" s="8"/>
+      <c r="C469" s="6"/>
+      <c r="D469" s="6"/>
+      <c r="E469" s="6"/>
+      <c r="F469" s="6"/>
+      <c r="G469" s="6"/>
+      <c r="H469" s="6"/>
+      <c r="I469" s="6"/>
+      <c r="J469" s="6"/>
+      <c r="K469" s="6"/>
+      <c r="L469" s="6"/>
+      <c r="M469" s="6"/>
+      <c r="N469" s="6"/>
+      <c r="O469" s="6"/>
+      <c r="P469" s="6"/>
+      <c r="Q469" s="6"/>
+      <c r="R469" s="7"/>
+    </row>
+    <row r="470" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B470" s="9"/>
+      <c r="C470" s="10"/>
+      <c r="D470" s="10"/>
+      <c r="E470" s="10"/>
+      <c r="F470" s="10"/>
+      <c r="G470" s="10"/>
+      <c r="H470" s="10"/>
+      <c r="I470" s="10"/>
+      <c r="J470" s="10"/>
+      <c r="K470" s="10"/>
+      <c r="L470" s="10"/>
+      <c r="M470" s="10"/>
+      <c r="N470" s="10"/>
+      <c r="O470" s="10"/>
+      <c r="P470" s="10"/>
+      <c r="Q470" s="10"/>
+      <c r="R470" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C09160-2AED-4544-9921-84BA27CEB8C5}">
   <dimension ref="A2:U286"/>
@@ -31405,8 +40258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F05DCE0-397E-4192-8E6D-D2215DEE2453}">
   <dimension ref="A2:U251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/me/4.create-a-restful-api/4.api-key-authentication.xlsx
+++ b/me/4.create-a-restful-api/4.api-key-authentication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B032F2B3-2FF7-47F4-B060-B2603340B0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7D9ED4-8152-4BF4-AB58-747E705D244F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create user table" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Retrieve ID of athenticate user" sheetId="9" r:id="rId9"/>
     <sheet name="Restrict auth user's tasks" sheetId="10" r:id="rId10"/>
     <sheet name="RestrictTheRest ofTaskEndpoints" sheetId="11" r:id="rId11"/>
+    <sheet name="Cache the database connection" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="485">
   <si>
     <t>Create a table to store user account data</t>
   </si>
@@ -1885,6 +1886,136 @@
   </si>
   <si>
     <t>đã được xóa và ko còn tồn tại trong DB)</t>
+  </si>
+  <si>
+    <t>Cache the database connection to avoid multiple connections in the same request</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\src\Database.php</t>
+  </si>
+  <si>
+    <t>class Database</t>
+  </si>
+  <si>
+    <t>    private $host;</t>
+  </si>
+  <si>
+    <t>    private $name;</t>
+  </si>
+  <si>
+    <t>    private $user;</t>
+  </si>
+  <si>
+    <t>    private $password;</t>
+  </si>
+  <si>
+    <t>    private $conn = null;</t>
+  </si>
+  <si>
+    <t>    public function __construct(</t>
+  </si>
+  <si>
+    <t>        string $host,</t>
+  </si>
+  <si>
+    <t>        string $name,</t>
+  </si>
+  <si>
+    <t>        string $user,</t>
+  </si>
+  <si>
+    <t>        string $password</t>
+  </si>
+  <si>
+    <t>    ) {</t>
+  </si>
+  <si>
+    <t>        $this-&gt;host = $host;</t>
+  </si>
+  <si>
+    <t>        $this-&gt;name = $name;</t>
+  </si>
+  <si>
+    <t>        $this-&gt;user = $user;</t>
+  </si>
+  <si>
+    <t>        $this-&gt;password = $password;</t>
+  </si>
+  <si>
+    <t>        if ($this-&gt;conn === null) {</t>
+  </si>
+  <si>
+    <t>            $dsn = "mysql:host={$this-&gt;host};dbname={$this-&gt;name};charset=utf8";</t>
+  </si>
+  <si>
+    <t>                PDO::ATTR_ERRMODE =&gt; PDO::ERRMODE_EXCEPTION,</t>
+  </si>
+  <si>
+    <t>                PDO::ATTR_EMULATE_PREPARES =&gt; false,</t>
+  </si>
+  <si>
+    <t>                PDO::ATTR_STRINGIFY_FETCHES =&gt; false</t>
+  </si>
+  <si>
+    <t>            ]);</t>
+  </si>
+  <si>
+    <t>        return $this-&gt;conn;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$this-&gt;conn =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> new PDO($dsn, $this-&gt;user, $this-&gt;password, [</t>
+    </r>
+  </si>
+  <si>
+    <t>    public function getConnection(): PDO</t>
+  </si>
+  <si>
+    <t>Đối với bất kỳ 1 request call api nào thì đầu tiên cũng sẽ truyền đến index.php đầu tiên. Hiện tại index.php có UserGateway và TaskGateway class và trong 2 class này đều khởi tạo connection đến</t>
+  </si>
+  <si>
+    <t>public function __construct(Database $database)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $this-&gt;conn = $database-&gt;getConnection();</t>
+  </si>
+  <si>
+    <t>DB bằng cách gọi phương thức getConnection() của class Database trong hàm khởi tạo __construct() của TaskGateway và UserGateway</t>
+  </si>
+  <si>
+    <t>Điều này có nghĩa là đối với bất kỳ request nào thì cũng sẽ có 2 connection đến DB. Để tránh điều này mình sẽ lưu lại connection vào 1 property($conn) của class Database để biết DB đã được connection</t>
+  </si>
+  <si>
+    <t>hay chưa. Khi phương thức getConnection thực hiện kết nối thì sẽ kiếm tra  chưa connection với DB thì mới thực hiện connection, còn đã connection rồi thì ko cần connection lại nữa</t>
+  </si>
+  <si>
+    <t>Do đó ở lần đầu tiên phương thức getConnection() được gọi đến, sau khi connection với DB thì connection sẽ được lưu vào trong property $conn, các lần gọi đến phương thức getConnection()</t>
+  </si>
+  <si>
+    <t>sau nó sẽ trả luôn về giá trị $conn đó. Điều này giúp mình tránh được mutiple connection đến DB đối với cùng 1 request đến 1 api enpoint nào đó.</t>
+  </si>
+  <si>
+    <t>Check by call api để kiểm tra kết nối DB vẫn hoạt động bình thường</t>
   </si>
 </sst>
 </file>
@@ -4691,6 +4822,258 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>148237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>94599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB386568-880B-9AF7-7055-A1FA3603E9C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="8720737"/>
+          <a:ext cx="13811250" cy="5851862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89079C49-E8AB-79EF-6484-5D8FBCFFFD04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1809750" y="1685925"/>
+          <a:ext cx="1219200" cy="12087225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CAD3AD4-AB15-249A-F5FC-65BF0EF6F5C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1343025" y="2257425"/>
+          <a:ext cx="7743825" cy="8858250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F1B3D6-8E4C-B189-022C-3E4CA074DD72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="11210925"/>
+          <a:ext cx="209550" cy="2971800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>322601</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>161248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13893CD3-5B84-724A-5D63-20F3489B4453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="17411700"/>
+          <a:ext cx="9990476" cy="5419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10715,7 +11098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872D303F-9D02-481D-96AC-88DF200E8ED1}">
   <dimension ref="A2:AJ471"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
@@ -19024,8 +19407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653EE2E1-DD9E-4B41-9940-6AD7A2BA3C5C}">
   <dimension ref="A2:AG574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A565" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T526" sqref="T526"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19194,7 +19577,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="28"/>
       <c r="C17" s="15"/>
@@ -19208,7 +19591,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="28"/>
       <c r="C18" s="15"/>
@@ -19222,7 +19605,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="28"/>
       <c r="C19" s="15"/>
@@ -19236,7 +19619,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="28"/>
       <c r="C20" s="15"/>
@@ -19250,7 +19633,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="28"/>
       <c r="C21" s="15"/>
@@ -19264,7 +19647,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="28"/>
       <c r="C22" s="15"/>
@@ -19278,7 +19661,7 @@
       <c r="I22" s="15"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="28"/>
       <c r="C23" s="15"/>
@@ -19292,7 +19675,7 @@
       <c r="I23" s="15"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="28"/>
       <c r="C24" s="15"/>
@@ -19306,7 +19689,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="28"/>
       <c r="C25" s="15"/>
@@ -19320,7 +19703,7 @@
       <c r="I25" s="15"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="28"/>
       <c r="C26" s="15"/>
@@ -19334,7 +19717,7 @@
       <c r="I26" s="15"/>
       <c r="J26" s="29"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="28"/>
       <c r="C27" s="15"/>
@@ -19348,7 +19731,7 @@
       <c r="I27" s="15"/>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="28"/>
       <c r="C28" s="15"/>
@@ -19362,7 +19745,7 @@
       <c r="I28" s="15"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="28"/>
       <c r="C29" s="15"/>
@@ -19376,7 +19759,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="28"/>
       <c r="C30" s="15"/>
@@ -19390,7 +19773,7 @@
       <c r="I30" s="15"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="28"/>
       <c r="C31" s="15"/>
@@ -19403,8 +19786,14 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="29"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="28"/>
       <c r="C32" s="15"/>
@@ -19417,6 +19806,12 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="29"/>
+      <c r="K32" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
@@ -30723,6 +31118,2360 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C94FFA4-F642-4465-AC56-3E6EE642A8C6}">
+  <dimension ref="A2:AH121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="T111" sqref="T111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="29"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="29"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="29"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="29"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="29"/>
+      <c r="K40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="29"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="29"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="29"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="29"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="33"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B52" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B53" s="8"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="7"/>
+      <c r="L56" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="7"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="4"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="7"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="7"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="7"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="7"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B60" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="7"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="7"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="7"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="7"/>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="7"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
+      <c r="AF62" s="6"/>
+      <c r="AG62" s="6"/>
+      <c r="AH62" s="7"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="7"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="6"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="7"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="7"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="7"/>
+    </row>
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="7"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="7"/>
+    </row>
+    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="7"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="7"/>
+    </row>
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="7"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="7"/>
+    </row>
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="7"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="6"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="6"/>
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="6"/>
+      <c r="AF68" s="6"/>
+      <c r="AG68" s="6"/>
+      <c r="AH68" s="7"/>
+    </row>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="7"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6"/>
+      <c r="AF69" s="6"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="7"/>
+    </row>
+    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="7"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
+      <c r="AA70" s="6"/>
+      <c r="AB70" s="6"/>
+      <c r="AC70" s="6"/>
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="6"/>
+      <c r="AF70" s="6"/>
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="7"/>
+    </row>
+    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="7"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="6"/>
+      <c r="AB71" s="6"/>
+      <c r="AC71" s="6"/>
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="6"/>
+      <c r="AF71" s="6"/>
+      <c r="AG71" s="6"/>
+      <c r="AH71" s="7"/>
+    </row>
+    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="7"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
+      <c r="AA72" s="6"/>
+      <c r="AB72" s="6"/>
+      <c r="AC72" s="6"/>
+      <c r="AD72" s="6"/>
+      <c r="AE72" s="6"/>
+      <c r="AF72" s="6"/>
+      <c r="AG72" s="6"/>
+      <c r="AH72" s="7"/>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B73" s="8"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="7"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6"/>
+      <c r="AF73" s="6"/>
+      <c r="AG73" s="6"/>
+      <c r="AH73" s="7"/>
+    </row>
+    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="7"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="6"/>
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="6"/>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="6"/>
+      <c r="AF74" s="6"/>
+      <c r="AG74" s="6"/>
+      <c r="AH74" s="7"/>
+    </row>
+    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="7"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="6"/>
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
+      <c r="AD75" s="6"/>
+      <c r="AE75" s="6"/>
+      <c r="AF75" s="6"/>
+      <c r="AG75" s="6"/>
+      <c r="AH75" s="7"/>
+    </row>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B76" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="7"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="6"/>
+      <c r="AB76" s="6"/>
+      <c r="AC76" s="6"/>
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="6"/>
+      <c r="AF76" s="6"/>
+      <c r="AG76" s="6"/>
+      <c r="AH76" s="7"/>
+    </row>
+    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="7"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="6"/>
+      <c r="AB77" s="6"/>
+      <c r="AC77" s="6"/>
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="6"/>
+      <c r="AF77" s="6"/>
+      <c r="AG77" s="6"/>
+      <c r="AH77" s="7"/>
+    </row>
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B78" s="8"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="7"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="6"/>
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="6"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6"/>
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="7"/>
+    </row>
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="7"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="7"/>
+    </row>
+    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B80" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="7"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="6"/>
+      <c r="AB80" s="6"/>
+      <c r="AC80" s="6"/>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="6"/>
+      <c r="AF80" s="6"/>
+      <c r="AG80" s="6"/>
+      <c r="AH80" s="7"/>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="7"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="6"/>
+      <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="6"/>
+      <c r="AF81" s="6"/>
+      <c r="AG81" s="6"/>
+      <c r="AH81" s="7"/>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="7"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="6"/>
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="6"/>
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="6"/>
+      <c r="AF82" s="6"/>
+      <c r="AG82" s="6"/>
+      <c r="AH82" s="7"/>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="7"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="6"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="6"/>
+      <c r="AF83" s="6"/>
+      <c r="AG83" s="6"/>
+      <c r="AH83" s="7"/>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B84" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="7"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="6"/>
+      <c r="AB84" s="6"/>
+      <c r="AC84" s="6"/>
+      <c r="AD84" s="6"/>
+      <c r="AE84" s="6"/>
+      <c r="AF84" s="6"/>
+      <c r="AG84" s="6"/>
+      <c r="AH84" s="7"/>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B85" s="8"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="7"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="6"/>
+      <c r="AB85" s="6"/>
+      <c r="AC85" s="6"/>
+      <c r="AD85" s="6"/>
+      <c r="AE85" s="6"/>
+      <c r="AF85" s="6"/>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="7"/>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B86" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="7"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="6"/>
+      <c r="AE86" s="6"/>
+      <c r="AF86" s="6"/>
+      <c r="AG86" s="6"/>
+      <c r="AH86" s="7"/>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="7"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6"/>
+      <c r="AF87" s="6"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="7"/>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B88" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="11"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="10"/>
+      <c r="Z88" s="10"/>
+      <c r="AA88" s="10"/>
+      <c r="AB88" s="10"/>
+      <c r="AC88" s="10"/>
+      <c r="AD88" s="10"/>
+      <c r="AE88" s="10"/>
+      <c r="AF88" s="10"/>
+      <c r="AG88" s="10"/>
+      <c r="AH88" s="11"/>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="4"/>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="7"/>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="7"/>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="7"/>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="7"/>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="7"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="7"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="7"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="7"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="7"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="7"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="7"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="7"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="7"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="7"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="7"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="7"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="7"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="7"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="7"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="7"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="7"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="7"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="7"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="7"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="7"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="7"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="7"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="7"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="7"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A121" s="9"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10"/>
+      <c r="R121" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C09160-2AED-4544-9921-84BA27CEB8C5}">
   <dimension ref="A2:U286"/>
